--- a/Lenh_Dieu_Xe.xlsx
+++ b/Lenh_Dieu_Xe.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="3.3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Dia_Chi" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Driver_Timetable" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tai_Xe" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Driver_Timetable" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.3'!$A$4:$Q$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3.3'!$A$1:$G$11825</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -24,7 +25,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <charset val="163"/>
@@ -183,14 +184,8 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -229,14 +224,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-        <bgColor rgb="00FFA500"/>
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -314,15 +327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -339,15 +343,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -382,6 +377,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -397,7 +410,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center"/>
@@ -587,9 +600,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -620,35 +630,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,1064 +773,1071 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1842,6 +1851,69 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.5999633777886288"/>
         </patternFill>
       </fill>
@@ -1849,6 +1921,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -1870,7 +1970,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1884,161 +2005,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.3999450666829432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.3999450666829432"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.3999450666829432"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.3999450666829432"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1499679555650502"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2101,7 +2103,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1499374370555742"/>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2109,6 +2111,55 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.3999145481734672"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2122,7 +2173,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.5999633777886288"/>
+          <bgColor theme="5" tint="0.3999145481734672"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2136,7 +2187,35 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.3999145481734672"/>
+          <bgColor theme="7" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.5999633777886288"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2144,83 +2223,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1499374370555742"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.5999633777886288"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.3999145481734672"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1499374370555742"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2620,19 +2622,20 @@
     <col width="14.88671875" customWidth="1" style="7" min="9" max="10"/>
     <col width="9.109375" customWidth="1" style="6" min="11" max="11"/>
     <col width="10.109375" customWidth="1" style="6" min="12" max="12"/>
-    <col width="9.109375" customWidth="1" style="6" min="13" max="16384"/>
+    <col width="9.109375" customWidth="1" style="6" min="13" max="17"/>
+    <col width="9.109375" customWidth="1" style="6" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customFormat="1" customHeight="1" s="2">
-      <c r="A1" s="86" t="n"/>
-      <c r="B1" s="82" t="n"/>
-      <c r="C1" s="87" t="n"/>
-      <c r="D1" s="87" t="n"/>
-      <c r="E1" s="87" t="n"/>
-      <c r="F1" s="87" t="n"/>
-      <c r="G1" s="87" t="n"/>
-      <c r="H1" s="88" t="n"/>
-      <c r="I1" s="84" t="inlineStr">
+      <c r="A1" s="88" t="n"/>
+      <c r="B1" s="85" t="n"/>
+      <c r="C1" s="86" t="n"/>
+      <c r="D1" s="86" t="n"/>
+      <c r="E1" s="86" t="n"/>
+      <c r="F1" s="86" t="n"/>
+      <c r="G1" s="86" t="n"/>
+      <c r="H1" s="82" t="n"/>
+      <c r="I1" s="81" t="inlineStr">
         <is>
           <t>Mã số: BM 01-QT 01-ĐX
 Ngày hiệu lực:25 – 08 -2022
@@ -2640,7 +2643,7 @@
 Trang:                      1/1</t>
         </is>
       </c>
-      <c r="J1" s="88" t="n"/>
+      <c r="J1" s="82" t="n"/>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>1,4t = 9,7m3 , 3,5t = 24,2m3, 5t = 26,7m3,</t>
@@ -2649,15 +2652,15 @@
     </row>
     <row r="2" ht="36" customFormat="1" customHeight="1" s="3">
       <c r="A2" s="89" t="n"/>
-      <c r="B2" s="90" t="n"/>
-      <c r="C2" s="91" t="n"/>
-      <c r="D2" s="91" t="n"/>
-      <c r="E2" s="91" t="n"/>
-      <c r="F2" s="91" t="n"/>
-      <c r="G2" s="91" t="n"/>
-      <c r="H2" s="92" t="n"/>
-      <c r="I2" s="90" t="n"/>
-      <c r="J2" s="92" t="n"/>
+      <c r="B2" s="83" t="n"/>
+      <c r="C2" s="87" t="n"/>
+      <c r="D2" s="87" t="n"/>
+      <c r="E2" s="87" t="n"/>
+      <c r="F2" s="87" t="n"/>
+      <c r="G2" s="87" t="n"/>
+      <c r="H2" s="84" t="n"/>
+      <c r="I2" s="83" t="n"/>
+      <c r="J2" s="84" t="n"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> 7t = 32m3,    9t=38,2m3  , 12t=54m3</t>
@@ -2731,7 +2734,7 @@
       <c r="C5" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="D5" s="74" t="n">
+      <c r="D5" s="73" t="n">
         <v>5</v>
       </c>
       <c r="E5" s="25" t="inlineStr">
@@ -2770,7 +2773,7 @@
       <c r="C6" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="D6" s="74" t="n">
+      <c r="D6" s="73" t="n">
         <v>3.5</v>
       </c>
       <c r="E6" s="25" t="inlineStr">
@@ -2809,7 +2812,7 @@
       <c r="C7" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="D7" s="74" t="n">
+      <c r="D7" s="73" t="n">
         <v>3.5</v>
       </c>
       <c r="E7" s="25" t="inlineStr">
@@ -2848,7 +2851,7 @@
       <c r="C8" s="37" t="n">
         <v>17</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" s="74" t="n">
         <v>3.5</v>
       </c>
       <c r="E8" s="38" t="inlineStr">
@@ -2887,7 +2890,7 @@
       <c r="C9" s="37" t="n">
         <v>18</v>
       </c>
-      <c r="D9" s="75" t="n">
+      <c r="D9" s="74" t="n">
         <v>3.5</v>
       </c>
       <c r="E9" s="38" t="inlineStr">
@@ -2926,7 +2929,7 @@
       <c r="C10" s="37" t="n">
         <v>17</v>
       </c>
-      <c r="D10" s="75" t="n">
+      <c r="D10" s="74" t="n">
         <v>3.5</v>
       </c>
       <c r="E10" s="38" t="inlineStr">
@@ -2963,7 +2966,7 @@
       <c r="A11" s="27" t="n"/>
       <c r="B11" s="40" t="n"/>
       <c r="C11" s="41" t="n"/>
-      <c r="D11" s="76" t="n">
+      <c r="D11" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E11" s="42" t="inlineStr">
@@ -3002,7 +3005,7 @@
       <c r="C12" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="D12" s="76" t="n">
+      <c r="D12" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E12" s="42" t="inlineStr">
@@ -3041,7 +3044,7 @@
       <c r="C13" s="41" t="n">
         <v>17</v>
       </c>
-      <c r="D13" s="76" t="n">
+      <c r="D13" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E13" s="42" t="inlineStr">
@@ -3080,7 +3083,7 @@
       <c r="C14" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="D14" s="76" t="n">
+      <c r="D14" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E14" s="42" t="inlineStr">
@@ -3117,7 +3120,7 @@
       <c r="C15" s="41" t="n">
         <v>20</v>
       </c>
-      <c r="D15" s="76" t="n">
+      <c r="D15" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E15" s="42" t="inlineStr">
@@ -3156,7 +3159,7 @@
       <c r="C16" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="76" t="n">
+      <c r="D16" s="75" t="n">
         <v>3.5</v>
       </c>
       <c r="E16" s="42" t="inlineStr">
@@ -3192,10 +3195,10 @@
     <row r="17" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A17" s="14" t="n"/>
       <c r="B17" s="40" t="n"/>
-      <c r="C17" s="71" t="n">
+      <c r="C17" s="70" t="n">
         <v>14</v>
       </c>
-      <c r="D17" s="77" t="n">
+      <c r="D17" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E17" s="16" t="inlineStr">
@@ -3231,10 +3234,10 @@
     <row r="18" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="40" t="n"/>
-      <c r="C18" s="71" t="n">
+      <c r="C18" s="70" t="n">
         <v>10</v>
       </c>
-      <c r="D18" s="77" t="n">
+      <c r="D18" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E18" s="16" t="inlineStr">
@@ -3270,10 +3273,10 @@
     <row r="19" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A19" s="14" t="n"/>
       <c r="B19" s="15" t="n"/>
-      <c r="C19" s="71" t="n">
+      <c r="C19" s="70" t="n">
         <v>13</v>
       </c>
-      <c r="D19" s="77" t="n">
+      <c r="D19" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E19" s="16" t="inlineStr">
@@ -3309,10 +3312,10 @@
     <row r="20" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="15" t="n"/>
-      <c r="C20" s="71" t="n">
+      <c r="C20" s="70" t="n">
         <v>13</v>
       </c>
-      <c r="D20" s="77" t="n">
+      <c r="D20" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E20" s="16" t="inlineStr">
@@ -3348,10 +3351,10 @@
     <row r="21" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A21" s="14" t="n"/>
       <c r="B21" s="15" t="n"/>
-      <c r="C21" s="71" t="n">
+      <c r="C21" s="70" t="n">
         <v>13</v>
       </c>
-      <c r="D21" s="77" t="n">
+      <c r="D21" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E21" s="16" t="inlineStr">
@@ -3387,10 +3390,10 @@
     <row r="22" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="15" t="n"/>
-      <c r="C22" s="71" t="n">
+      <c r="C22" s="70" t="n">
         <v>13</v>
       </c>
-      <c r="D22" s="77" t="n">
+      <c r="D22" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E22" s="16" t="inlineStr">
@@ -3426,10 +3429,10 @@
     <row r="23" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A23" s="14" t="n"/>
       <c r="B23" s="15" t="n"/>
-      <c r="C23" s="71" t="n">
+      <c r="C23" s="70" t="n">
         <v>13</v>
       </c>
-      <c r="D23" s="77" t="n">
+      <c r="D23" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E23" s="16" t="inlineStr">
@@ -3465,10 +3468,10 @@
     <row r="24" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="15" t="n"/>
-      <c r="C24" s="71" t="n">
+      <c r="C24" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D24" s="77" t="n">
+      <c r="D24" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E24" s="16" t="inlineStr">
@@ -3504,10 +3507,10 @@
     <row r="25" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A25" s="14" t="n"/>
       <c r="B25" s="15" t="n"/>
-      <c r="C25" s="71" t="n">
+      <c r="C25" s="70" t="n">
         <v>8</v>
       </c>
-      <c r="D25" s="77" t="n">
+      <c r="D25" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E25" s="16" t="inlineStr">
@@ -3543,10 +3546,10 @@
     <row r="26" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="15" t="n"/>
-      <c r="C26" s="71" t="n">
+      <c r="C26" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D26" s="77" t="n">
+      <c r="D26" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E26" s="16" t="inlineStr">
@@ -3582,10 +3585,10 @@
     <row r="27" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="71" t="n">
+      <c r="C27" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D27" s="77" t="n">
+      <c r="D27" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E27" s="16" t="inlineStr">
@@ -3621,10 +3624,10 @@
     <row r="28" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="71" t="n">
+      <c r="C28" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D28" s="77" t="n">
+      <c r="D28" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E28" s="16" t="inlineStr">
@@ -3660,10 +3663,10 @@
     <row r="29" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="71" t="n">
+      <c r="C29" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D29" s="77" t="n">
+      <c r="D29" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E29" s="16" t="inlineStr">
@@ -3699,10 +3702,10 @@
     <row r="30" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="71" t="n">
+      <c r="C30" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="77" t="n">
+      <c r="D30" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E30" s="16" t="inlineStr">
@@ -3738,10 +3741,10 @@
     <row r="31" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="71" t="n">
+      <c r="C31" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="D31" s="77" t="n">
+      <c r="D31" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E31" s="16" t="inlineStr">
@@ -3777,10 +3780,10 @@
     <row r="32" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A32" s="14" t="n"/>
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="71" t="n">
+      <c r="C32" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D32" s="77" t="n">
+      <c r="D32" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E32" s="16" t="inlineStr">
@@ -3816,8 +3819,8 @@
     <row r="33" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A33" s="14" t="n"/>
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="71" t="n"/>
-      <c r="D33" s="77" t="n">
+      <c r="C33" s="70" t="n"/>
+      <c r="D33" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E33" s="16" t="inlineStr">
@@ -3853,8 +3856,8 @@
     <row r="34" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A34" s="14" t="n"/>
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="71" t="n"/>
-      <c r="D34" s="77" t="n">
+      <c r="C34" s="70" t="n"/>
+      <c r="D34" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E34" s="16" t="inlineStr">
@@ -3890,10 +3893,10 @@
     <row r="35" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A35" s="14" t="n"/>
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="71" t="n">
+      <c r="C35" s="70" t="n">
         <v>8</v>
       </c>
-      <c r="D35" s="77" t="n">
+      <c r="D35" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E35" s="16" t="inlineStr">
@@ -3929,10 +3932,10 @@
     <row r="36" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A36" s="14" t="n"/>
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="71" t="n">
+      <c r="C36" s="70" t="n">
         <v>9</v>
       </c>
-      <c r="D36" s="77" t="n">
+      <c r="D36" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E36" s="16" t="inlineStr">
@@ -3968,10 +3971,10 @@
     <row r="37" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A37" s="14" t="n"/>
       <c r="B37" s="15" t="n"/>
-      <c r="C37" s="71" t="n">
+      <c r="C37" s="70" t="n">
         <v>10</v>
       </c>
-      <c r="D37" s="77" t="n">
+      <c r="D37" s="76" t="n">
         <v>1.4</v>
       </c>
       <c r="E37" s="16" t="inlineStr">
@@ -4007,8 +4010,8 @@
     <row r="38" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A38" s="14" t="n"/>
       <c r="B38" s="15" t="n"/>
-      <c r="C38" s="71" t="n"/>
-      <c r="D38" s="77" t="n">
+      <c r="C38" s="70" t="n"/>
+      <c r="D38" s="76" t="n">
         <v>3.5</v>
       </c>
       <c r="E38" s="16" t="n"/>
@@ -4040,8 +4043,8 @@
     <row r="39" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A39" s="14" t="n"/>
       <c r="B39" s="15" t="n"/>
-      <c r="C39" s="71" t="n"/>
-      <c r="D39" s="77" t="n">
+      <c r="C39" s="70" t="n"/>
+      <c r="D39" s="76" t="n">
         <v>5</v>
       </c>
       <c r="E39" s="16" t="n"/>
@@ -4072,7 +4075,7 @@
       <c r="C40" s="24" t="n">
         <v>22</v>
       </c>
-      <c r="D40" s="74" t="n">
+      <c r="D40" s="73" t="n">
         <v>5</v>
       </c>
       <c r="E40" s="25" t="inlineStr">
@@ -4109,7 +4112,7 @@
       <c r="C41" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="D41" s="74" t="n">
+      <c r="D41" s="73" t="n">
         <v>5</v>
       </c>
       <c r="E41" s="25" t="inlineStr">
@@ -4152,7 +4155,7 @@
       <c r="C42" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="74" t="inlineStr">
+      <c r="D42" s="73" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -4190,8 +4193,8 @@
     <row r="43" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A43" s="14" t="n"/>
       <c r="B43" s="31" t="n"/>
-      <c r="C43" s="72" t="n"/>
-      <c r="D43" s="78" t="inlineStr">
+      <c r="C43" s="71" t="n"/>
+      <c r="D43" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve">3.5t </t>
         </is>
@@ -4227,12 +4230,12 @@
     <row r="44" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A44" s="27" t="n"/>
       <c r="B44" s="31" t="n"/>
-      <c r="C44" s="72" t="inlineStr">
+      <c r="C44" s="71" t="inlineStr">
         <is>
           <t xml:space="preserve">8k </t>
         </is>
       </c>
-      <c r="D44" s="78" t="inlineStr">
+      <c r="D44" s="77" t="inlineStr">
         <is>
           <t>1.4t</t>
         </is>
@@ -4271,7 +4274,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="40" t="n"/>
       <c r="C45" s="41" t="n"/>
-      <c r="D45" s="76" t="n">
+      <c r="D45" s="75" t="n">
         <v>12</v>
       </c>
       <c r="E45" s="42" t="inlineStr">
@@ -4306,7 +4309,7 @@
       <c r="A46" s="14" t="n"/>
       <c r="B46" s="40" t="n"/>
       <c r="C46" s="41" t="n"/>
-      <c r="D46" s="76" t="n">
+      <c r="D46" s="75" t="n">
         <v>12</v>
       </c>
       <c r="E46" s="42" t="inlineStr">
@@ -4342,10 +4345,10 @@
     <row r="47" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A47" s="27" t="n"/>
       <c r="B47" s="15" t="n"/>
-      <c r="C47" s="73" t="n">
+      <c r="C47" s="72" t="n">
         <v>46</v>
       </c>
-      <c r="D47" s="77" t="n">
+      <c r="D47" s="76" t="n">
         <v>12</v>
       </c>
       <c r="E47" s="46" t="inlineStr">
@@ -4384,7 +4387,7 @@
       <c r="C48" s="24" t="n">
         <v>28</v>
       </c>
-      <c r="D48" s="74" t="n">
+      <c r="D48" s="73" t="n">
         <v>9</v>
       </c>
       <c r="E48" s="25" t="inlineStr">
@@ -4421,7 +4424,7 @@
       <c r="A49" s="48" t="n"/>
       <c r="B49" s="40" t="n"/>
       <c r="C49" s="41" t="n"/>
-      <c r="D49" s="76" t="n">
+      <c r="D49" s="75" t="n">
         <v>5</v>
       </c>
       <c r="E49" s="42" t="inlineStr">
@@ -4458,7 +4461,7 @@
       <c r="C50" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="D50" s="76" t="n">
+      <c r="D50" s="75" t="n">
         <v>5</v>
       </c>
       <c r="E50" s="42" t="inlineStr">
@@ -4495,7 +4498,7 @@
       <c r="C51" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="74" t="inlineStr">
+      <c r="D51" s="73" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -4536,7 +4539,7 @@
       <c r="C52" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="D52" s="74" t="inlineStr">
+      <c r="D52" s="73" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -4572,10 +4575,10 @@
     <row r="53" ht="56.25" customFormat="1" customHeight="1" s="21">
       <c r="A53" s="14" t="n"/>
       <c r="B53" s="15" t="n"/>
-      <c r="C53" s="73" t="n">
+      <c r="C53" s="72" t="n">
         <v>5</v>
       </c>
-      <c r="D53" s="79" t="inlineStr">
+      <c r="D53" s="78" t="inlineStr">
         <is>
           <t>Ghép</t>
         </is>
@@ -4600,7 +4603,7 @@
           <t>Ngọc</t>
         </is>
       </c>
-      <c r="I53" s="70" t="inlineStr">
+      <c r="I53" s="69" t="inlineStr">
         <is>
           <t>HOA</t>
         </is>
@@ -4617,10 +4620,10 @@
     <row r="54" ht="40.5" customFormat="1" customHeight="1" s="21">
       <c r="A54" s="14" t="n"/>
       <c r="B54" s="15" t="n"/>
-      <c r="C54" s="73" t="n">
+      <c r="C54" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="D54" s="79" t="inlineStr">
+      <c r="D54" s="78" t="inlineStr">
         <is>
           <t>Ghép</t>
         </is>
@@ -4661,7 +4664,7 @@
       <c r="C55" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="D55" s="74" t="inlineStr">
+      <c r="D55" s="73" t="inlineStr">
         <is>
           <t>G</t>
         </is>
@@ -4708,55 +4711,55 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:D6">
-    <cfRule type="cellIs" priority="517" operator="equal" dxfId="204">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="518" operator="equal" dxfId="203">
-      <formula>12</formula>
+    <cfRule type="cellIs" priority="520" operator="equal" dxfId="201">
+      <formula>7</formula>
     </cfRule>
     <cfRule type="containsText" priority="519" operator="containsText" dxfId="202" text="G">
       <formula>NOT(ISERROR(SEARCH("G",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="520" operator="equal" dxfId="201">
-      <formula>7</formula>
+    <cfRule type="cellIs" priority="518" operator="equal" dxfId="203">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="517" operator="equal" dxfId="204">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="524" operator="equal" dxfId="197">
+      <formula>1.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="523" operator="equal" dxfId="198">
+      <formula>3.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="522" operator="equal" dxfId="199">
+      <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" priority="521" operator="equal" dxfId="200">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="522" operator="equal" dxfId="199">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="523" operator="equal" dxfId="198">
-      <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="524" operator="equal" dxfId="197">
-      <formula>1.4</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:D44">
-    <cfRule type="cellIs" priority="215" operator="equal" dxfId="204">
-      <formula>12</formula>
+    <cfRule type="cellIs" priority="222" operator="equal" dxfId="197">
+      <formula>1.4</formula>
     </cfRule>
     <cfRule type="cellIs" priority="216" operator="equal" dxfId="203">
       <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="221" operator="equal" dxfId="198">
+      <formula>3.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="220" operator="equal" dxfId="199">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="219" operator="equal" dxfId="200">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="218" operator="equal" dxfId="201">
+      <formula>7</formula>
     </cfRule>
     <cfRule type="containsText" priority="217" operator="containsText" dxfId="202" text="G">
       <formula>NOT(ISERROR(SEARCH("G",C40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="218" operator="equal" dxfId="201">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="219" operator="equal" dxfId="200">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="220" operator="equal" dxfId="199">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="221" operator="equal" dxfId="198">
-      <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="222" operator="equal" dxfId="197">
-      <formula>1.4</formula>
+    <cfRule type="cellIs" priority="215" operator="equal" dxfId="204">
+      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D55">
@@ -4796,39 +4799,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D39 L46:L48">
+    <cfRule type="cellIs" priority="531" operator="equal" dxfId="9">
+      <formula>3.5</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="525" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="526" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="527" operator="containsText" dxfId="176" text="G">
-      <formula>NOT(ISERROR(SEARCH("G",D5)))</formula>
+    <cfRule type="cellIs" priority="530" operator="equal" dxfId="10">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="529" operator="equal" dxfId="11">
+      <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" priority="528" operator="equal" dxfId="12">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="529" operator="equal" dxfId="11">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="530" operator="equal" dxfId="10">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="531" operator="equal" dxfId="9">
-      <formula>3.5</formula>
+    <cfRule type="containsText" priority="527" operator="containsText" dxfId="172" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D5)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="532" operator="equal" dxfId="8">
       <formula>1.4</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="526" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D44">
+    <cfRule type="cellIs" priority="224" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="223" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="224" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="225" operator="containsText" dxfId="176" text="G">
+    <cfRule type="containsText" priority="225" operator="containsText" dxfId="172" text="G">
       <formula>NOT(ISERROR(SEARCH("G",D40)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="226" operator="equal" dxfId="12">
@@ -4848,29 +4851,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:D55">
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="13">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="containsText" priority="11" operator="containsText" dxfId="176" text="G">
-      <formula>NOT(ISERROR(SEARCH("G",D47)))</formula>
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="8">
+      <formula>1.4</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="9">
+      <formula>3.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="10">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="11">
+      <formula>9</formula>
     </cfRule>
     <cfRule type="cellIs" priority="12" operator="equal" dxfId="12">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="11">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="10">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="9">
-      <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="8">
-      <formula>1.4</formula>
+    <cfRule type="containsText" priority="11" operator="containsText" dxfId="172" text="G">
+      <formula>NOT(ISERROR(SEARCH("G",D47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="14">
+      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
@@ -4879,20 +4882,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E46">
+    <cfRule type="cellIs" priority="43" operator="equal" dxfId="11">
+      <formula>9</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="42" operator="equal" dxfId="12">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="43" operator="equal" dxfId="11">
-      <formula>9</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="44" operator="equal" dxfId="10">
       <formula>5</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="46" operator="equal" dxfId="8">
+      <formula>1.4</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="45" operator="equal" dxfId="9">
       <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="46" operator="equal" dxfId="8">
-      <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:E46">
@@ -4901,9 +4904,357 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E46">
+    <cfRule type="cellIs" priority="82" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="83" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="84" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="85" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="86" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="87" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="88" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="89" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="90" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="91" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="92" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="93" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="94" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="95" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="96" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="97" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="98" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="99" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="100" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="101" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="102" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="103" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="104" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="105" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="106" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="107" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="108" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="109" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="110" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="111" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="112" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="113" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="114" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="115" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="116" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="117" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="118" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="119" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="120" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="121" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="122" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="123" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="124" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="125" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="126" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="127" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="128" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="129" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="130" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="131" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="132" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="133" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="134" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="135" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="52" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="137" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="138" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="139" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="140" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="141" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="142" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="143" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="144" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="145" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="146" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="147" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="148" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="149" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="150" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="151" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="152" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="153" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="154" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="155" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="156" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="157" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="158" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="159" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="160" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="161" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="162" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="163" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="164" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="165" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="166" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="167" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="168" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="169" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="170" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="171" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="172" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="173" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="174" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="175" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="176" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="177" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="178" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="179" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="180" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="181" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="182" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="183" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="184" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="185" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="186" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="187" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="188" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="189" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="190" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="191" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="48" operator="equal" dxfId="13">
       <formula>12</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="193" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="194" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="195" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="196" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="197" operator="equal" dxfId="14">
+      <formula>12</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="198" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="49" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
@@ -4913,9 +5264,6 @@
     <cfRule type="cellIs" priority="51" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="52" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="53" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
@@ -4925,6 +5273,9 @@
     <cfRule type="cellIs" priority="55" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
+    <cfRule type="cellIs" priority="136" operator="equal" dxfId="13">
+      <formula>12</formula>
+    </cfRule>
     <cfRule type="cellIs" priority="56" operator="equal" dxfId="13">
       <formula>12</formula>
     </cfRule>
@@ -5003,355 +5354,7 @@
     <cfRule type="cellIs" priority="81" operator="equal" dxfId="14">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="83" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="84" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="85" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="86" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="87" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="88" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="89" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="90" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="91" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="92" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="93" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="94" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="95" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="96" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="97" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="98" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="99" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="100" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="101" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="102" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="103" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="104" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="105" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="106" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="107" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="108" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="109" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="110" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="111" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="112" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="113" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="114" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="115" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="116" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="117" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="118" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="119" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="120" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="121" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="122" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="123" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="124" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="125" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="126" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="127" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="128" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="129" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="130" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="131" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="132" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="133" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="134" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="135" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="136" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="137" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="138" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="139" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="140" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="141" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="142" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="143" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="144" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="145" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="146" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="147" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="148" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="149" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="150" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="151" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="152" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="153" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="154" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="155" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="156" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="157" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="158" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="159" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="160" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="161" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="162" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="163" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="164" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="165" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="166" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="167" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="168" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="169" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="170" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="171" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="172" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="173" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="174" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="175" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="176" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="177" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="178" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="179" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="180" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="181" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="182" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="183" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="184" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="185" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="186" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="187" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="188" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="189" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="190" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="191" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="192" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="193" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="194" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="195" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="196" operator="equal" dxfId="13">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="197" operator="equal" dxfId="14">
-      <formula>12</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="198" operator="equal" dxfId="13">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5401,6 +5404,11 @@
       <formula>"HT"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="B5:B55" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>'Dia_Chi'!$C$1:$C$58</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.28" right="0.2" top="0.2" bottom="0.5600000000000001" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" paperSize="9" scale="75"/>
   <headerFooter>
@@ -5420,646 +5428,1005 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="19.44140625" customWidth="1" min="1" max="1"/>
-    <col width="17.109375" customWidth="1" min="2" max="2"/>
+    <col width="19.44140625" customWidth="1" style="90" min="1" max="1"/>
+    <col width="17.109375" customWidth="1" style="90" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52.2" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>TÊN KH đầy đủ</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t>Địa chỉ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="90" customHeight="1">
-      <c r="A2" s="40" t="inlineStr">
-        <is>
-          <t>công ty CP giấy hải tiến</t>
-        </is>
-      </c>
-      <c r="B2" s="40" t="inlineStr">
-        <is>
-          <t>kcn sài đồng b, long biên , hà nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="324" customHeight="1">
-      <c r="A3" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SEGYUNG VINA (QUẾ VÕ)</t>
-        </is>
-      </c>
-      <c r="B3" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lô H1, Khu công nghiệp Quế Võ (khu vực mở rộng) - Phường Phương Liễu - Thị xã Quế Võ </t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="144" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
-        <is>
-          <t>công ty tnhh giải pháp côing nghệ nguồn postef</t>
-        </is>
-      </c>
-      <c r="B4" s="40" t="inlineStr">
-        <is>
-          <t>số 12- đường 15, KCn visip bắc ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="198" customHeight="1">
-      <c r="A5" s="40" t="inlineStr">
-        <is>
-          <t>Công ty CỔ PHẦN THỰC PHẨM RICHY MiỀN BẮC</t>
-        </is>
-      </c>
-      <c r="B5" s="40" t="inlineStr">
-        <is>
-          <t>CCN Thị trấn Phùng, Thị trấn Phùng, Đan Phượng, Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="144" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẨN THỰC PHẨM Á CHÂU</t>
-        </is>
-      </c>
-      <c r="B6" s="40" t="inlineStr">
-        <is>
-          <t>kcn tiên sơn bắc ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="396" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CÔNG TY TNHH QUỐC TẾ LANDMARK VIỆT NAM </t>
-        </is>
-      </c>
-      <c r="B7" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lô CN28-29 và CN-30.1, Khu công nghiệp Thuận Thành II, Phường An Bình, Thị Xã Thuận Thành, Tỉnh Bắc Ninh, Việt Nam. </t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="126" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CÔNG TY TNHH KANEGABO </t>
-        </is>
-      </c>
-      <c r="B8" s="40" t="inlineStr">
-        <is>
-          <t>KCN Vân Trung, Việt Yên, Bắc Giang</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="126" customHeight="1">
-      <c r="A9" s="40" t="inlineStr">
-        <is>
-          <t>Công ty TNHH SAO ĐỎ VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B9" s="40" t="inlineStr">
-        <is>
-          <t>văn lâm hưng yên</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="144" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN QUỐC TẾ BẢO HƯNG</t>
-        </is>
-      </c>
-      <c r="B10" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cụm CN Tân Minh - Vũ Thư - Thái Bình</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="288" customHeight="1">
-      <c r="A11" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN SYNOPEX VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B11" s="40" t="inlineStr">
-        <is>
-          <t>Cụm công nghiệp đa nghề Đông Thọ, Xã Đông Thọ, Huyện Yên Phong, Tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="306" customHeight="1">
-      <c r="A12" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH CÔNG NGHIỆP HAAST VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B12" s="40" t="inlineStr">
-        <is>
-          <t>Khu công nghiệp Đồng Văn I, Phường Bạch Thượng, Thị xã Duy Tiên, Tỉnh Hà Nam, Việt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="252" customHeight="1">
-      <c r="A13" s="40" t="inlineStr">
-        <is>
-          <t>công ty cổ phần dược phẩmhoa linh</t>
-        </is>
-      </c>
-      <c r="B13" s="40" t="inlineStr">
-        <is>
-          <t>Lô B3, cụm công nghiệp thị trấn Phùng, huyện Đan Phượng, thành phố Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="252" customHeight="1">
-      <c r="A14" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI VÀ SẢN XUẤT HOÀNG MAI</t>
-        </is>
-      </c>
-      <c r="B14" s="40" t="inlineStr">
-        <is>
-          <t>Số 17 Hàng Bún, phường Nguyễn Trung Trực, quận Ba Đình, TP Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="90" customHeight="1">
-      <c r="A15" s="40" t="inlineStr">
-        <is>
-          <t>Công ty TNHH Lâm Sơn Hà</t>
-        </is>
-      </c>
-      <c r="B15" s="40" t="inlineStr">
-        <is>
-          <t>Ninh Hiệp- Gia Lâm- Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="216" customHeight="1">
-      <c r="A16" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH MAY XUẤT KHẨU VÀ THƯƠNG MẠI HOÀNG HÀ</t>
-        </is>
-      </c>
-      <c r="B16" s="15" t="inlineStr">
-        <is>
-          <t>Khu 6, xã Phú Mỹ, Huyện Phù Ninh, tỉnh Phú Thọ, Việt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="216" customHeight="1">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH LONG THÀNH BẮC NINH</t>
-        </is>
-      </c>
-      <c r="B17" s="15" t="inlineStr">
-        <is>
-          <t>Thôn Hà Liễu, Xã Phương Liễu, huyện Quế Võ, Tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="180" customHeight="1">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN NHỰA Y TẾ VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B18" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lô B5 - KCN Tam Điệp - TP. Tam Điệp - T. Ninh Bình </t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="162" customHeight="1">
-      <c r="A19" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN OMELA VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B19" s="15" t="inlineStr">
-        <is>
-          <t>Phố mới - Trị trấn Hồ - Thuận Thành - Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="126" customHeight="1">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH CELINK VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>KCN Vân Trung, Việt Yên, Bắc Giang</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="360" customHeight="1">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH DELI VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Lô CN06-4 và CN13-2, KCN Yên Phong, thông Yên Trung, xã Dũng Liệt, huyện Yên Phong, tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="162" customHeight="1">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH CHẾ TẠO SKYLINK VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>KCN Vân Trung, Việt Yên, Bắc Giang</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="126" customHeight="1">
-      <c r="A23" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN IN SAO VIỆT</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="inlineStr">
-        <is>
-          <t>KCN Thạch Thất, Quốc Oai, Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="378" customHeight="1">
-      <c r="A24" s="15" t="inlineStr">
-        <is>
-          <t>Công ty Cổ phần Thực phẩm Hữu Nghị</t>
-        </is>
-      </c>
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>122 Định Công, 122 Định Công, P. Định Công, Q. Hoàng Mai, TP. Hà NộiP. Định Công, Q. Hoàng Mai, TP. Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="342" customHeight="1">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH DREAM PLASTIC</t>
-        </is>
-      </c>
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>Lô C, Khu công nghiệp Châu Sơn, Phường Châu Sơn, Thành phố Phủ Lý, Tỉnh Hà Nam, Việt Nam.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="324" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH VINA CNS</t>
-        </is>
-      </c>
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>Lô (V) V-8, đường D3 và N2, Khu công nghiệp Quế Võ II, Xã Ngọc Xá, Thị xã Quế Võ, Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="162" customHeight="1">
-      <c r="A27" s="15" t="inlineStr">
-        <is>
-          <t>Công ty TNHH TMDV XNK Hà Thành</t>
-        </is>
-      </c>
-      <c r="B27" s="15" t="inlineStr">
-        <is>
-          <t>Số 89 Dốc Mọc, Cao Dương, Thanh oai, Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="306" customHeight="1">
-      <c r="A28" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH MINGHUI VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B28" s="15" t="inlineStr">
-        <is>
-          <t>Đường E3, khu E, Khu công nghiệp Phố Nối A, Xã Đình Dù, Huyện Văn Lâm, Tỉnh Hưng Yên, .</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="288" customHeight="1">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN HUYỀN ANH COSMETICS</t>
-        </is>
-      </c>
-      <c r="B29" s="15" t="inlineStr">
-        <is>
-          <t>Tầng 2, số 5, Ngách 35, ngõ 214 Nguyễn Xiển, Phường Hạ Đình, Thanh Xuân, Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="252" customHeight="1">
-      <c r="A30" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN SẢN XUẤT &amp; PHÂN PHỐI MAI NAM</t>
-        </is>
-      </c>
-      <c r="B30" s="15" t="inlineStr">
-        <is>
-          <t>Lô VII.12, Modul1, KCN Khai Sơn, Huyện Thuận Thành, Tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="180" customHeight="1">
-      <c r="A31" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH OGK HÀ NỘI</t>
-        </is>
-      </c>
-      <c r="B31" s="15" t="inlineStr">
-        <is>
-          <t>KCN Phú Hà, X.Hà Thạch, TX.Phú Thọ, Tỉnh Phú Thọ</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="198" customHeight="1">
-      <c r="A32" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH CPRO VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B32" s="15" t="inlineStr">
-        <is>
-          <t>CCN Đông Thọ, xã Đông Thọ, huyện Yên Phong, Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="198" customHeight="1">
-      <c r="A33" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN THIẾT BỊ ĐO ĐIỆN EMIC</t>
-        </is>
-      </c>
-      <c r="B33" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Khu Công Nghiệp Đại Đồng - Hoàn Sơn, Tiên Du, Bắc Ninh </t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="288" customHeight="1">
-      <c r="A34" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH MOBASE VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B34" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Khu công nghiệp Yên Phong, Xã Long Châu, Huyện Yên Phong, Tỉnh Bắc Ninh, Việt Nam.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="270" customHeight="1">
-      <c r="A35" s="15" t="inlineStr">
-        <is>
-          <t>CHI NHÁNH CÔNG NGHIỆP HÓA CHẤT MỎ BẮC NINH</t>
-        </is>
-      </c>
-      <c r="B35" s="15" t="inlineStr">
-        <is>
-          <t>Số 30 đường Nguyễn Văn Cừ, Phường Ninh Xá, Thành phố Bắc Ninh, Tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="126" customHeight="1">
-      <c r="A36" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SANJEON VIỆT NAM</t>
-        </is>
-      </c>
-      <c r="B36" s="15" t="inlineStr">
-        <is>
-          <t>KCN Quế Võ, tỉnh Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="202.8" customHeight="1">
-      <c r="A37" s="28" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SEGYUNG VINA (QUẾ VÕ)</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lô H1, Khu công nghiệp Quế Võ (khu vực mở rộng) - Phường Phương Liễu - Thị xã Quế Võ </t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="156" customHeight="1">
-      <c r="A38" s="29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Công cổ phần bao bì Green Packaging ( Chị Trâm Anh : '0989290009) </t>
-        </is>
-      </c>
-      <c r="B38" s="29" t="inlineStr">
-        <is>
-          <t>TỬ ĐÔNG LÝ THƯỜNG KIỆT YÊN MỸ HƯNG YÊN</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="93.59999999999999" customHeight="1">
-      <c r="A39" s="29" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH PHÚ THÁI SƠN</t>
-        </is>
-      </c>
-      <c r="B39" s="29" t="inlineStr">
-        <is>
-          <t>Phú Minh, Sóc Sơn, Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="231" customHeight="1">
-      <c r="A40" s="31" t="inlineStr">
-        <is>
-          <t>Công ty TNHH Công nghiệp INTCO việt nam</t>
-        </is>
-      </c>
-      <c r="B40" s="31" t="inlineStr">
-        <is>
-          <t>KCN bỉm sơn, Thị xã Bỉm sơn, Thanh hóa</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="147" customHeight="1">
-      <c r="A41" s="31" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN ĐÚC HSK</t>
-        </is>
-      </c>
-      <c r="B41" s="31" t="inlineStr">
-        <is>
-          <t>Long Châu, Bắc Ninh</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="180" customHeight="1">
-      <c r="A42" s="40" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH TMSX BAO BÌ GIẤY TRƯỜNG THỊNH</t>
-        </is>
-      </c>
-      <c r="B42" s="40" t="inlineStr">
-        <is>
-          <t>TT Phú Minh - Phú Xuyên - Hà Nội</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="162" customHeight="1">
-      <c r="A43" s="40" t="inlineStr">
-        <is>
-          <t>Công ty An Dương</t>
-        </is>
-      </c>
-      <c r="B43" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cẩm Giàng - Hải Dương ( Uyên : 0352.117.177 )</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="252" customHeight="1">
-      <c r="A44" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH PALDO VINA</t>
-        </is>
-      </c>
-      <c r="B44" s="15" t="inlineStr">
-        <is>
-          <t>Cụm Công Nghiệp Đồng Lạng, Xã Phù Ninh, Huyện Phù Ninh, Tỉnh Phú Thọ</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="276" customHeight="1">
-      <c r="A45" s="68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Công ty TNHH Sản xuất Biel Crystal Việt Nam </t>
-        </is>
-      </c>
-      <c r="B45" s="69" t="inlineStr">
-        <is>
-          <t>Số 98, Đường Hữu Nghị, Khu Công Nghiệp, Đô Thị và Dịch Vụ Vsip Bắc Ninh , Xã Đại Đồng , Huyện Tiên Du , Tỉnh Bắc Ninh , Việt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="360" customHeight="1">
-      <c r="A46" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CÔNG TY TNHH CROWN ADVANCED MATERIAL VIỆT NAM ( '0342016229) </t>
-        </is>
-      </c>
-      <c r="B46" s="40" t="inlineStr">
-        <is>
-          <t>Nhà xưởng CN 07-03, Lô CN -07, KCN Vân Trung , Xã Vân Trung, Huyện Việt Yên, Tỉnh Bắc Giang, Việt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="180" customHeight="1">
-      <c r="A47" s="40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CÔNG TY CỔ PHẦN XUẤT NHẬP KHẨU HÒA AN </t>
-        </is>
-      </c>
-      <c r="B47" s="40" t="inlineStr">
-        <is>
-          <t>KCN Khai Sơn- Thuận Thành- Bắc Ninh / SĐT: 0348455289</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="218.4" customHeight="1">
-      <c r="A48" s="23" t="inlineStr">
-        <is>
-          <t>CÔNG TY CỔ PHẦN PH NEW STAR</t>
-        </is>
-      </c>
-      <c r="B48" s="23" t="inlineStr">
-        <is>
-          <t>Lô N3-6, KCN Đồng Văn II, Phường Duy Minh, Thị xã Duy Tiên, Tỉnh Hà Nam, Việt  Nam.</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="202.8" customHeight="1">
-      <c r="A49" s="28" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SEGYUNG VINA (QUẾ VÕ)</t>
-        </is>
-      </c>
-      <c r="B49" s="28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lô H1, Khu công nghiệp Quế Võ (khu vực mở rộng) - Phường Phương Liễu - Thị xã Quế Võ </t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="409.6" customHeight="1">
-      <c r="A50" s="15" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH WISOL HÀ NỘI</t>
-        </is>
-      </c>
-      <c r="B50" s="15" t="inlineStr">
-        <is>
-          <t>Số 26, đường số 05, Khu công nghiệp đô thi và dịch vụ VSIP Bắc Ninh, Phường Phù Chẩn, Thành phố Từ Sơn, Tỉnh Bắc Ninh, Việt Nam</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="126" customHeight="1">
-      <c r="A51" s="15" t="inlineStr">
-        <is>
-          <t>cty cp dược phẩm liên doanh mediphar</t>
-        </is>
-      </c>
-      <c r="B51" s="15" t="inlineStr">
-        <is>
-          <t>định công, đại kim , hoàng mai, hn</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="62.4" customHeight="1">
-      <c r="A52" s="23" t="inlineStr">
-        <is>
-          <t>cty tnhh bao bì yuzhna việt nam</t>
-        </is>
-      </c>
-      <c r="B52" s="23" t="inlineStr">
-        <is>
-          <t>KCN Quế Võ, tỉnh Bắc Ninh</t>
+    <row r="1" ht="52.2" customHeight="1" s="90">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>X1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Cum Cong Nghiep Phu Lam,Phu Lam,Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>X1 - Cum Cong Nghiep Phu Lam,Phu Lam,Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="90" customHeight="1" s="90">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>X4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>So 106 ngo 24 Kim Dong, Hoang Mai, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X4 - So 106 ngo 24 Kim Dong, Hoang Mai, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="324" customHeight="1" s="90">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VAC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5289+732 Tien Du, Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VAC - 5289+732 Tien Du, Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="144" customHeight="1" s="90">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>X5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2387+JR7, phuong, Nguyet Duc, Thuan Thanh, Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X5 - 2387+JR7, phuong, Nguyet Duc, Thuan Thanh, Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="198" customHeight="1" s="90">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>X6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32X3+27H Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>X6 - 32X3+27H Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="144" customHeight="1" s="90">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>X7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thon Tam dao, Xa Phu Lam, Huyen Tien Du, Tinh Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>X7 - Thon Tam dao, Xa Phu Lam, Huyen Tien Du, Tinh Bac Ninh, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="396" customHeight="1" s="90">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH HA TUNG</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lo B2- KCN Nguyen Duc Canh, Thanh pho Thai Binh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH HA TUNG - Lo B2- KCN Nguyen Duc Canh, Thanh pho Thai Binh</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="126" customHeight="1" s="90">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN THIET BI DO DIEN EMIC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Khu Cong Nghiep Dai Dong - Hoan Son, Tien Du, Bac Ninh </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONG TY CO PHAN THIET BI DO DIEN EMIC - Khu Cong Nghiep Dai Dong - Hoan Son, Tien Du, Bac Ninh </t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="126" customHeight="1" s="90">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CHE BIEN THUC PHAM DUC HANH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cum cong nghiep Truong An, xa An Khanh, huyen Hoai Duc, TP Ha Noi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CHE BIEN THUC PHAM DUC HANH - Cum cong nghiep Truong An, xa An Khanh, huyen Hoai Duc, TP Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="144" customHeight="1" s="90">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH KHOA HOC KY THUAT DIEN TU DONG MINH VIET NAM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lo 15, CCN Noi Hoang, Noi Hoang,Yen Dung, Bac Giang, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH KHOA HOC KY THUAT DIEN TU DONG MINH VIET NAM - Lo 15, CCN Noi Hoang, Noi Hoang,Yen Dung, Bac Giang, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="288" customHeight="1" s="90">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH SX  TM DAI PHUONG</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Co Loa, Dong Anh, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH SX  TM DAI PHUONG - Co Loa, Dong Anh, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="306" customHeight="1" s="90">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cong ty TNHH DYT Viet Nam</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lo CN - 10 KCN Van Trung, huyen Viet Yen, tinh Bac Giang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cong ty TNHH DYT Viet Nam - Lo CN - 10 KCN Van Trung, huyen Viet Yen, tinh Bac Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="252" customHeight="1" s="90">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH DONGSUNG VINA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lo CN 3, 3(2), KCN Diem Thuy, Xa Diem Thuy, Huyen Phu Binh, Thai Nguyen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH DONGSUNG VINA - Lo CN 3, 3(2), KCN Diem Thuy, Xa Diem Thuy, Huyen Phu Binh, Thai Nguyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="252" customHeight="1" s="90">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONG TY TNHH DAU TU VA PHAT TRIEN CHAN NUOI GIA CONG </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH ?AU TU VA PHAT TRIEN CHAN NUOI GIA CONG</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH DAU TU VA PHAT TRIEN CHAN NUOI GIA CONG  - CONG TY TNHH ?AU TU VA PHAT TRIEN CHAN NUOI GIA CONG</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="90" customHeight="1" s="90">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CPRO VIET NAM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCN Dong Tho, xa Dong Tho, huyen Yen Phong, Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CPRO VIET NAM - CCN Dong Tho, xa Dong Tho, huyen Yen Phong, Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="216" customHeight="1" s="90">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CELINK VIET NAM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KCN Van Trung, Viet Yen, Bac Giang</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH CELINK VIET NAM - KCN Van Trung, Viet Yen, Bac Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="216" customHeight="1" s="90">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN FUZI VIET NAM</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>So 8, ngo 215 De To Hoang, Phuong Cau Den, Quan Hai Ba Trung, TP Ha Noi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN FUZI VIET NAM - So 8, ngo 215 De To Hoang, Phuong Cau Den, Quan Hai Ba Trung, TP Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="180" customHeight="1" s="90">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cong ty TNHH TMDV XNK Ha Thanh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>So 89 Doc Moc, Cao Duong, Thanh oai, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Cong ty TNHH TMDV XNK Ha Thanh - So 89 Doc Moc, Cao Duong, Thanh oai, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="162" customHeight="1" s="90">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH HAI HA-KOTOBUKI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 Truong Dinh, Hai Ba Trung, Ha Noi    </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONG TY TNHH HAI HA-KOTOBUKI - 25 Truong Dinh, Hai Ba Trung, Ha Noi    </t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="126" customHeight="1" s="90">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONG TY CO PHAN BANH KEO HAI MINH </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>299/15/1 Duong Hoang Mai, Hoang Mai, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN BANH KEO HAI MINH  - 299/15/1 Duong Hoang Mai, Hoang Mai, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="360" customHeight="1" s="90">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH DICH VU THUONG MAI QUOC TE HOA VIET</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>To dan pho Duong Hoa, Phuong Minh Duc, Thi xa My Hao, Tinh Hung Yen, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH DICH VU THUONG MAI QUOC TE HOA VIET - To dan pho Duong Hoa, Phuong Minh Duc, Thi xa My Hao, Tinh Hung Yen, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="162" customHeight="1" s="90">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN KEM HUNG LINH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mach Ky, Hong Duong, Thanh Oai, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN KEM HUNG LINH - Mach Ky, Hong Duong, Thanh Oai, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="126" customHeight="1" s="90">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN HUYEN ANH COSMETICS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tang 2, so 5, Ngach 35, ngo 214 Nguyen Xien, Phuong Ha Dinh, Thanh Xuan, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN HUYEN ANH COSMETICS - Tang 2, so 5, Ngach 35, ngo 214 Nguyen Xien, Phuong Ha Dinh, Thanh Xuan, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="378" customHeight="1" s="90">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SAN XUAT &amp; PHAN PHOI MAI NAM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Lo VII.12, Modul1, KCN Khai Son, Huyen Thuan Thanh, Tinh Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SAN XUAT &amp; PHAN PHOI MAI NAM - Lo VII.12, Modul1, KCN Khai Son, Huyen Thuan Thanh, Tinh Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="342" customHeight="1" s="90">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH OGK HA NOI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KCN Phu Ha, Ha Thach, Thi xa Phu Tho, Tinh Phu Tho</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH OGK HA NOI - KCN Phu Ha, Ha Thach, Thi xa Phu Tho, Tinh Phu Tho</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="324" customHeight="1" s="90">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Minh Loc</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Duong lieu, Hoai Duc, ha noi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Minh Loc - Duong lieu, Hoai Duc, ha noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="162" customHeight="1" s="90">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hiep Long</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kcn Quang minh 2, xa kim hoa,huyen me linh ,ha noi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Hiep Long - kcn Quang minh 2, xa kim hoa,huyen me linh ,ha noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="306" customHeight="1" s="90">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Van Mieu</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Son trung, yen son, quoc oai, ha noi</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Van Mieu - Son trung, yen son, quoc oai, ha noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="288" customHeight="1" s="90">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Vihamark</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lo N3-6 KCN Dong Van II, Phuong Duy Minh, Thi Xa Duy Tien, Tinh Ha Nam</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Vihamark - Lo N3-6 KCN Dong Van II, Phuong Duy Minh, Thi Xa Duy Tien, Tinh Ha Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="252" customHeight="1" s="90">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ph new star</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Lo N3-6, KCN ?ong Van II, Phuong Duy Minh, Thi xa Duy Tien, Tinh Ha Nam, Viet  Nam.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ph new star - Lo N3-6, KCN ?ong Van II, Phuong Duy Minh, Thi xa Duy Tien, Tinh Ha Nam, Viet  Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="180" customHeight="1" s="90">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Huy chuc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So 32 nam ngu , cua nam , hoan kiem , ha noi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Huy chuc -  So 32 nam ngu , cua nam , hoan kiem , ha noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="198" customHeight="1" s="90">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Anh Hong</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dan Tien, Khoai Chau , Hung Yen</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Anh Hong -  Dan Tien, Khoai Chau , Hung Yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="198" customHeight="1" s="90">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Duoc lieu wewell</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>277 Duong Van Xuan, Ha Mo, Dan Phuong, Ha Noi</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Duoc lieu wewell - 277 Duong Van Xuan, Ha Mo, Dan Phuong, Ha Noi</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="288" customHeight="1" s="90">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>manh cuong</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Km so 6 xa Hong Quang, Nam Truc, Nam Dinh</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>manh cuong -  Km so 6 xa Hong Quang, Nam Truc, Nam Dinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="270" customHeight="1" s="90">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Bao Hung</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Cum CN Tan Minh, Vu Thu,Thai Binh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Bao Hung - Cum CN Tan Minh, Vu Thu,Thai Binh</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="126" customHeight="1" s="90">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Aroma</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Duong Nguyen Thien Thuat, Nhan Hoa, My Hao, Hung Yen</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Aroma -  Duong Nguyen Thien Thuat, Nhan Hoa, My Hao, Hung Yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="202.8" customHeight="1" s="90">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>?ai Long</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Minh Long, Xich Tho, Nho Quan,Ninh Binh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>?ai Long -  Minh Long, Xich Tho, Nho Quan,Ninh Binh</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="156" customHeight="1" s="90">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Daytone</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KCN TT3, Thuan Thanh , Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Daytone - KCN TT3, Thuan Thanh , Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="93.59999999999999" customHeight="1" s="90">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>essa hi-tech</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lo N2-1, Khu cong nghiep Dong Van II, Phuong Duy Minh, Thi xa Duy Tien, Tinh Ha Nam, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>essa hi-tech - Lo N2-1, Khu cong nghiep Dong Van II, Phuong Duy Minh, Thi xa Duy Tien, Tinh Ha Nam, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="231" customHeight="1" s="90">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ottogi Viet Nam</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Duong YP4, KCN Yen Phong,Xa Dong Phong, Huyen Yen Phong, Tinh Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ottogi Viet Nam -  Duong YP4, KCN Yen Phong,Xa Dong Phong, Huyen Yen Phong, Tinh Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="147" customHeight="1" s="90">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Paldo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cum Cong Nghiep Dong Lang, Xa Phu Ninh, Huyen Phu Ninh, Tinh Phu Tho</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Paldo - Cum Cong Nghiep Dong Lang, Xa Phu Ninh, Huyen Phu Ninh, Tinh Phu Tho</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="180" customHeight="1" s="90">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>sao do</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>van lam , hung yen</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>sao do - van lam , hung yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="162" customHeight="1" s="90">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>thanh phuc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>hung yen</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>thanh phuc - hung yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="252" customHeight="1" s="90">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thuc pham HN</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nam Tien, Phu Xuyen</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Thuc pham HN - Nam Tien, Phu Xuyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="276" customHeight="1" s="90">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Vinauc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>KCN Duyen Thai, Thuong Tin</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Vinauc - KCN Duyen Thai, Thuong Tin</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="360" customHeight="1" s="90">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>VTM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Van Giang, Hung Yen</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>VTM - Van Giang, Hung Yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="180" customHeight="1" s="90">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Yalena</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Thon Ha Cau, xa Quoc Tuan, huyen An Lao, TP Hai Phong, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yalena - Thon Ha Cau, xa Quoc Tuan, huyen An Lao, TP Hai Phong, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="218.4" customHeight="1" s="90">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>yuzhan</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KCN Que Vo, Huyen Que Vo, Tinh Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>yuzhan - KCN Que Vo, Huyen Que Vo, Tinh Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="202.8" customHeight="1" s="90">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Yura</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Moc Ty, Trung Trac , Van Lam</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yura - Moc Ty, Trung Trac , Van Lam</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="409.6" customHeight="1" s="90">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Truong Xuan</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KCN Dai Dong Hoan Son Tien Du</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Truong Xuan - KCN Dai Dong Hoan Son Tien Du</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="126" customHeight="1" s="90">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TQT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>My Hao, Hung Yen</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TQT - My Hao, Hung Yen</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="62.4" customHeight="1" s="90">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SYV</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Km 22, cum cong nghiep Ngoc Liep, xa Ngoc Liep, huyen Quoc Oai, thanh pho Ha Noi, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SYV -  Km 22, cum cong nghiep Ngoc Liep, xa Ngoc Liep, huyen Quoc Oai, thanh pho Ha Noi, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SMK VIET NAM</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Cum cong nghiep Xuan Lam, Xa Xuan Lam, Huyen Thuan Thanh, Tinh Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN SMK VIET NAM - Cum cong nghiep Xuan Lam, Xa Xuan Lam, Huyen Thuan Thanh, Tinh Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN TAN HUNG</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ngoc Lac, Ngoc Son, TP Hai Duong, Hai Duong</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN TAN HUNG - Ngoc Lac, Ngoc Son, TP Hai Duong, Hai Duong</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN NHUA AN PHAT XANH</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Lo CN 11, Cum cong nghiep An Dong, thi tran Nam Sach, huyen Nam Sach, tinh Hai Duong, Viet Nam</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CONG TY CO PHAN NHUA AN PHAT XANH - Lo CN 11, Cum cong nghiep An Dong, thi tran Nam Sach, huyen Nam Sach, tinh Hai Duong, Viet Nam</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH SANJEON VIET NAM</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>KCN Que Vo, tinh Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH SANJEON VIET NAM - KCN Que Vo, tinh Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH ZION VINA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Yura bac Ninh,Cum Cong Nghiep Tan Chi, Xa Tan Chi, Huyen Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CONG TY TNHH ZION VINA - Yura bac Ninh,Cum Cong Nghiep Tan Chi, Xa Tan Chi, Huyen Tien Du, Bac Ninh</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cong ty co phan thuc pham nhat minh</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>duong lieu, hoai duc, ha noi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Cong ty co phan thuc pham nhat minh - duong lieu, hoai duc, ha noi</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" display="https://masothue.com/2400850929-cong-ty-tnhh-che-tao-skylink-viet-nam" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6070,1082 +6437,1422 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX100"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="3.5" customWidth="1" min="3" max="3"/>
-    <col width="3.5" customWidth="1" min="4" max="4"/>
-    <col width="3.5" customWidth="1" min="5" max="5"/>
-    <col width="3.5" customWidth="1" min="6" max="6"/>
-    <col width="3.5" customWidth="1" min="7" max="7"/>
-    <col width="3.5" customWidth="1" min="8" max="8"/>
-    <col width="3.5" customWidth="1" min="9" max="9"/>
-    <col width="3.5" customWidth="1" min="10" max="10"/>
-    <col width="3.5" customWidth="1" min="11" max="11"/>
-    <col width="3.5" customWidth="1" min="12" max="12"/>
-    <col width="3.5" customWidth="1" min="13" max="13"/>
-    <col width="3.5" customWidth="1" min="14" max="14"/>
-    <col width="3.5" customWidth="1" min="15" max="15"/>
-    <col width="3.5" customWidth="1" min="16" max="16"/>
-    <col width="3.5" customWidth="1" min="17" max="17"/>
-    <col width="3.5" customWidth="1" min="18" max="18"/>
-    <col width="3.5" customWidth="1" min="19" max="19"/>
-    <col width="3.5" customWidth="1" min="20" max="20"/>
-    <col width="3.5" customWidth="1" min="21" max="21"/>
-    <col width="3.5" customWidth="1" min="22" max="22"/>
-    <col width="3.5" customWidth="1" min="23" max="23"/>
-    <col width="3.5" customWidth="1" min="24" max="24"/>
-    <col width="3.5" customWidth="1" min="25" max="25"/>
-    <col width="3.5" customWidth="1" min="26" max="26"/>
-    <col width="3.5" customWidth="1" min="27" max="27"/>
-    <col width="3.5" customWidth="1" min="28" max="28"/>
-    <col width="3.5" customWidth="1" min="29" max="29"/>
-    <col width="3.5" customWidth="1" min="30" max="30"/>
-    <col width="3.5" customWidth="1" min="31" max="31"/>
-    <col width="3.5" customWidth="1" min="32" max="32"/>
-    <col width="3.5" customWidth="1" min="33" max="33"/>
-    <col width="3.5" customWidth="1" min="34" max="34"/>
-    <col width="3.5" customWidth="1" min="35" max="35"/>
-    <col width="3.5" customWidth="1" min="36" max="36"/>
-    <col width="3.5" customWidth="1" min="37" max="37"/>
-    <col width="3.5" customWidth="1" min="38" max="38"/>
-    <col width="3.5" customWidth="1" min="39" max="39"/>
-    <col width="3.5" customWidth="1" min="40" max="40"/>
-    <col width="3.5" customWidth="1" min="41" max="41"/>
-    <col width="3.5" customWidth="1" min="42" max="42"/>
-    <col width="3.5" customWidth="1" min="43" max="43"/>
-    <col width="3.5" customWidth="1" min="44" max="44"/>
-    <col width="3.5" customWidth="1" min="45" max="45"/>
-    <col width="3.5" customWidth="1" min="46" max="46"/>
-    <col width="3.5" customWidth="1" min="47" max="47"/>
-    <col width="3.5" customWidth="1" min="48" max="48"/>
-    <col width="3.5" customWidth="1" min="49" max="49"/>
-    <col width="3.5" customWidth="1" min="50" max="50"/>
+    <col width="3.44140625" customWidth="1" style="90" min="1" max="1"/>
+    <col width="20" customWidth="1" style="90" min="2" max="3"/>
+    <col width="15" customWidth="1" style="90" min="4" max="5"/>
+    <col width="12" customWidth="1" style="90" min="6" max="6"/>
+    <col width="8" customWidth="1" style="90" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Dữ liệu gộp từ A1 đến AX1</t>
+          <t>Thông tin tài xế</t>
         </is>
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>stt</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>cccd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>vehicle_id</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>phone_number</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>vehicle_load</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>971683919879</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29A-98147</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0681708110</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>☑</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trần Thị B</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>117438332856</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29A-53775</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0478751199</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>☐</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>755626128433</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29A-61431</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0766897591</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>☑</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phạm Thị D</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>721458948714</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29A-95375</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0717691120</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>☐</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hoàng Văn E</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>508163485296</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29A-83399</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0340021120</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>☐</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AY100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BB11" sqref="BB11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="5" customWidth="1" style="90" min="1" max="1"/>
+    <col width="20" customWidth="1" style="90" min="2" max="2"/>
+    <col width="15" customWidth="1" style="90" min="3" max="3"/>
+    <col width="2" customWidth="1" style="90" min="4" max="51"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dữ liệu gộp từ A1 đến AY1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tài xế</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Số điện thoại</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Gộp 1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Gộp 2</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Gộp 3</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Gộp 4</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="93" t="n"/>
-      <c r="N3" s="94" t="n"/>
-      <c r="O3" s="93" t="n"/>
-      <c r="Z3" s="94" t="n"/>
-      <c r="AA3" s="93" t="n"/>
-      <c r="AL3" s="94" t="n"/>
-      <c r="AM3" s="93" t="n"/>
-      <c r="AX3" s="94" t="n"/>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0681708110</t>
+        </is>
+      </c>
+      <c r="D3" s="79" t="n"/>
+      <c r="I3" s="92" t="n"/>
+      <c r="J3" s="92" t="n"/>
+      <c r="O3" s="80" t="n"/>
+      <c r="P3" s="91" t="n"/>
+      <c r="Q3" s="92" t="n"/>
+      <c r="R3" s="92" t="n"/>
+      <c r="S3" s="92" t="n"/>
+      <c r="AA3" s="80" t="n"/>
+      <c r="AB3" s="79" t="n"/>
+      <c r="AD3" s="92" t="n"/>
+      <c r="AE3" s="92" t="n"/>
+      <c r="AF3" s="92" t="n"/>
+      <c r="AG3" s="92" t="n"/>
+      <c r="AM3" s="80" t="n"/>
+      <c r="AN3" s="79" t="n"/>
+      <c r="AT3" s="92" t="n"/>
+      <c r="AU3" s="92" t="n"/>
+      <c r="AV3" s="92" t="n"/>
+      <c r="AW3" s="92" t="n"/>
+      <c r="AY3" s="80" t="n"/>
     </row>
     <row r="4">
-      <c r="C4" s="93" t="n"/>
-      <c r="N4" s="94" t="n"/>
-      <c r="O4" s="93" t="n"/>
-      <c r="Z4" s="94" t="n"/>
-      <c r="AA4" s="93" t="n"/>
-      <c r="AL4" s="94" t="n"/>
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trần Thị B</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0478751199</t>
+        </is>
+      </c>
+      <c r="D4" s="79" t="n"/>
+      <c r="O4" s="80" t="n"/>
+      <c r="P4" s="79" t="n"/>
+      <c r="AA4" s="80" t="n"/>
+      <c r="AB4" s="79" t="n"/>
+      <c r="AE4" s="92" t="n"/>
+      <c r="AF4" s="92" t="n"/>
+      <c r="AG4" s="92" t="n"/>
+      <c r="AH4" s="92" t="n"/>
+      <c r="AI4" s="92" t="n"/>
+      <c r="AJ4" s="92" t="n"/>
+      <c r="AK4" s="92" t="n"/>
+      <c r="AL4" s="92" t="n"/>
       <c r="AM4" s="93" t="n"/>
-      <c r="AX4" s="94" t="n"/>
+      <c r="AN4" s="91" t="n"/>
+      <c r="AO4" s="92" t="n"/>
+      <c r="AP4" s="92" t="n"/>
+      <c r="AQ4" s="92" t="n"/>
+      <c r="AR4" s="92" t="n"/>
+      <c r="AS4" s="92" t="n"/>
+      <c r="AY4" s="80" t="n"/>
     </row>
     <row r="5">
-      <c r="C5" s="93" t="n"/>
-      <c r="N5" s="94" t="n"/>
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lê Văn C</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0766897591</t>
+        </is>
+      </c>
+      <c r="D5" s="79" t="n"/>
+      <c r="J5" s="92" t="n"/>
+      <c r="K5" s="92" t="n"/>
+      <c r="L5" s="92" t="n"/>
+      <c r="M5" s="92" t="n"/>
+      <c r="N5" s="92" t="n"/>
       <c r="O5" s="93" t="n"/>
-      <c r="Z5" s="94" t="n"/>
+      <c r="P5" s="91" t="n"/>
+      <c r="Q5" s="92" t="n"/>
+      <c r="R5" s="92" t="n"/>
+      <c r="X5" s="92" t="n"/>
+      <c r="Y5" s="92" t="n"/>
+      <c r="Z5" s="92" t="n"/>
       <c r="AA5" s="93" t="n"/>
-      <c r="AL5" s="94" t="n"/>
-      <c r="AM5" s="93" t="n"/>
-      <c r="AX5" s="94" t="n"/>
+      <c r="AB5" s="91" t="n"/>
+      <c r="AC5" s="92" t="n"/>
+      <c r="AD5" s="92" t="n"/>
+      <c r="AE5" s="92" t="n"/>
+      <c r="AF5" s="92" t="n"/>
+      <c r="AG5" s="92" t="n"/>
+      <c r="AH5" s="92" t="n"/>
+      <c r="AI5" s="92" t="n"/>
+      <c r="AJ5" s="92" t="n"/>
+      <c r="AM5" s="80" t="n"/>
+      <c r="AN5" s="79" t="n"/>
+      <c r="AY5" s="80" t="n"/>
     </row>
     <row r="6">
-      <c r="C6" s="93" t="n"/>
-      <c r="N6" s="94" t="n"/>
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phạm Thị D</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0717691120</t>
+        </is>
+      </c>
+      <c r="D6" s="79" t="n"/>
+      <c r="J6" s="92" t="n"/>
+      <c r="K6" s="92" t="n"/>
+      <c r="L6" s="92" t="n"/>
+      <c r="M6" s="92" t="n"/>
+      <c r="N6" s="92" t="n"/>
       <c r="O6" s="93" t="n"/>
-      <c r="Z6" s="94" t="n"/>
+      <c r="P6" s="91" t="n"/>
+      <c r="Q6" s="92" t="n"/>
+      <c r="R6" s="92" t="n"/>
+      <c r="S6" s="92" t="n"/>
+      <c r="T6" s="92" t="n"/>
+      <c r="U6" s="92" t="n"/>
+      <c r="V6" s="92" t="n"/>
+      <c r="W6" s="92" t="n"/>
+      <c r="X6" s="92" t="n"/>
+      <c r="Y6" s="92" t="n"/>
+      <c r="Z6" s="92" t="n"/>
       <c r="AA6" s="93" t="n"/>
-      <c r="AL6" s="94" t="n"/>
-      <c r="AM6" s="93" t="n"/>
-      <c r="AX6" s="94" t="n"/>
+      <c r="AB6" s="91" t="n"/>
+      <c r="AC6" s="92" t="n"/>
+      <c r="AD6" s="92" t="n"/>
+      <c r="AE6" s="92" t="n"/>
+      <c r="AF6" s="92" t="n"/>
+      <c r="AG6" s="92" t="n"/>
+      <c r="AH6" s="92" t="n"/>
+      <c r="AI6" s="92" t="n"/>
+      <c r="AM6" s="80" t="n"/>
+      <c r="AN6" s="79" t="n"/>
+      <c r="AY6" s="80" t="n"/>
     </row>
     <row r="7">
-      <c r="C7" s="93" t="n"/>
-      <c r="N7" s="94" t="n"/>
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hoàng Văn E</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0340021120</t>
+        </is>
+      </c>
+      <c r="D7" s="79" t="n"/>
+      <c r="N7" s="92" t="n"/>
       <c r="O7" s="93" t="n"/>
-      <c r="Z7" s="94" t="n"/>
-      <c r="AA7" s="93" t="n"/>
-      <c r="AL7" s="94" t="n"/>
-      <c r="AM7" s="93" t="n"/>
-      <c r="AX7" s="94" t="n"/>
+      <c r="P7" s="91" t="n"/>
+      <c r="Q7" s="92" t="n"/>
+      <c r="AA7" s="80" t="n"/>
+      <c r="AB7" s="79" t="n"/>
+      <c r="AM7" s="80" t="n"/>
+      <c r="AN7" s="79" t="n"/>
+      <c r="AY7" s="80" t="n"/>
     </row>
     <row r="8">
-      <c r="C8" s="93" t="n"/>
-      <c r="N8" s="94" t="n"/>
-      <c r="O8" s="93" t="n"/>
-      <c r="Z8" s="94" t="n"/>
-      <c r="AA8" s="93" t="n"/>
-      <c r="AL8" s="94" t="n"/>
-      <c r="AM8" s="93" t="n"/>
-      <c r="AX8" s="94" t="n"/>
+      <c r="D8" s="79" t="n"/>
+      <c r="O8" s="80" t="n"/>
+      <c r="P8" s="79" t="n"/>
+      <c r="AA8" s="80" t="n"/>
+      <c r="AB8" s="79" t="n"/>
+      <c r="AM8" s="80" t="n"/>
+      <c r="AN8" s="79" t="n"/>
+      <c r="AY8" s="80" t="n"/>
     </row>
     <row r="9">
-      <c r="C9" s="93" t="n"/>
-      <c r="N9" s="94" t="n"/>
-      <c r="O9" s="93" t="n"/>
-      <c r="Z9" s="94" t="n"/>
-      <c r="AA9" s="93" t="n"/>
-      <c r="AL9" s="94" t="n"/>
-      <c r="AM9" s="93" t="n"/>
-      <c r="AX9" s="94" t="n"/>
+      <c r="D9" s="79" t="n"/>
+      <c r="O9" s="80" t="n"/>
+      <c r="P9" s="79" t="n"/>
+      <c r="AA9" s="80" t="n"/>
+      <c r="AB9" s="79" t="n"/>
+      <c r="AM9" s="80" t="n"/>
+      <c r="AN9" s="79" t="n"/>
+      <c r="AY9" s="80" t="n"/>
     </row>
     <row r="10">
-      <c r="C10" s="93" t="n"/>
-      <c r="N10" s="94" t="n"/>
-      <c r="O10" s="93" t="n"/>
-      <c r="Z10" s="94" t="n"/>
-      <c r="AA10" s="93" t="n"/>
-      <c r="AL10" s="94" t="n"/>
-      <c r="AM10" s="93" t="n"/>
-      <c r="AX10" s="94" t="n"/>
+      <c r="D10" s="79" t="n"/>
+      <c r="O10" s="80" t="n"/>
+      <c r="P10" s="79" t="n"/>
+      <c r="AA10" s="80" t="n"/>
+      <c r="AB10" s="79" t="n"/>
+      <c r="AM10" s="80" t="n"/>
+      <c r="AN10" s="79" t="n"/>
+      <c r="AY10" s="80" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="93" t="n"/>
-      <c r="N11" s="94" t="n"/>
-      <c r="O11" s="93" t="n"/>
-      <c r="Z11" s="94" t="n"/>
-      <c r="AA11" s="93" t="n"/>
-      <c r="AL11" s="94" t="n"/>
-      <c r="AM11" s="93" t="n"/>
-      <c r="AX11" s="94" t="n"/>
+      <c r="D11" s="79" t="n"/>
+      <c r="O11" s="80" t="n"/>
+      <c r="P11" s="79" t="n"/>
+      <c r="AA11" s="80" t="n"/>
+      <c r="AB11" s="79" t="n"/>
+      <c r="AM11" s="80" t="n"/>
+      <c r="AN11" s="79" t="n"/>
+      <c r="AY11" s="80" t="n"/>
     </row>
     <row r="12">
-      <c r="C12" s="93" t="n"/>
-      <c r="N12" s="94" t="n"/>
-      <c r="O12" s="93" t="n"/>
-      <c r="Z12" s="94" t="n"/>
-      <c r="AA12" s="93" t="n"/>
-      <c r="AL12" s="94" t="n"/>
-      <c r="AM12" s="93" t="n"/>
-      <c r="AX12" s="94" t="n"/>
+      <c r="D12" s="79" t="n"/>
+      <c r="O12" s="80" t="n"/>
+      <c r="P12" s="79" t="n"/>
+      <c r="AA12" s="80" t="n"/>
+      <c r="AB12" s="79" t="n"/>
+      <c r="AM12" s="80" t="n"/>
+      <c r="AN12" s="79" t="n"/>
+      <c r="AY12" s="80" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="93" t="n"/>
-      <c r="N13" s="94" t="n"/>
-      <c r="O13" s="93" t="n"/>
-      <c r="Z13" s="94" t="n"/>
-      <c r="AA13" s="93" t="n"/>
-      <c r="AL13" s="94" t="n"/>
-      <c r="AM13" s="93" t="n"/>
-      <c r="AX13" s="94" t="n"/>
+      <c r="D13" s="79" t="n"/>
+      <c r="O13" s="80" t="n"/>
+      <c r="P13" s="79" t="n"/>
+      <c r="AA13" s="80" t="n"/>
+      <c r="AB13" s="79" t="n"/>
+      <c r="AM13" s="80" t="n"/>
+      <c r="AN13" s="79" t="n"/>
+      <c r="AY13" s="80" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="93" t="n"/>
-      <c r="N14" s="94" t="n"/>
-      <c r="O14" s="93" t="n"/>
-      <c r="Z14" s="94" t="n"/>
-      <c r="AA14" s="93" t="n"/>
-      <c r="AL14" s="94" t="n"/>
-      <c r="AM14" s="93" t="n"/>
-      <c r="AX14" s="94" t="n"/>
+      <c r="D14" s="79" t="n"/>
+      <c r="O14" s="80" t="n"/>
+      <c r="P14" s="79" t="n"/>
+      <c r="AA14" s="80" t="n"/>
+      <c r="AB14" s="79" t="n"/>
+      <c r="AM14" s="80" t="n"/>
+      <c r="AN14" s="79" t="n"/>
+      <c r="AY14" s="80" t="n"/>
     </row>
     <row r="15">
-      <c r="C15" s="93" t="n"/>
-      <c r="N15" s="94" t="n"/>
-      <c r="O15" s="93" t="n"/>
-      <c r="Z15" s="94" t="n"/>
-      <c r="AA15" s="93" t="n"/>
-      <c r="AL15" s="94" t="n"/>
-      <c r="AM15" s="93" t="n"/>
-      <c r="AX15" s="94" t="n"/>
+      <c r="D15" s="79" t="n"/>
+      <c r="O15" s="80" t="n"/>
+      <c r="P15" s="79" t="n"/>
+      <c r="AA15" s="80" t="n"/>
+      <c r="AB15" s="79" t="n"/>
+      <c r="AM15" s="80" t="n"/>
+      <c r="AN15" s="79" t="n"/>
+      <c r="AY15" s="80" t="n"/>
     </row>
     <row r="16">
-      <c r="C16" s="93" t="n"/>
-      <c r="N16" s="94" t="n"/>
-      <c r="O16" s="93" t="n"/>
-      <c r="Z16" s="94" t="n"/>
-      <c r="AA16" s="93" t="n"/>
-      <c r="AL16" s="94" t="n"/>
-      <c r="AM16" s="93" t="n"/>
-      <c r="AX16" s="94" t="n"/>
+      <c r="D16" s="79" t="n"/>
+      <c r="O16" s="80" t="n"/>
+      <c r="P16" s="79" t="n"/>
+      <c r="AA16" s="80" t="n"/>
+      <c r="AB16" s="79" t="n"/>
+      <c r="AM16" s="80" t="n"/>
+      <c r="AN16" s="79" t="n"/>
+      <c r="AY16" s="80" t="n"/>
     </row>
     <row r="17">
-      <c r="C17" s="93" t="n"/>
-      <c r="N17" s="94" t="n"/>
-      <c r="O17" s="93" t="n"/>
-      <c r="Z17" s="94" t="n"/>
-      <c r="AA17" s="93" t="n"/>
-      <c r="AL17" s="94" t="n"/>
-      <c r="AM17" s="93" t="n"/>
-      <c r="AX17" s="94" t="n"/>
+      <c r="D17" s="79" t="n"/>
+      <c r="O17" s="80" t="n"/>
+      <c r="P17" s="79" t="n"/>
+      <c r="AA17" s="80" t="n"/>
+      <c r="AB17" s="79" t="n"/>
+      <c r="AM17" s="80" t="n"/>
+      <c r="AN17" s="79" t="n"/>
+      <c r="AY17" s="80" t="n"/>
     </row>
     <row r="18">
-      <c r="C18" s="93" t="n"/>
-      <c r="N18" s="94" t="n"/>
-      <c r="O18" s="93" t="n"/>
-      <c r="Z18" s="94" t="n"/>
-      <c r="AA18" s="93" t="n"/>
-      <c r="AL18" s="94" t="n"/>
-      <c r="AM18" s="93" t="n"/>
-      <c r="AX18" s="94" t="n"/>
+      <c r="D18" s="79" t="n"/>
+      <c r="O18" s="80" t="n"/>
+      <c r="P18" s="79" t="n"/>
+      <c r="AA18" s="80" t="n"/>
+      <c r="AB18" s="79" t="n"/>
+      <c r="AM18" s="80" t="n"/>
+      <c r="AN18" s="79" t="n"/>
+      <c r="AY18" s="80" t="n"/>
     </row>
     <row r="19">
-      <c r="C19" s="93" t="n"/>
-      <c r="N19" s="94" t="n"/>
-      <c r="O19" s="93" t="n"/>
-      <c r="Z19" s="94" t="n"/>
-      <c r="AA19" s="93" t="n"/>
-      <c r="AL19" s="94" t="n"/>
-      <c r="AM19" s="93" t="n"/>
-      <c r="AX19" s="94" t="n"/>
+      <c r="D19" s="79" t="n"/>
+      <c r="O19" s="80" t="n"/>
+      <c r="P19" s="79" t="n"/>
+      <c r="AA19" s="80" t="n"/>
+      <c r="AB19" s="79" t="n"/>
+      <c r="AM19" s="80" t="n"/>
+      <c r="AN19" s="79" t="n"/>
+      <c r="AY19" s="80" t="n"/>
     </row>
     <row r="20">
-      <c r="C20" s="93" t="n"/>
-      <c r="N20" s="94" t="n"/>
-      <c r="O20" s="93" t="n"/>
-      <c r="Z20" s="94" t="n"/>
-      <c r="AA20" s="93" t="n"/>
-      <c r="AL20" s="94" t="n"/>
-      <c r="AM20" s="93" t="n"/>
-      <c r="AX20" s="94" t="n"/>
+      <c r="D20" s="79" t="n"/>
+      <c r="O20" s="80" t="n"/>
+      <c r="P20" s="79" t="n"/>
+      <c r="AA20" s="80" t="n"/>
+      <c r="AB20" s="79" t="n"/>
+      <c r="AM20" s="80" t="n"/>
+      <c r="AN20" s="79" t="n"/>
+      <c r="AY20" s="80" t="n"/>
     </row>
     <row r="21">
-      <c r="C21" s="93" t="n"/>
-      <c r="N21" s="94" t="n"/>
-      <c r="O21" s="93" t="n"/>
-      <c r="Z21" s="94" t="n"/>
-      <c r="AA21" s="93" t="n"/>
-      <c r="AL21" s="94" t="n"/>
-      <c r="AM21" s="93" t="n"/>
-      <c r="AX21" s="94" t="n"/>
+      <c r="D21" s="79" t="n"/>
+      <c r="O21" s="80" t="n"/>
+      <c r="P21" s="79" t="n"/>
+      <c r="AA21" s="80" t="n"/>
+      <c r="AB21" s="79" t="n"/>
+      <c r="AM21" s="80" t="n"/>
+      <c r="AN21" s="79" t="n"/>
+      <c r="AY21" s="80" t="n"/>
     </row>
     <row r="22">
-      <c r="C22" s="93" t="n"/>
-      <c r="N22" s="94" t="n"/>
-      <c r="O22" s="93" t="n"/>
-      <c r="Z22" s="94" t="n"/>
-      <c r="AA22" s="93" t="n"/>
-      <c r="AL22" s="94" t="n"/>
-      <c r="AM22" s="93" t="n"/>
-      <c r="AX22" s="94" t="n"/>
+      <c r="D22" s="79" t="n"/>
+      <c r="O22" s="80" t="n"/>
+      <c r="P22" s="79" t="n"/>
+      <c r="AA22" s="80" t="n"/>
+      <c r="AB22" s="79" t="n"/>
+      <c r="AM22" s="80" t="n"/>
+      <c r="AN22" s="79" t="n"/>
+      <c r="AY22" s="80" t="n"/>
     </row>
     <row r="23">
-      <c r="C23" s="93" t="n"/>
-      <c r="N23" s="94" t="n"/>
-      <c r="O23" s="93" t="n"/>
-      <c r="Z23" s="94" t="n"/>
-      <c r="AA23" s="93" t="n"/>
-      <c r="AL23" s="94" t="n"/>
-      <c r="AM23" s="93" t="n"/>
-      <c r="AX23" s="94" t="n"/>
+      <c r="D23" s="79" t="n"/>
+      <c r="O23" s="80" t="n"/>
+      <c r="P23" s="79" t="n"/>
+      <c r="AA23" s="80" t="n"/>
+      <c r="AB23" s="79" t="n"/>
+      <c r="AM23" s="80" t="n"/>
+      <c r="AN23" s="79" t="n"/>
+      <c r="AY23" s="80" t="n"/>
     </row>
     <row r="24">
-      <c r="C24" s="93" t="n"/>
-      <c r="N24" s="94" t="n"/>
-      <c r="O24" s="93" t="n"/>
-      <c r="Z24" s="94" t="n"/>
-      <c r="AA24" s="93" t="n"/>
-      <c r="AL24" s="94" t="n"/>
-      <c r="AM24" s="93" t="n"/>
-      <c r="AX24" s="94" t="n"/>
+      <c r="D24" s="79" t="n"/>
+      <c r="O24" s="80" t="n"/>
+      <c r="P24" s="79" t="n"/>
+      <c r="AA24" s="80" t="n"/>
+      <c r="AB24" s="79" t="n"/>
+      <c r="AM24" s="80" t="n"/>
+      <c r="AN24" s="79" t="n"/>
+      <c r="AY24" s="80" t="n"/>
     </row>
     <row r="25">
-      <c r="C25" s="93" t="n"/>
-      <c r="N25" s="94" t="n"/>
-      <c r="O25" s="93" t="n"/>
-      <c r="Z25" s="94" t="n"/>
-      <c r="AA25" s="93" t="n"/>
-      <c r="AL25" s="94" t="n"/>
-      <c r="AM25" s="93" t="n"/>
-      <c r="AX25" s="94" t="n"/>
+      <c r="D25" s="79" t="n"/>
+      <c r="O25" s="80" t="n"/>
+      <c r="P25" s="79" t="n"/>
+      <c r="AA25" s="80" t="n"/>
+      <c r="AB25" s="79" t="n"/>
+      <c r="AM25" s="80" t="n"/>
+      <c r="AN25" s="79" t="n"/>
+      <c r="AY25" s="80" t="n"/>
     </row>
     <row r="26">
-      <c r="C26" s="93" t="n"/>
-      <c r="N26" s="94" t="n"/>
-      <c r="O26" s="93" t="n"/>
-      <c r="Z26" s="94" t="n"/>
-      <c r="AA26" s="93" t="n"/>
-      <c r="AL26" s="94" t="n"/>
-      <c r="AM26" s="93" t="n"/>
-      <c r="AX26" s="94" t="n"/>
+      <c r="D26" s="79" t="n"/>
+      <c r="O26" s="80" t="n"/>
+      <c r="P26" s="79" t="n"/>
+      <c r="AA26" s="80" t="n"/>
+      <c r="AB26" s="79" t="n"/>
+      <c r="AM26" s="80" t="n"/>
+      <c r="AN26" s="79" t="n"/>
+      <c r="AY26" s="80" t="n"/>
     </row>
     <row r="27">
-      <c r="C27" s="93" t="n"/>
-      <c r="N27" s="94" t="n"/>
-      <c r="O27" s="93" t="n"/>
-      <c r="Z27" s="94" t="n"/>
-      <c r="AA27" s="93" t="n"/>
-      <c r="AL27" s="94" t="n"/>
-      <c r="AM27" s="93" t="n"/>
-      <c r="AX27" s="94" t="n"/>
+      <c r="D27" s="79" t="n"/>
+      <c r="O27" s="80" t="n"/>
+      <c r="P27" s="79" t="n"/>
+      <c r="AA27" s="80" t="n"/>
+      <c r="AB27" s="79" t="n"/>
+      <c r="AM27" s="80" t="n"/>
+      <c r="AN27" s="79" t="n"/>
+      <c r="AY27" s="80" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="93" t="n"/>
-      <c r="N28" s="94" t="n"/>
-      <c r="O28" s="93" t="n"/>
-      <c r="Z28" s="94" t="n"/>
-      <c r="AA28" s="93" t="n"/>
-      <c r="AL28" s="94" t="n"/>
-      <c r="AM28" s="93" t="n"/>
-      <c r="AX28" s="94" t="n"/>
+      <c r="D28" s="79" t="n"/>
+      <c r="O28" s="80" t="n"/>
+      <c r="P28" s="79" t="n"/>
+      <c r="AA28" s="80" t="n"/>
+      <c r="AB28" s="79" t="n"/>
+      <c r="AM28" s="80" t="n"/>
+      <c r="AN28" s="79" t="n"/>
+      <c r="AY28" s="80" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="93" t="n"/>
-      <c r="N29" s="94" t="n"/>
-      <c r="O29" s="93" t="n"/>
-      <c r="Z29" s="94" t="n"/>
-      <c r="AA29" s="93" t="n"/>
-      <c r="AL29" s="94" t="n"/>
-      <c r="AM29" s="93" t="n"/>
-      <c r="AX29" s="94" t="n"/>
+      <c r="D29" s="79" t="n"/>
+      <c r="O29" s="80" t="n"/>
+      <c r="P29" s="79" t="n"/>
+      <c r="AA29" s="80" t="n"/>
+      <c r="AB29" s="79" t="n"/>
+      <c r="AM29" s="80" t="n"/>
+      <c r="AN29" s="79" t="n"/>
+      <c r="AY29" s="80" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="93" t="n"/>
-      <c r="N30" s="94" t="n"/>
-      <c r="O30" s="93" t="n"/>
-      <c r="Z30" s="94" t="n"/>
-      <c r="AA30" s="93" t="n"/>
-      <c r="AL30" s="94" t="n"/>
-      <c r="AM30" s="93" t="n"/>
-      <c r="AX30" s="94" t="n"/>
+      <c r="D30" s="79" t="n"/>
+      <c r="O30" s="80" t="n"/>
+      <c r="P30" s="79" t="n"/>
+      <c r="AA30" s="80" t="n"/>
+      <c r="AB30" s="79" t="n"/>
+      <c r="AM30" s="80" t="n"/>
+      <c r="AN30" s="79" t="n"/>
+      <c r="AY30" s="80" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="93" t="n"/>
-      <c r="N31" s="94" t="n"/>
-      <c r="O31" s="93" t="n"/>
-      <c r="Z31" s="94" t="n"/>
-      <c r="AA31" s="93" t="n"/>
-      <c r="AL31" s="94" t="n"/>
-      <c r="AM31" s="93" t="n"/>
-      <c r="AX31" s="94" t="n"/>
+      <c r="D31" s="79" t="n"/>
+      <c r="O31" s="80" t="n"/>
+      <c r="P31" s="79" t="n"/>
+      <c r="AA31" s="80" t="n"/>
+      <c r="AB31" s="79" t="n"/>
+      <c r="AM31" s="80" t="n"/>
+      <c r="AN31" s="79" t="n"/>
+      <c r="AY31" s="80" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="93" t="n"/>
-      <c r="N32" s="94" t="n"/>
-      <c r="O32" s="93" t="n"/>
-      <c r="Z32" s="94" t="n"/>
-      <c r="AA32" s="93" t="n"/>
-      <c r="AL32" s="94" t="n"/>
-      <c r="AM32" s="93" t="n"/>
-      <c r="AX32" s="94" t="n"/>
+      <c r="D32" s="79" t="n"/>
+      <c r="O32" s="80" t="n"/>
+      <c r="P32" s="79" t="n"/>
+      <c r="AA32" s="80" t="n"/>
+      <c r="AB32" s="79" t="n"/>
+      <c r="AM32" s="80" t="n"/>
+      <c r="AN32" s="79" t="n"/>
+      <c r="AY32" s="80" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="93" t="n"/>
-      <c r="N33" s="94" t="n"/>
-      <c r="O33" s="93" t="n"/>
-      <c r="Z33" s="94" t="n"/>
-      <c r="AA33" s="93" t="n"/>
-      <c r="AL33" s="94" t="n"/>
-      <c r="AM33" s="93" t="n"/>
-      <c r="AX33" s="94" t="n"/>
+      <c r="D33" s="79" t="n"/>
+      <c r="O33" s="80" t="n"/>
+      <c r="P33" s="79" t="n"/>
+      <c r="AA33" s="80" t="n"/>
+      <c r="AB33" s="79" t="n"/>
+      <c r="AM33" s="80" t="n"/>
+      <c r="AN33" s="79" t="n"/>
+      <c r="AY33" s="80" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="93" t="n"/>
-      <c r="N34" s="94" t="n"/>
-      <c r="O34" s="93" t="n"/>
-      <c r="Z34" s="94" t="n"/>
-      <c r="AA34" s="93" t="n"/>
-      <c r="AL34" s="94" t="n"/>
-      <c r="AM34" s="93" t="n"/>
-      <c r="AX34" s="94" t="n"/>
+      <c r="D34" s="79" t="n"/>
+      <c r="O34" s="80" t="n"/>
+      <c r="P34" s="79" t="n"/>
+      <c r="AA34" s="80" t="n"/>
+      <c r="AB34" s="79" t="n"/>
+      <c r="AM34" s="80" t="n"/>
+      <c r="AN34" s="79" t="n"/>
+      <c r="AY34" s="80" t="n"/>
     </row>
     <row r="35">
-      <c r="C35" s="93" t="n"/>
-      <c r="N35" s="94" t="n"/>
-      <c r="O35" s="93" t="n"/>
-      <c r="Z35" s="94" t="n"/>
-      <c r="AA35" s="93" t="n"/>
-      <c r="AL35" s="94" t="n"/>
-      <c r="AM35" s="93" t="n"/>
-      <c r="AX35" s="94" t="n"/>
+      <c r="D35" s="79" t="n"/>
+      <c r="O35" s="80" t="n"/>
+      <c r="P35" s="79" t="n"/>
+      <c r="AA35" s="80" t="n"/>
+      <c r="AB35" s="79" t="n"/>
+      <c r="AM35" s="80" t="n"/>
+      <c r="AN35" s="79" t="n"/>
+      <c r="AY35" s="80" t="n"/>
     </row>
     <row r="36">
-      <c r="C36" s="93" t="n"/>
-      <c r="N36" s="94" t="n"/>
-      <c r="O36" s="93" t="n"/>
-      <c r="Z36" s="94" t="n"/>
-      <c r="AA36" s="93" t="n"/>
-      <c r="AL36" s="94" t="n"/>
-      <c r="AM36" s="93" t="n"/>
-      <c r="AX36" s="94" t="n"/>
+      <c r="D36" s="79" t="n"/>
+      <c r="O36" s="80" t="n"/>
+      <c r="P36" s="79" t="n"/>
+      <c r="AA36" s="80" t="n"/>
+      <c r="AB36" s="79" t="n"/>
+      <c r="AM36" s="80" t="n"/>
+      <c r="AN36" s="79" t="n"/>
+      <c r="AY36" s="80" t="n"/>
     </row>
     <row r="37">
-      <c r="C37" s="93" t="n"/>
-      <c r="N37" s="94" t="n"/>
-      <c r="O37" s="93" t="n"/>
-      <c r="Z37" s="94" t="n"/>
-      <c r="AA37" s="93" t="n"/>
-      <c r="AL37" s="94" t="n"/>
-      <c r="AM37" s="93" t="n"/>
-      <c r="AX37" s="94" t="n"/>
+      <c r="D37" s="79" t="n"/>
+      <c r="O37" s="80" t="n"/>
+      <c r="P37" s="79" t="n"/>
+      <c r="AA37" s="80" t="n"/>
+      <c r="AB37" s="79" t="n"/>
+      <c r="AM37" s="80" t="n"/>
+      <c r="AN37" s="79" t="n"/>
+      <c r="AY37" s="80" t="n"/>
     </row>
     <row r="38">
-      <c r="C38" s="93" t="n"/>
-      <c r="N38" s="94" t="n"/>
-      <c r="O38" s="93" t="n"/>
-      <c r="Z38" s="94" t="n"/>
-      <c r="AA38" s="93" t="n"/>
-      <c r="AL38" s="94" t="n"/>
-      <c r="AM38" s="93" t="n"/>
-      <c r="AX38" s="94" t="n"/>
+      <c r="D38" s="79" t="n"/>
+      <c r="O38" s="80" t="n"/>
+      <c r="P38" s="79" t="n"/>
+      <c r="AA38" s="80" t="n"/>
+      <c r="AB38" s="79" t="n"/>
+      <c r="AM38" s="80" t="n"/>
+      <c r="AN38" s="79" t="n"/>
+      <c r="AY38" s="80" t="n"/>
     </row>
     <row r="39">
-      <c r="C39" s="93" t="n"/>
-      <c r="N39" s="94" t="n"/>
-      <c r="O39" s="93" t="n"/>
-      <c r="Z39" s="94" t="n"/>
-      <c r="AA39" s="93" t="n"/>
-      <c r="AL39" s="94" t="n"/>
-      <c r="AM39" s="93" t="n"/>
-      <c r="AX39" s="94" t="n"/>
+      <c r="D39" s="79" t="n"/>
+      <c r="O39" s="80" t="n"/>
+      <c r="P39" s="79" t="n"/>
+      <c r="AA39" s="80" t="n"/>
+      <c r="AB39" s="79" t="n"/>
+      <c r="AM39" s="80" t="n"/>
+      <c r="AN39" s="79" t="n"/>
+      <c r="AY39" s="80" t="n"/>
     </row>
     <row r="40">
-      <c r="C40" s="93" t="n"/>
-      <c r="N40" s="94" t="n"/>
-      <c r="O40" s="93" t="n"/>
-      <c r="Z40" s="94" t="n"/>
-      <c r="AA40" s="93" t="n"/>
-      <c r="AL40" s="94" t="n"/>
-      <c r="AM40" s="93" t="n"/>
-      <c r="AX40" s="94" t="n"/>
+      <c r="D40" s="79" t="n"/>
+      <c r="O40" s="80" t="n"/>
+      <c r="P40" s="79" t="n"/>
+      <c r="AA40" s="80" t="n"/>
+      <c r="AB40" s="79" t="n"/>
+      <c r="AM40" s="80" t="n"/>
+      <c r="AN40" s="79" t="n"/>
+      <c r="AY40" s="80" t="n"/>
     </row>
     <row r="41">
-      <c r="C41" s="93" t="n"/>
-      <c r="N41" s="94" t="n"/>
-      <c r="O41" s="93" t="n"/>
-      <c r="Z41" s="94" t="n"/>
-      <c r="AA41" s="93" t="n"/>
-      <c r="AL41" s="94" t="n"/>
-      <c r="AM41" s="93" t="n"/>
-      <c r="AX41" s="94" t="n"/>
+      <c r="D41" s="79" t="n"/>
+      <c r="O41" s="80" t="n"/>
+      <c r="P41" s="79" t="n"/>
+      <c r="AA41" s="80" t="n"/>
+      <c r="AB41" s="79" t="n"/>
+      <c r="AM41" s="80" t="n"/>
+      <c r="AN41" s="79" t="n"/>
+      <c r="AY41" s="80" t="n"/>
     </row>
     <row r="42">
-      <c r="C42" s="93" t="n"/>
-      <c r="N42" s="94" t="n"/>
-      <c r="O42" s="93" t="n"/>
-      <c r="Z42" s="94" t="n"/>
-      <c r="AA42" s="93" t="n"/>
-      <c r="AL42" s="94" t="n"/>
-      <c r="AM42" s="93" t="n"/>
-      <c r="AX42" s="94" t="n"/>
+      <c r="D42" s="79" t="n"/>
+      <c r="O42" s="80" t="n"/>
+      <c r="P42" s="79" t="n"/>
+      <c r="AA42" s="80" t="n"/>
+      <c r="AB42" s="79" t="n"/>
+      <c r="AM42" s="80" t="n"/>
+      <c r="AN42" s="79" t="n"/>
+      <c r="AY42" s="80" t="n"/>
     </row>
     <row r="43">
-      <c r="C43" s="93" t="n"/>
-      <c r="N43" s="94" t="n"/>
-      <c r="O43" s="93" t="n"/>
-      <c r="Z43" s="94" t="n"/>
-      <c r="AA43" s="93" t="n"/>
-      <c r="AL43" s="94" t="n"/>
-      <c r="AM43" s="93" t="n"/>
-      <c r="AX43" s="94" t="n"/>
+      <c r="D43" s="79" t="n"/>
+      <c r="O43" s="80" t="n"/>
+      <c r="P43" s="79" t="n"/>
+      <c r="AA43" s="80" t="n"/>
+      <c r="AB43" s="79" t="n"/>
+      <c r="AM43" s="80" t="n"/>
+      <c r="AN43" s="79" t="n"/>
+      <c r="AY43" s="80" t="n"/>
     </row>
     <row r="44">
-      <c r="C44" s="93" t="n"/>
-      <c r="N44" s="94" t="n"/>
-      <c r="O44" s="93" t="n"/>
-      <c r="Z44" s="94" t="n"/>
-      <c r="AA44" s="93" t="n"/>
-      <c r="AL44" s="94" t="n"/>
-      <c r="AM44" s="93" t="n"/>
-      <c r="AX44" s="94" t="n"/>
+      <c r="D44" s="79" t="n"/>
+      <c r="O44" s="80" t="n"/>
+      <c r="P44" s="79" t="n"/>
+      <c r="AA44" s="80" t="n"/>
+      <c r="AB44" s="79" t="n"/>
+      <c r="AM44" s="80" t="n"/>
+      <c r="AN44" s="79" t="n"/>
+      <c r="AY44" s="80" t="n"/>
     </row>
     <row r="45">
-      <c r="C45" s="93" t="n"/>
-      <c r="N45" s="94" t="n"/>
-      <c r="O45" s="93" t="n"/>
-      <c r="Z45" s="94" t="n"/>
-      <c r="AA45" s="93" t="n"/>
-      <c r="AL45" s="94" t="n"/>
-      <c r="AM45" s="93" t="n"/>
-      <c r="AX45" s="94" t="n"/>
+      <c r="D45" s="79" t="n"/>
+      <c r="O45" s="80" t="n"/>
+      <c r="P45" s="79" t="n"/>
+      <c r="AA45" s="80" t="n"/>
+      <c r="AB45" s="79" t="n"/>
+      <c r="AM45" s="80" t="n"/>
+      <c r="AN45" s="79" t="n"/>
+      <c r="AY45" s="80" t="n"/>
     </row>
     <row r="46">
-      <c r="C46" s="93" t="n"/>
-      <c r="N46" s="94" t="n"/>
-      <c r="O46" s="93" t="n"/>
-      <c r="Z46" s="94" t="n"/>
-      <c r="AA46" s="93" t="n"/>
-      <c r="AL46" s="94" t="n"/>
-      <c r="AM46" s="93" t="n"/>
-      <c r="AX46" s="94" t="n"/>
+      <c r="D46" s="79" t="n"/>
+      <c r="O46" s="80" t="n"/>
+      <c r="P46" s="79" t="n"/>
+      <c r="AA46" s="80" t="n"/>
+      <c r="AB46" s="79" t="n"/>
+      <c r="AM46" s="80" t="n"/>
+      <c r="AN46" s="79" t="n"/>
+      <c r="AY46" s="80" t="n"/>
     </row>
     <row r="47">
-      <c r="C47" s="93" t="n"/>
-      <c r="N47" s="94" t="n"/>
-      <c r="O47" s="93" t="n"/>
-      <c r="Z47" s="94" t="n"/>
-      <c r="AA47" s="93" t="n"/>
-      <c r="AL47" s="94" t="n"/>
-      <c r="AM47" s="93" t="n"/>
-      <c r="AX47" s="94" t="n"/>
+      <c r="D47" s="79" t="n"/>
+      <c r="O47" s="80" t="n"/>
+      <c r="P47" s="79" t="n"/>
+      <c r="AA47" s="80" t="n"/>
+      <c r="AB47" s="79" t="n"/>
+      <c r="AM47" s="80" t="n"/>
+      <c r="AN47" s="79" t="n"/>
+      <c r="AY47" s="80" t="n"/>
     </row>
     <row r="48">
-      <c r="C48" s="93" t="n"/>
-      <c r="N48" s="94" t="n"/>
-      <c r="O48" s="93" t="n"/>
-      <c r="Z48" s="94" t="n"/>
-      <c r="AA48" s="93" t="n"/>
-      <c r="AL48" s="94" t="n"/>
-      <c r="AM48" s="93" t="n"/>
-      <c r="AX48" s="94" t="n"/>
+      <c r="D48" s="79" t="n"/>
+      <c r="O48" s="80" t="n"/>
+      <c r="P48" s="79" t="n"/>
+      <c r="AA48" s="80" t="n"/>
+      <c r="AB48" s="79" t="n"/>
+      <c r="AM48" s="80" t="n"/>
+      <c r="AN48" s="79" t="n"/>
+      <c r="AY48" s="80" t="n"/>
     </row>
     <row r="49">
-      <c r="C49" s="93" t="n"/>
-      <c r="N49" s="94" t="n"/>
-      <c r="O49" s="93" t="n"/>
-      <c r="Z49" s="94" t="n"/>
-      <c r="AA49" s="93" t="n"/>
-      <c r="AL49" s="94" t="n"/>
-      <c r="AM49" s="93" t="n"/>
-      <c r="AX49" s="94" t="n"/>
+      <c r="D49" s="79" t="n"/>
+      <c r="O49" s="80" t="n"/>
+      <c r="P49" s="79" t="n"/>
+      <c r="AA49" s="80" t="n"/>
+      <c r="AB49" s="79" t="n"/>
+      <c r="AM49" s="80" t="n"/>
+      <c r="AN49" s="79" t="n"/>
+      <c r="AY49" s="80" t="n"/>
     </row>
     <row r="50">
-      <c r="C50" s="93" t="n"/>
-      <c r="N50" s="94" t="n"/>
-      <c r="O50" s="93" t="n"/>
-      <c r="Z50" s="94" t="n"/>
-      <c r="AA50" s="93" t="n"/>
-      <c r="AL50" s="94" t="n"/>
-      <c r="AM50" s="93" t="n"/>
-      <c r="AX50" s="94" t="n"/>
+      <c r="D50" s="79" t="n"/>
+      <c r="O50" s="80" t="n"/>
+      <c r="P50" s="79" t="n"/>
+      <c r="AA50" s="80" t="n"/>
+      <c r="AB50" s="79" t="n"/>
+      <c r="AM50" s="80" t="n"/>
+      <c r="AN50" s="79" t="n"/>
+      <c r="AY50" s="80" t="n"/>
     </row>
     <row r="51">
-      <c r="C51" s="93" t="n"/>
-      <c r="N51" s="94" t="n"/>
-      <c r="O51" s="93" t="n"/>
-      <c r="Z51" s="94" t="n"/>
-      <c r="AA51" s="93" t="n"/>
-      <c r="AL51" s="94" t="n"/>
-      <c r="AM51" s="93" t="n"/>
-      <c r="AX51" s="94" t="n"/>
+      <c r="D51" s="79" t="n"/>
+      <c r="O51" s="80" t="n"/>
+      <c r="P51" s="79" t="n"/>
+      <c r="AA51" s="80" t="n"/>
+      <c r="AB51" s="79" t="n"/>
+      <c r="AM51" s="80" t="n"/>
+      <c r="AN51" s="79" t="n"/>
+      <c r="AY51" s="80" t="n"/>
     </row>
     <row r="52">
-      <c r="C52" s="93" t="n"/>
-      <c r="N52" s="94" t="n"/>
-      <c r="O52" s="93" t="n"/>
-      <c r="Z52" s="94" t="n"/>
-      <c r="AA52" s="93" t="n"/>
-      <c r="AL52" s="94" t="n"/>
-      <c r="AM52" s="93" t="n"/>
-      <c r="AX52" s="94" t="n"/>
+      <c r="D52" s="79" t="n"/>
+      <c r="O52" s="80" t="n"/>
+      <c r="P52" s="79" t="n"/>
+      <c r="AA52" s="80" t="n"/>
+      <c r="AB52" s="79" t="n"/>
+      <c r="AM52" s="80" t="n"/>
+      <c r="AN52" s="79" t="n"/>
+      <c r="AY52" s="80" t="n"/>
     </row>
     <row r="53">
-      <c r="C53" s="93" t="n"/>
-      <c r="N53" s="94" t="n"/>
-      <c r="O53" s="93" t="n"/>
-      <c r="Z53" s="94" t="n"/>
-      <c r="AA53" s="93" t="n"/>
-      <c r="AL53" s="94" t="n"/>
-      <c r="AM53" s="93" t="n"/>
-      <c r="AX53" s="94" t="n"/>
+      <c r="D53" s="79" t="n"/>
+      <c r="O53" s="80" t="n"/>
+      <c r="P53" s="79" t="n"/>
+      <c r="AA53" s="80" t="n"/>
+      <c r="AB53" s="79" t="n"/>
+      <c r="AM53" s="80" t="n"/>
+      <c r="AN53" s="79" t="n"/>
+      <c r="AY53" s="80" t="n"/>
     </row>
     <row r="54">
-      <c r="C54" s="93" t="n"/>
-      <c r="N54" s="94" t="n"/>
-      <c r="O54" s="93" t="n"/>
-      <c r="Z54" s="94" t="n"/>
-      <c r="AA54" s="93" t="n"/>
-      <c r="AL54" s="94" t="n"/>
-      <c r="AM54" s="93" t="n"/>
-      <c r="AX54" s="94" t="n"/>
+      <c r="D54" s="79" t="n"/>
+      <c r="O54" s="80" t="n"/>
+      <c r="P54" s="79" t="n"/>
+      <c r="AA54" s="80" t="n"/>
+      <c r="AB54" s="79" t="n"/>
+      <c r="AM54" s="80" t="n"/>
+      <c r="AN54" s="79" t="n"/>
+      <c r="AY54" s="80" t="n"/>
     </row>
     <row r="55">
-      <c r="C55" s="93" t="n"/>
-      <c r="N55" s="94" t="n"/>
-      <c r="O55" s="93" t="n"/>
-      <c r="Z55" s="94" t="n"/>
-      <c r="AA55" s="93" t="n"/>
-      <c r="AL55" s="94" t="n"/>
-      <c r="AM55" s="93" t="n"/>
-      <c r="AX55" s="94" t="n"/>
+      <c r="D55" s="79" t="n"/>
+      <c r="O55" s="80" t="n"/>
+      <c r="P55" s="79" t="n"/>
+      <c r="AA55" s="80" t="n"/>
+      <c r="AB55" s="79" t="n"/>
+      <c r="AM55" s="80" t="n"/>
+      <c r="AN55" s="79" t="n"/>
+      <c r="AY55" s="80" t="n"/>
     </row>
     <row r="56">
-      <c r="C56" s="93" t="n"/>
-      <c r="N56" s="94" t="n"/>
-      <c r="O56" s="93" t="n"/>
-      <c r="Z56" s="94" t="n"/>
-      <c r="AA56" s="93" t="n"/>
-      <c r="AL56" s="94" t="n"/>
-      <c r="AM56" s="93" t="n"/>
-      <c r="AX56" s="94" t="n"/>
+      <c r="D56" s="79" t="n"/>
+      <c r="O56" s="80" t="n"/>
+      <c r="P56" s="79" t="n"/>
+      <c r="AA56" s="80" t="n"/>
+      <c r="AB56" s="79" t="n"/>
+      <c r="AM56" s="80" t="n"/>
+      <c r="AN56" s="79" t="n"/>
+      <c r="AY56" s="80" t="n"/>
     </row>
     <row r="57">
-      <c r="C57" s="93" t="n"/>
-      <c r="N57" s="94" t="n"/>
-      <c r="O57" s="93" t="n"/>
-      <c r="Z57" s="94" t="n"/>
-      <c r="AA57" s="93" t="n"/>
-      <c r="AL57" s="94" t="n"/>
-      <c r="AM57" s="93" t="n"/>
-      <c r="AX57" s="94" t="n"/>
+      <c r="D57" s="79" t="n"/>
+      <c r="O57" s="80" t="n"/>
+      <c r="P57" s="79" t="n"/>
+      <c r="AA57" s="80" t="n"/>
+      <c r="AB57" s="79" t="n"/>
+      <c r="AM57" s="80" t="n"/>
+      <c r="AN57" s="79" t="n"/>
+      <c r="AY57" s="80" t="n"/>
     </row>
     <row r="58">
-      <c r="C58" s="93" t="n"/>
-      <c r="N58" s="94" t="n"/>
-      <c r="O58" s="93" t="n"/>
-      <c r="Z58" s="94" t="n"/>
-      <c r="AA58" s="93" t="n"/>
-      <c r="AL58" s="94" t="n"/>
-      <c r="AM58" s="93" t="n"/>
-      <c r="AX58" s="94" t="n"/>
+      <c r="D58" s="79" t="n"/>
+      <c r="O58" s="80" t="n"/>
+      <c r="P58" s="79" t="n"/>
+      <c r="AA58" s="80" t="n"/>
+      <c r="AB58" s="79" t="n"/>
+      <c r="AM58" s="80" t="n"/>
+      <c r="AN58" s="79" t="n"/>
+      <c r="AY58" s="80" t="n"/>
     </row>
     <row r="59">
-      <c r="C59" s="93" t="n"/>
-      <c r="N59" s="94" t="n"/>
-      <c r="O59" s="93" t="n"/>
-      <c r="Z59" s="94" t="n"/>
-      <c r="AA59" s="93" t="n"/>
-      <c r="AL59" s="94" t="n"/>
-      <c r="AM59" s="93" t="n"/>
-      <c r="AX59" s="94" t="n"/>
+      <c r="D59" s="79" t="n"/>
+      <c r="O59" s="80" t="n"/>
+      <c r="P59" s="79" t="n"/>
+      <c r="AA59" s="80" t="n"/>
+      <c r="AB59" s="79" t="n"/>
+      <c r="AM59" s="80" t="n"/>
+      <c r="AN59" s="79" t="n"/>
+      <c r="AY59" s="80" t="n"/>
     </row>
     <row r="60">
-      <c r="C60" s="93" t="n"/>
-      <c r="N60" s="94" t="n"/>
-      <c r="O60" s="93" t="n"/>
-      <c r="Z60" s="94" t="n"/>
-      <c r="AA60" s="93" t="n"/>
-      <c r="AL60" s="94" t="n"/>
-      <c r="AM60" s="93" t="n"/>
-      <c r="AX60" s="94" t="n"/>
+      <c r="D60" s="79" t="n"/>
+      <c r="O60" s="80" t="n"/>
+      <c r="P60" s="79" t="n"/>
+      <c r="AA60" s="80" t="n"/>
+      <c r="AB60" s="79" t="n"/>
+      <c r="AM60" s="80" t="n"/>
+      <c r="AN60" s="79" t="n"/>
+      <c r="AY60" s="80" t="n"/>
     </row>
     <row r="61">
-      <c r="C61" s="93" t="n"/>
-      <c r="N61" s="94" t="n"/>
-      <c r="O61" s="93" t="n"/>
-      <c r="Z61" s="94" t="n"/>
-      <c r="AA61" s="93" t="n"/>
-      <c r="AL61" s="94" t="n"/>
-      <c r="AM61" s="93" t="n"/>
-      <c r="AX61" s="94" t="n"/>
+      <c r="D61" s="79" t="n"/>
+      <c r="O61" s="80" t="n"/>
+      <c r="P61" s="79" t="n"/>
+      <c r="AA61" s="80" t="n"/>
+      <c r="AB61" s="79" t="n"/>
+      <c r="AM61" s="80" t="n"/>
+      <c r="AN61" s="79" t="n"/>
+      <c r="AY61" s="80" t="n"/>
     </row>
     <row r="62">
-      <c r="C62" s="93" t="n"/>
-      <c r="N62" s="94" t="n"/>
-      <c r="O62" s="93" t="n"/>
-      <c r="Z62" s="94" t="n"/>
-      <c r="AA62" s="93" t="n"/>
-      <c r="AL62" s="94" t="n"/>
-      <c r="AM62" s="93" t="n"/>
-      <c r="AX62" s="94" t="n"/>
+      <c r="D62" s="79" t="n"/>
+      <c r="O62" s="80" t="n"/>
+      <c r="P62" s="79" t="n"/>
+      <c r="AA62" s="80" t="n"/>
+      <c r="AB62" s="79" t="n"/>
+      <c r="AM62" s="80" t="n"/>
+      <c r="AN62" s="79" t="n"/>
+      <c r="AY62" s="80" t="n"/>
     </row>
     <row r="63">
-      <c r="C63" s="93" t="n"/>
-      <c r="N63" s="94" t="n"/>
-      <c r="O63" s="93" t="n"/>
-      <c r="Z63" s="94" t="n"/>
-      <c r="AA63" s="93" t="n"/>
-      <c r="AL63" s="94" t="n"/>
-      <c r="AM63" s="93" t="n"/>
-      <c r="AX63" s="94" t="n"/>
+      <c r="D63" s="79" t="n"/>
+      <c r="O63" s="80" t="n"/>
+      <c r="P63" s="79" t="n"/>
+      <c r="AA63" s="80" t="n"/>
+      <c r="AB63" s="79" t="n"/>
+      <c r="AM63" s="80" t="n"/>
+      <c r="AN63" s="79" t="n"/>
+      <c r="AY63" s="80" t="n"/>
     </row>
     <row r="64">
-      <c r="C64" s="93" t="n"/>
-      <c r="N64" s="94" t="n"/>
-      <c r="O64" s="93" t="n"/>
-      <c r="Z64" s="94" t="n"/>
-      <c r="AA64" s="93" t="n"/>
-      <c r="AL64" s="94" t="n"/>
-      <c r="AM64" s="93" t="n"/>
-      <c r="AX64" s="94" t="n"/>
+      <c r="D64" s="79" t="n"/>
+      <c r="O64" s="80" t="n"/>
+      <c r="P64" s="79" t="n"/>
+      <c r="AA64" s="80" t="n"/>
+      <c r="AB64" s="79" t="n"/>
+      <c r="AM64" s="80" t="n"/>
+      <c r="AN64" s="79" t="n"/>
+      <c r="AY64" s="80" t="n"/>
     </row>
     <row r="65">
-      <c r="C65" s="93" t="n"/>
-      <c r="N65" s="94" t="n"/>
-      <c r="O65" s="93" t="n"/>
-      <c r="Z65" s="94" t="n"/>
-      <c r="AA65" s="93" t="n"/>
-      <c r="AL65" s="94" t="n"/>
-      <c r="AM65" s="93" t="n"/>
-      <c r="AX65" s="94" t="n"/>
+      <c r="D65" s="79" t="n"/>
+      <c r="O65" s="80" t="n"/>
+      <c r="P65" s="79" t="n"/>
+      <c r="AA65" s="80" t="n"/>
+      <c r="AB65" s="79" t="n"/>
+      <c r="AM65" s="80" t="n"/>
+      <c r="AN65" s="79" t="n"/>
+      <c r="AY65" s="80" t="n"/>
     </row>
     <row r="66">
-      <c r="C66" s="93" t="n"/>
-      <c r="N66" s="94" t="n"/>
-      <c r="O66" s="93" t="n"/>
-      <c r="Z66" s="94" t="n"/>
-      <c r="AA66" s="93" t="n"/>
-      <c r="AL66" s="94" t="n"/>
-      <c r="AM66" s="93" t="n"/>
-      <c r="AX66" s="94" t="n"/>
+      <c r="D66" s="79" t="n"/>
+      <c r="O66" s="80" t="n"/>
+      <c r="P66" s="79" t="n"/>
+      <c r="AA66" s="80" t="n"/>
+      <c r="AB66" s="79" t="n"/>
+      <c r="AM66" s="80" t="n"/>
+      <c r="AN66" s="79" t="n"/>
+      <c r="AY66" s="80" t="n"/>
     </row>
     <row r="67">
-      <c r="C67" s="93" t="n"/>
-      <c r="N67" s="94" t="n"/>
-      <c r="O67" s="93" t="n"/>
-      <c r="Z67" s="94" t="n"/>
-      <c r="AA67" s="93" t="n"/>
-      <c r="AL67" s="94" t="n"/>
-      <c r="AM67" s="93" t="n"/>
-      <c r="AX67" s="94" t="n"/>
+      <c r="D67" s="79" t="n"/>
+      <c r="O67" s="80" t="n"/>
+      <c r="P67" s="79" t="n"/>
+      <c r="AA67" s="80" t="n"/>
+      <c r="AB67" s="79" t="n"/>
+      <c r="AM67" s="80" t="n"/>
+      <c r="AN67" s="79" t="n"/>
+      <c r="AY67" s="80" t="n"/>
     </row>
     <row r="68">
-      <c r="C68" s="93" t="n"/>
-      <c r="N68" s="94" t="n"/>
-      <c r="O68" s="93" t="n"/>
-      <c r="Z68" s="94" t="n"/>
-      <c r="AA68" s="93" t="n"/>
-      <c r="AL68" s="94" t="n"/>
-      <c r="AM68" s="93" t="n"/>
-      <c r="AX68" s="94" t="n"/>
+      <c r="D68" s="79" t="n"/>
+      <c r="O68" s="80" t="n"/>
+      <c r="P68" s="79" t="n"/>
+      <c r="AA68" s="80" t="n"/>
+      <c r="AB68" s="79" t="n"/>
+      <c r="AM68" s="80" t="n"/>
+      <c r="AN68" s="79" t="n"/>
+      <c r="AY68" s="80" t="n"/>
     </row>
     <row r="69">
-      <c r="C69" s="93" t="n"/>
-      <c r="N69" s="94" t="n"/>
-      <c r="O69" s="93" t="n"/>
-      <c r="Z69" s="94" t="n"/>
-      <c r="AA69" s="93" t="n"/>
-      <c r="AL69" s="94" t="n"/>
-      <c r="AM69" s="93" t="n"/>
-      <c r="AX69" s="94" t="n"/>
+      <c r="D69" s="79" t="n"/>
+      <c r="O69" s="80" t="n"/>
+      <c r="P69" s="79" t="n"/>
+      <c r="AA69" s="80" t="n"/>
+      <c r="AB69" s="79" t="n"/>
+      <c r="AM69" s="80" t="n"/>
+      <c r="AN69" s="79" t="n"/>
+      <c r="AY69" s="80" t="n"/>
     </row>
     <row r="70">
-      <c r="C70" s="93" t="n"/>
-      <c r="N70" s="94" t="n"/>
-      <c r="O70" s="93" t="n"/>
-      <c r="Z70" s="94" t="n"/>
-      <c r="AA70" s="93" t="n"/>
-      <c r="AL70" s="94" t="n"/>
-      <c r="AM70" s="93" t="n"/>
-      <c r="AX70" s="94" t="n"/>
+      <c r="D70" s="79" t="n"/>
+      <c r="O70" s="80" t="n"/>
+      <c r="P70" s="79" t="n"/>
+      <c r="AA70" s="80" t="n"/>
+      <c r="AB70" s="79" t="n"/>
+      <c r="AM70" s="80" t="n"/>
+      <c r="AN70" s="79" t="n"/>
+      <c r="AY70" s="80" t="n"/>
     </row>
     <row r="71">
-      <c r="C71" s="93" t="n"/>
-      <c r="N71" s="94" t="n"/>
-      <c r="O71" s="93" t="n"/>
-      <c r="Z71" s="94" t="n"/>
-      <c r="AA71" s="93" t="n"/>
-      <c r="AL71" s="94" t="n"/>
-      <c r="AM71" s="93" t="n"/>
-      <c r="AX71" s="94" t="n"/>
+      <c r="D71" s="79" t="n"/>
+      <c r="O71" s="80" t="n"/>
+      <c r="P71" s="79" t="n"/>
+      <c r="AA71" s="80" t="n"/>
+      <c r="AB71" s="79" t="n"/>
+      <c r="AM71" s="80" t="n"/>
+      <c r="AN71" s="79" t="n"/>
+      <c r="AY71" s="80" t="n"/>
     </row>
     <row r="72">
-      <c r="C72" s="93" t="n"/>
-      <c r="N72" s="94" t="n"/>
-      <c r="O72" s="93" t="n"/>
-      <c r="Z72" s="94" t="n"/>
-      <c r="AA72" s="93" t="n"/>
-      <c r="AL72" s="94" t="n"/>
-      <c r="AM72" s="93" t="n"/>
-      <c r="AX72" s="94" t="n"/>
+      <c r="D72" s="79" t="n"/>
+      <c r="O72" s="80" t="n"/>
+      <c r="P72" s="79" t="n"/>
+      <c r="AA72" s="80" t="n"/>
+      <c r="AB72" s="79" t="n"/>
+      <c r="AM72" s="80" t="n"/>
+      <c r="AN72" s="79" t="n"/>
+      <c r="AY72" s="80" t="n"/>
     </row>
     <row r="73">
-      <c r="C73" s="93" t="n"/>
-      <c r="N73" s="94" t="n"/>
-      <c r="O73" s="93" t="n"/>
-      <c r="Z73" s="94" t="n"/>
-      <c r="AA73" s="93" t="n"/>
-      <c r="AL73" s="94" t="n"/>
-      <c r="AM73" s="93" t="n"/>
-      <c r="AX73" s="94" t="n"/>
+      <c r="D73" s="79" t="n"/>
+      <c r="O73" s="80" t="n"/>
+      <c r="P73" s="79" t="n"/>
+      <c r="AA73" s="80" t="n"/>
+      <c r="AB73" s="79" t="n"/>
+      <c r="AM73" s="80" t="n"/>
+      <c r="AN73" s="79" t="n"/>
+      <c r="AY73" s="80" t="n"/>
     </row>
     <row r="74">
-      <c r="C74" s="93" t="n"/>
-      <c r="N74" s="94" t="n"/>
-      <c r="O74" s="93" t="n"/>
-      <c r="Z74" s="94" t="n"/>
-      <c r="AA74" s="93" t="n"/>
-      <c r="AL74" s="94" t="n"/>
-      <c r="AM74" s="93" t="n"/>
-      <c r="AX74" s="94" t="n"/>
+      <c r="D74" s="79" t="n"/>
+      <c r="O74" s="80" t="n"/>
+      <c r="P74" s="79" t="n"/>
+      <c r="AA74" s="80" t="n"/>
+      <c r="AB74" s="79" t="n"/>
+      <c r="AM74" s="80" t="n"/>
+      <c r="AN74" s="79" t="n"/>
+      <c r="AY74" s="80" t="n"/>
     </row>
     <row r="75">
-      <c r="C75" s="93" t="n"/>
-      <c r="N75" s="94" t="n"/>
-      <c r="O75" s="93" t="n"/>
-      <c r="Z75" s="94" t="n"/>
-      <c r="AA75" s="93" t="n"/>
-      <c r="AL75" s="94" t="n"/>
-      <c r="AM75" s="93" t="n"/>
-      <c r="AX75" s="94" t="n"/>
+      <c r="D75" s="79" t="n"/>
+      <c r="O75" s="80" t="n"/>
+      <c r="P75" s="79" t="n"/>
+      <c r="AA75" s="80" t="n"/>
+      <c r="AB75" s="79" t="n"/>
+      <c r="AM75" s="80" t="n"/>
+      <c r="AN75" s="79" t="n"/>
+      <c r="AY75" s="80" t="n"/>
     </row>
     <row r="76">
-      <c r="C76" s="93" t="n"/>
-      <c r="N76" s="94" t="n"/>
-      <c r="O76" s="93" t="n"/>
-      <c r="Z76" s="94" t="n"/>
-      <c r="AA76" s="93" t="n"/>
-      <c r="AL76" s="94" t="n"/>
-      <c r="AM76" s="93" t="n"/>
-      <c r="AX76" s="94" t="n"/>
+      <c r="D76" s="79" t="n"/>
+      <c r="O76" s="80" t="n"/>
+      <c r="P76" s="79" t="n"/>
+      <c r="AA76" s="80" t="n"/>
+      <c r="AB76" s="79" t="n"/>
+      <c r="AM76" s="80" t="n"/>
+      <c r="AN76" s="79" t="n"/>
+      <c r="AY76" s="80" t="n"/>
     </row>
     <row r="77">
-      <c r="C77" s="93" t="n"/>
-      <c r="N77" s="94" t="n"/>
-      <c r="O77" s="93" t="n"/>
-      <c r="Z77" s="94" t="n"/>
-      <c r="AA77" s="93" t="n"/>
-      <c r="AL77" s="94" t="n"/>
-      <c r="AM77" s="93" t="n"/>
-      <c r="AX77" s="94" t="n"/>
+      <c r="D77" s="79" t="n"/>
+      <c r="O77" s="80" t="n"/>
+      <c r="P77" s="79" t="n"/>
+      <c r="AA77" s="80" t="n"/>
+      <c r="AB77" s="79" t="n"/>
+      <c r="AM77" s="80" t="n"/>
+      <c r="AN77" s="79" t="n"/>
+      <c r="AY77" s="80" t="n"/>
     </row>
     <row r="78">
-      <c r="C78" s="93" t="n"/>
-      <c r="N78" s="94" t="n"/>
-      <c r="O78" s="93" t="n"/>
-      <c r="Z78" s="94" t="n"/>
-      <c r="AA78" s="93" t="n"/>
-      <c r="AL78" s="94" t="n"/>
-      <c r="AM78" s="93" t="n"/>
-      <c r="AX78" s="94" t="n"/>
+      <c r="D78" s="79" t="n"/>
+      <c r="O78" s="80" t="n"/>
+      <c r="P78" s="79" t="n"/>
+      <c r="AA78" s="80" t="n"/>
+      <c r="AB78" s="79" t="n"/>
+      <c r="AM78" s="80" t="n"/>
+      <c r="AN78" s="79" t="n"/>
+      <c r="AY78" s="80" t="n"/>
     </row>
     <row r="79">
-      <c r="C79" s="93" t="n"/>
-      <c r="N79" s="94" t="n"/>
-      <c r="O79" s="93" t="n"/>
-      <c r="Z79" s="94" t="n"/>
-      <c r="AA79" s="93" t="n"/>
-      <c r="AL79" s="94" t="n"/>
-      <c r="AM79" s="93" t="n"/>
-      <c r="AX79" s="94" t="n"/>
+      <c r="D79" s="79" t="n"/>
+      <c r="O79" s="80" t="n"/>
+      <c r="P79" s="79" t="n"/>
+      <c r="AA79" s="80" t="n"/>
+      <c r="AB79" s="79" t="n"/>
+      <c r="AM79" s="80" t="n"/>
+      <c r="AN79" s="79" t="n"/>
+      <c r="AY79" s="80" t="n"/>
     </row>
     <row r="80">
-      <c r="C80" s="93" t="n"/>
-      <c r="N80" s="94" t="n"/>
-      <c r="O80" s="93" t="n"/>
-      <c r="Z80" s="94" t="n"/>
-      <c r="AA80" s="93" t="n"/>
-      <c r="AL80" s="94" t="n"/>
-      <c r="AM80" s="93" t="n"/>
-      <c r="AX80" s="94" t="n"/>
+      <c r="D80" s="79" t="n"/>
+      <c r="O80" s="80" t="n"/>
+      <c r="P80" s="79" t="n"/>
+      <c r="AA80" s="80" t="n"/>
+      <c r="AB80" s="79" t="n"/>
+      <c r="AM80" s="80" t="n"/>
+      <c r="AN80" s="79" t="n"/>
+      <c r="AY80" s="80" t="n"/>
     </row>
     <row r="81">
-      <c r="C81" s="93" t="n"/>
-      <c r="N81" s="94" t="n"/>
-      <c r="O81" s="93" t="n"/>
-      <c r="Z81" s="94" t="n"/>
-      <c r="AA81" s="93" t="n"/>
-      <c r="AL81" s="94" t="n"/>
-      <c r="AM81" s="93" t="n"/>
-      <c r="AX81" s="94" t="n"/>
+      <c r="D81" s="79" t="n"/>
+      <c r="O81" s="80" t="n"/>
+      <c r="P81" s="79" t="n"/>
+      <c r="AA81" s="80" t="n"/>
+      <c r="AB81" s="79" t="n"/>
+      <c r="AM81" s="80" t="n"/>
+      <c r="AN81" s="79" t="n"/>
+      <c r="AY81" s="80" t="n"/>
     </row>
     <row r="82">
-      <c r="C82" s="93" t="n"/>
-      <c r="N82" s="94" t="n"/>
-      <c r="O82" s="93" t="n"/>
-      <c r="Z82" s="94" t="n"/>
-      <c r="AA82" s="93" t="n"/>
-      <c r="AL82" s="94" t="n"/>
-      <c r="AM82" s="93" t="n"/>
-      <c r="AX82" s="94" t="n"/>
+      <c r="D82" s="79" t="n"/>
+      <c r="O82" s="80" t="n"/>
+      <c r="P82" s="79" t="n"/>
+      <c r="AA82" s="80" t="n"/>
+      <c r="AB82" s="79" t="n"/>
+      <c r="AM82" s="80" t="n"/>
+      <c r="AN82" s="79" t="n"/>
+      <c r="AY82" s="80" t="n"/>
     </row>
     <row r="83">
-      <c r="C83" s="93" t="n"/>
-      <c r="N83" s="94" t="n"/>
-      <c r="O83" s="93" t="n"/>
-      <c r="Z83" s="94" t="n"/>
-      <c r="AA83" s="93" t="n"/>
-      <c r="AL83" s="94" t="n"/>
-      <c r="AM83" s="93" t="n"/>
-      <c r="AX83" s="94" t="n"/>
+      <c r="D83" s="79" t="n"/>
+      <c r="O83" s="80" t="n"/>
+      <c r="P83" s="79" t="n"/>
+      <c r="AA83" s="80" t="n"/>
+      <c r="AB83" s="79" t="n"/>
+      <c r="AM83" s="80" t="n"/>
+      <c r="AN83" s="79" t="n"/>
+      <c r="AY83" s="80" t="n"/>
     </row>
     <row r="84">
-      <c r="C84" s="93" t="n"/>
-      <c r="N84" s="94" t="n"/>
-      <c r="O84" s="93" t="n"/>
-      <c r="Z84" s="94" t="n"/>
-      <c r="AA84" s="93" t="n"/>
-      <c r="AL84" s="94" t="n"/>
-      <c r="AM84" s="93" t="n"/>
-      <c r="AX84" s="94" t="n"/>
+      <c r="D84" s="79" t="n"/>
+      <c r="O84" s="80" t="n"/>
+      <c r="P84" s="79" t="n"/>
+      <c r="AA84" s="80" t="n"/>
+      <c r="AB84" s="79" t="n"/>
+      <c r="AM84" s="80" t="n"/>
+      <c r="AN84" s="79" t="n"/>
+      <c r="AY84" s="80" t="n"/>
     </row>
     <row r="85">
-      <c r="C85" s="93" t="n"/>
-      <c r="N85" s="94" t="n"/>
-      <c r="O85" s="93" t="n"/>
-      <c r="Z85" s="94" t="n"/>
-      <c r="AA85" s="93" t="n"/>
-      <c r="AL85" s="94" t="n"/>
-      <c r="AM85" s="93" t="n"/>
-      <c r="AX85" s="94" t="n"/>
+      <c r="D85" s="79" t="n"/>
+      <c r="O85" s="80" t="n"/>
+      <c r="P85" s="79" t="n"/>
+      <c r="AA85" s="80" t="n"/>
+      <c r="AB85" s="79" t="n"/>
+      <c r="AM85" s="80" t="n"/>
+      <c r="AN85" s="79" t="n"/>
+      <c r="AY85" s="80" t="n"/>
     </row>
     <row r="86">
-      <c r="C86" s="93" t="n"/>
-      <c r="N86" s="94" t="n"/>
-      <c r="O86" s="93" t="n"/>
-      <c r="Z86" s="94" t="n"/>
-      <c r="AA86" s="93" t="n"/>
-      <c r="AL86" s="94" t="n"/>
-      <c r="AM86" s="93" t="n"/>
-      <c r="AX86" s="94" t="n"/>
+      <c r="D86" s="79" t="n"/>
+      <c r="O86" s="80" t="n"/>
+      <c r="P86" s="79" t="n"/>
+      <c r="AA86" s="80" t="n"/>
+      <c r="AB86" s="79" t="n"/>
+      <c r="AM86" s="80" t="n"/>
+      <c r="AN86" s="79" t="n"/>
+      <c r="AY86" s="80" t="n"/>
     </row>
     <row r="87">
-      <c r="C87" s="93" t="n"/>
-      <c r="N87" s="94" t="n"/>
-      <c r="O87" s="93" t="n"/>
-      <c r="Z87" s="94" t="n"/>
-      <c r="AA87" s="93" t="n"/>
-      <c r="AL87" s="94" t="n"/>
-      <c r="AM87" s="93" t="n"/>
-      <c r="AX87" s="94" t="n"/>
+      <c r="D87" s="79" t="n"/>
+      <c r="O87" s="80" t="n"/>
+      <c r="P87" s="79" t="n"/>
+      <c r="AA87" s="80" t="n"/>
+      <c r="AB87" s="79" t="n"/>
+      <c r="AM87" s="80" t="n"/>
+      <c r="AN87" s="79" t="n"/>
+      <c r="AY87" s="80" t="n"/>
     </row>
     <row r="88">
-      <c r="C88" s="93" t="n"/>
-      <c r="N88" s="94" t="n"/>
-      <c r="O88" s="93" t="n"/>
-      <c r="Z88" s="94" t="n"/>
-      <c r="AA88" s="93" t="n"/>
-      <c r="AL88" s="94" t="n"/>
-      <c r="AM88" s="93" t="n"/>
-      <c r="AX88" s="94" t="n"/>
+      <c r="D88" s="79" t="n"/>
+      <c r="O88" s="80" t="n"/>
+      <c r="P88" s="79" t="n"/>
+      <c r="AA88" s="80" t="n"/>
+      <c r="AB88" s="79" t="n"/>
+      <c r="AM88" s="80" t="n"/>
+      <c r="AN88" s="79" t="n"/>
+      <c r="AY88" s="80" t="n"/>
     </row>
     <row r="89">
-      <c r="C89" s="93" t="n"/>
-      <c r="N89" s="94" t="n"/>
-      <c r="O89" s="93" t="n"/>
-      <c r="Z89" s="94" t="n"/>
-      <c r="AA89" s="93" t="n"/>
-      <c r="AL89" s="94" t="n"/>
-      <c r="AM89" s="93" t="n"/>
-      <c r="AX89" s="94" t="n"/>
+      <c r="D89" s="79" t="n"/>
+      <c r="O89" s="80" t="n"/>
+      <c r="P89" s="79" t="n"/>
+      <c r="AA89" s="80" t="n"/>
+      <c r="AB89" s="79" t="n"/>
+      <c r="AM89" s="80" t="n"/>
+      <c r="AN89" s="79" t="n"/>
+      <c r="AY89" s="80" t="n"/>
     </row>
     <row r="90">
-      <c r="C90" s="93" t="n"/>
-      <c r="N90" s="94" t="n"/>
-      <c r="O90" s="93" t="n"/>
-      <c r="Z90" s="94" t="n"/>
-      <c r="AA90" s="93" t="n"/>
-      <c r="AL90" s="94" t="n"/>
-      <c r="AM90" s="93" t="n"/>
-      <c r="AX90" s="94" t="n"/>
+      <c r="D90" s="79" t="n"/>
+      <c r="O90" s="80" t="n"/>
+      <c r="P90" s="79" t="n"/>
+      <c r="AA90" s="80" t="n"/>
+      <c r="AB90" s="79" t="n"/>
+      <c r="AM90" s="80" t="n"/>
+      <c r="AN90" s="79" t="n"/>
+      <c r="AY90" s="80" t="n"/>
     </row>
     <row r="91">
-      <c r="C91" s="93" t="n"/>
-      <c r="N91" s="94" t="n"/>
-      <c r="O91" s="93" t="n"/>
-      <c r="Z91" s="94" t="n"/>
-      <c r="AA91" s="93" t="n"/>
-      <c r="AL91" s="94" t="n"/>
-      <c r="AM91" s="93" t="n"/>
-      <c r="AX91" s="94" t="n"/>
+      <c r="D91" s="79" t="n"/>
+      <c r="O91" s="80" t="n"/>
+      <c r="P91" s="79" t="n"/>
+      <c r="AA91" s="80" t="n"/>
+      <c r="AB91" s="79" t="n"/>
+      <c r="AM91" s="80" t="n"/>
+      <c r="AN91" s="79" t="n"/>
+      <c r="AY91" s="80" t="n"/>
     </row>
     <row r="92">
-      <c r="C92" s="93" t="n"/>
-      <c r="N92" s="94" t="n"/>
-      <c r="O92" s="93" t="n"/>
-      <c r="Z92" s="94" t="n"/>
-      <c r="AA92" s="93" t="n"/>
-      <c r="AL92" s="94" t="n"/>
-      <c r="AM92" s="93" t="n"/>
-      <c r="AX92" s="94" t="n"/>
+      <c r="D92" s="79" t="n"/>
+      <c r="O92" s="80" t="n"/>
+      <c r="P92" s="79" t="n"/>
+      <c r="AA92" s="80" t="n"/>
+      <c r="AB92" s="79" t="n"/>
+      <c r="AM92" s="80" t="n"/>
+      <c r="AN92" s="79" t="n"/>
+      <c r="AY92" s="80" t="n"/>
     </row>
     <row r="93">
-      <c r="C93" s="93" t="n"/>
-      <c r="N93" s="94" t="n"/>
-      <c r="O93" s="93" t="n"/>
-      <c r="Z93" s="94" t="n"/>
-      <c r="AA93" s="93" t="n"/>
-      <c r="AL93" s="94" t="n"/>
-      <c r="AM93" s="93" t="n"/>
-      <c r="AX93" s="94" t="n"/>
+      <c r="D93" s="79" t="n"/>
+      <c r="O93" s="80" t="n"/>
+      <c r="P93" s="79" t="n"/>
+      <c r="AA93" s="80" t="n"/>
+      <c r="AB93" s="79" t="n"/>
+      <c r="AM93" s="80" t="n"/>
+      <c r="AN93" s="79" t="n"/>
+      <c r="AY93" s="80" t="n"/>
     </row>
     <row r="94">
-      <c r="C94" s="93" t="n"/>
-      <c r="N94" s="94" t="n"/>
-      <c r="O94" s="93" t="n"/>
-      <c r="Z94" s="94" t="n"/>
-      <c r="AA94" s="93" t="n"/>
-      <c r="AL94" s="94" t="n"/>
-      <c r="AM94" s="93" t="n"/>
-      <c r="AX94" s="94" t="n"/>
+      <c r="D94" s="79" t="n"/>
+      <c r="O94" s="80" t="n"/>
+      <c r="P94" s="79" t="n"/>
+      <c r="AA94" s="80" t="n"/>
+      <c r="AB94" s="79" t="n"/>
+      <c r="AM94" s="80" t="n"/>
+      <c r="AN94" s="79" t="n"/>
+      <c r="AY94" s="80" t="n"/>
     </row>
     <row r="95">
-      <c r="C95" s="93" t="n"/>
-      <c r="N95" s="94" t="n"/>
-      <c r="O95" s="93" t="n"/>
-      <c r="Z95" s="94" t="n"/>
-      <c r="AA95" s="93" t="n"/>
-      <c r="AL95" s="94" t="n"/>
-      <c r="AM95" s="93" t="n"/>
-      <c r="AX95" s="94" t="n"/>
+      <c r="D95" s="79" t="n"/>
+      <c r="O95" s="80" t="n"/>
+      <c r="P95" s="79" t="n"/>
+      <c r="AA95" s="80" t="n"/>
+      <c r="AB95" s="79" t="n"/>
+      <c r="AM95" s="80" t="n"/>
+      <c r="AN95" s="79" t="n"/>
+      <c r="AY95" s="80" t="n"/>
     </row>
     <row r="96">
-      <c r="C96" s="93" t="n"/>
-      <c r="N96" s="94" t="n"/>
-      <c r="O96" s="93" t="n"/>
-      <c r="Z96" s="94" t="n"/>
-      <c r="AA96" s="93" t="n"/>
-      <c r="AL96" s="94" t="n"/>
-      <c r="AM96" s="93" t="n"/>
-      <c r="AX96" s="94" t="n"/>
+      <c r="D96" s="79" t="n"/>
+      <c r="O96" s="80" t="n"/>
+      <c r="P96" s="79" t="n"/>
+      <c r="AA96" s="80" t="n"/>
+      <c r="AB96" s="79" t="n"/>
+      <c r="AM96" s="80" t="n"/>
+      <c r="AN96" s="79" t="n"/>
+      <c r="AY96" s="80" t="n"/>
     </row>
     <row r="97">
-      <c r="C97" s="93" t="n"/>
-      <c r="N97" s="94" t="n"/>
-      <c r="O97" s="93" t="n"/>
-      <c r="Z97" s="94" t="n"/>
-      <c r="AA97" s="93" t="n"/>
-      <c r="AL97" s="94" t="n"/>
-      <c r="AM97" s="93" t="n"/>
-      <c r="AX97" s="94" t="n"/>
+      <c r="D97" s="79" t="n"/>
+      <c r="O97" s="80" t="n"/>
+      <c r="P97" s="79" t="n"/>
+      <c r="AA97" s="80" t="n"/>
+      <c r="AB97" s="79" t="n"/>
+      <c r="AM97" s="80" t="n"/>
+      <c r="AN97" s="79" t="n"/>
+      <c r="AY97" s="80" t="n"/>
     </row>
     <row r="98">
-      <c r="C98" s="93" t="n"/>
-      <c r="N98" s="94" t="n"/>
-      <c r="O98" s="93" t="n"/>
-      <c r="Z98" s="94" t="n"/>
-      <c r="AA98" s="93" t="n"/>
-      <c r="AL98" s="94" t="n"/>
-      <c r="AM98" s="93" t="n"/>
-      <c r="AX98" s="94" t="n"/>
+      <c r="D98" s="79" t="n"/>
+      <c r="O98" s="80" t="n"/>
+      <c r="P98" s="79" t="n"/>
+      <c r="AA98" s="80" t="n"/>
+      <c r="AB98" s="79" t="n"/>
+      <c r="AM98" s="80" t="n"/>
+      <c r="AN98" s="79" t="n"/>
+      <c r="AY98" s="80" t="n"/>
     </row>
     <row r="99">
-      <c r="C99" s="93" t="n"/>
-      <c r="N99" s="94" t="n"/>
-      <c r="O99" s="93" t="n"/>
-      <c r="Z99" s="94" t="n"/>
-      <c r="AA99" s="93" t="n"/>
-      <c r="AL99" s="94" t="n"/>
-      <c r="AM99" s="93" t="n"/>
-      <c r="AX99" s="94" t="n"/>
+      <c r="D99" s="79" t="n"/>
+      <c r="O99" s="80" t="n"/>
+      <c r="P99" s="79" t="n"/>
+      <c r="AA99" s="80" t="n"/>
+      <c r="AB99" s="79" t="n"/>
+      <c r="AM99" s="80" t="n"/>
+      <c r="AN99" s="79" t="n"/>
+      <c r="AY99" s="80" t="n"/>
     </row>
     <row r="100">
-      <c r="C100" s="93" t="n"/>
-      <c r="N100" s="94" t="n"/>
-      <c r="O100" s="93" t="n"/>
-      <c r="Z100" s="94" t="n"/>
-      <c r="AA100" s="93" t="n"/>
-      <c r="AL100" s="94" t="n"/>
-      <c r="AM100" s="93" t="n"/>
-      <c r="AX100" s="94" t="n"/>
+      <c r="D100" s="79" t="n"/>
+      <c r="O100" s="80" t="n"/>
+      <c r="P100" s="79" t="n"/>
+      <c r="AA100" s="80" t="n"/>
+      <c r="AB100" s="79" t="n"/>
+      <c r="AM100" s="80" t="n"/>
+      <c r="AN100" s="79" t="n"/>
+      <c r="AY100" s="80" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="A1:AX1"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AN2:AY2"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="P2:AA2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Lenh_Dieu_Xe.xlsx
+++ b/Lenh_Dieu_Xe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tung\Projects\Project-70m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80549B36-A1B1-481F-89F4-F93BC55F3386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34157D-D59F-4060-B935-B1BD8156D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19022025" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="258">
   <si>
     <t>Mã số: BM 01-QT 01-ĐX
 Ngày hiệu lực:25 – 08 -2022
@@ -44,7 +44,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Khách hàng</t>
+    <t>KHÁCH HÀNG</t>
   </si>
   <si>
     <t>THỂ TÍCH (M3)</t>
@@ -104,13 +104,13 @@
     <t>☑</t>
   </si>
   <si>
-    <t>Thảo Nguyễn</t>
-  </si>
-  <si>
-    <t>214956201795</t>
-  </si>
-  <si>
-    <t>+84 41 0263542</t>
+    <t>Bảo Đức Mai</t>
+  </si>
+  <si>
+    <t>020193455554</t>
+  </si>
+  <si>
+    <t>07 8402 9889</t>
   </si>
   <si>
     <t>5t = 26.7m3</t>
@@ -119,13 +119,13 @@
     <t>T(19:00-&gt;23:00)</t>
   </si>
   <si>
-    <t>Nhật Mai Dương</t>
-  </si>
-  <si>
-    <t>417621500636</t>
-  </si>
-  <si>
-    <t>(01) 8204 4469</t>
+    <t>Quý ông Minh Phạm</t>
+  </si>
+  <si>
+    <t>123008870433</t>
+  </si>
+  <si>
+    <t>+84-76-869 0367</t>
   </si>
   <si>
     <t>7t = 32m3</t>
@@ -134,13 +134,13 @@
     <t>D(00:30-&gt;04:30)</t>
   </si>
   <si>
-    <t>Cô Nhật Nguyễn</t>
-  </si>
-  <si>
-    <t>961832300294</t>
-  </si>
-  <si>
-    <t>(09) 0371 5425</t>
+    <t>Mai Bùi</t>
+  </si>
+  <si>
+    <t>647320872419</t>
+  </si>
+  <si>
+    <t>00 1340 3552</t>
   </si>
   <si>
     <t>9t = 38.2m3</t>
@@ -149,25 +149,25 @@
     <t>Báo sau</t>
   </si>
   <si>
-    <t>Hoàng Trần</t>
-  </si>
-  <si>
-    <t>521512882609</t>
-  </si>
-  <si>
-    <t>+84-66-543333</t>
+    <t>An Bảo Dương</t>
+  </si>
+  <si>
+    <t>486685879909</t>
+  </si>
+  <si>
+    <t>+84-64-255 0409</t>
   </si>
   <si>
     <t>12t = 54m3</t>
   </si>
   <si>
-    <t>Chị Khoa Mai</t>
-  </si>
-  <si>
-    <t>943006405720</t>
-  </si>
-  <si>
-    <t>(07)411-0877</t>
+    <t>Thảo Dương</t>
+  </si>
+  <si>
+    <t>067182973349</t>
+  </si>
+  <si>
+    <t>(02) 5176 7462</t>
   </si>
   <si>
     <t>X1</t>
@@ -719,31 +719,31 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>0611519692</t>
+    <t>0257671614</t>
   </si>
   <si>
     <t>Trần Thị B</t>
   </si>
   <si>
-    <t>0657113779</t>
+    <t>0572707764</t>
   </si>
   <si>
     <t>Lê Văn C</t>
   </si>
   <si>
-    <t>0906427539</t>
+    <t>0425884014</t>
   </si>
   <si>
     <t>Phạm Thị D</t>
   </si>
   <si>
-    <t>0773561436</t>
+    <t>0722297545</t>
   </si>
   <si>
     <t>Hoàng Văn E</t>
   </si>
   <si>
-    <t>0766922762</t>
+    <t>0342388298</t>
   </si>
   <si>
     <t>Thông tin tài xế</t>
@@ -770,34 +770,40 @@
     <t>available</t>
   </si>
   <si>
-    <t>967979358234</t>
-  </si>
-  <si>
-    <t>29A-61011</t>
-  </si>
-  <si>
-    <t>693971104527</t>
-  </si>
-  <si>
-    <t>29A-60263</t>
-  </si>
-  <si>
-    <t>182906085845</t>
-  </si>
-  <si>
-    <t>29A-98438</t>
-  </si>
-  <si>
-    <t>988961206129</t>
-  </si>
-  <si>
-    <t>29A-78746</t>
-  </si>
-  <si>
-    <t>133825532740</t>
-  </si>
-  <si>
-    <t>29A-16302</t>
+    <t>202708715415</t>
+  </si>
+  <si>
+    <t>29A-45860</t>
+  </si>
+  <si>
+    <t>708924147975</t>
+  </si>
+  <si>
+    <t>29A-63224</t>
+  </si>
+  <si>
+    <t>302732700760</t>
+  </si>
+  <si>
+    <t>29A-32125</t>
+  </si>
+  <si>
+    <t>475420041480</t>
+  </si>
+  <si>
+    <t>29A-89692</t>
+  </si>
+  <si>
+    <t>355657867599</t>
+  </si>
+  <si>
+    <t>29A-83249</t>
+  </si>
+  <si>
+    <t>kugsfjlhgusyEFGLUISGDF</t>
+  </si>
+  <si>
+    <t>LHIDHFSLJBGFDIUHUH</t>
   </si>
 </sst>
 </file>
@@ -808,7 +814,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,60 +848,19 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="163"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -907,32 +872,11 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -955,7 +899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1042,48 +986,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1101,102 +1008,56 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1524,17 +1385,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11825"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
@@ -1547,33 +1409,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="45"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1621,20 +1483,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1642,20 +1524,40 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1663,20 +1565,18 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1684,58 +1584,56 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="21"/>
+    <row r="8" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
+    <row r="9" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="22"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1743,18 +1641,18 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1762,73 +1660,73 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="22"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="26"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1836,18 +1734,18 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1855,18 +1753,18 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="14"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1874,18 +1772,18 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1893,18 +1791,18 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="14"/>
+    <row r="19" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1912,18 +1810,18 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="14"/>
+    <row r="20" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1931,18 +1829,18 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="14"/>
+    <row r="21" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1950,18 +1848,18 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="14"/>
+    <row r="22" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1969,18 +1867,18 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="14"/>
+    <row r="23" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1988,18 +1886,18 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="14"/>
+    <row r="24" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2007,18 +1905,18 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="14"/>
+    <row r="25" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2026,18 +1924,18 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="14"/>
+    <row r="26" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2045,18 +1943,18 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="14"/>
+    <row r="27" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -2064,18 +1962,18 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="14"/>
+    <row r="28" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2083,18 +1981,18 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="14"/>
+    <row r="29" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2102,18 +2000,18 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="14"/>
+    <row r="30" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2121,18 +2019,18 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="14"/>
+    <row r="31" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2140,18 +2038,18 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="14"/>
+    <row r="32" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2159,18 +2057,18 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="14"/>
+    <row r="33" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2178,18 +2076,18 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="14"/>
+    <row r="34" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2197,18 +2095,18 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="14"/>
+    <row r="35" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2216,18 +2114,18 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="14"/>
+    <row r="36" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2235,18 +2133,18 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="14"/>
+    <row r="37" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2254,18 +2152,18 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="14"/>
+    <row r="38" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2273,18 +2171,18 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="14"/>
+    <row r="39" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2292,272 +2190,272 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
+    <row r="40" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="22"/>
+    <row r="41" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="14"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="36"/>
+    <row r="43" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="21"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="35"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="12"/>
       <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="7"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="18"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
+    <row r="46" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="7"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="18"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="10"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="8"/>
       <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="7"/>
+    <row r="52" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="18"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" spans="1:17" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="22"/>
+    <row r="53" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="14"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="14"/>
+    <row r="54" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="11"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2565,19 +2463,19 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="40"/>
+    <row r="55" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="12"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="24"/>
     </row>
     <row r="11825" spans="17:17" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q11825" s="3">
@@ -2591,17 +2489,20 @@
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="E5:E55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"S(08:00-&gt;12:00),C(13:30-&gt;17:30),T(19:00-&gt;23:00),D(00:30-&gt;04:30),Báo sau"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I5:I55 J5:J55 K5:K55" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"☐,☑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"Thảo Nguyễn,Nhật Mai Dương,Cô Nhật Nguyễn,Hoàng Trần,Chị Khoa Mai"</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="G5:G55" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"X1,X4,VAC,X5,X6,X7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Bảo Đức Mai,Quý ông Minh Phạm,Mai Bùi,An Bảo Dương,Thảo Dương"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"1.4t = 9.7m3,3.5t = 24.2m3,5t = 26.7m3,7t = 32m3,9t = 38.2m3,12t = 54m3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2635,16 +2536,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="F1" s="41" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="F1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AA1" s="25" t="s">
         <v>16</v>
       </c>
       <c r="AB1" t="s">
@@ -2664,10 +2565,10 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="25" t="s">
         <v>22</v>
       </c>
       <c r="AB2" t="s">
@@ -2687,10 +2588,10 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2707,10 +2608,10 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="41" t="s">
+      <c r="AA4" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2727,10 +2628,10 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2747,7 +2648,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2777,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3450,59 +3351,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3514,62 +3415,62 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53" t="s">
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53" t="s">
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="53"/>
-      <c r="AY2" s="53"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3581,14 +3482,14 @@
       <c r="C3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="42"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="42"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="42"/>
-      <c r="AY3" s="43"/>
+      <c r="D3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="26"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="26"/>
+      <c r="AY3" s="27"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3600,14 +3501,14 @@
       <c r="C4" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="42"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="42"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="42"/>
-      <c r="AY4" s="43"/>
+      <c r="D4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="26"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="26"/>
+      <c r="AY4" s="27"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3619,14 +3520,14 @@
       <c r="C5" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="42"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="42"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="42"/>
-      <c r="AY5" s="43"/>
+      <c r="D5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="26"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="26"/>
+      <c r="AY5" s="27"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3638,14 +3539,14 @@
       <c r="C6" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="42"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="42"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="42"/>
-      <c r="AY6" s="43"/>
+      <c r="D6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="26"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="26"/>
+      <c r="AY6" s="27"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3657,944 +3558,944 @@
       <c r="C7" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="42"/>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="42"/>
-      <c r="AY7" s="43"/>
+      <c r="D7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="26"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="26"/>
+      <c r="AY7" s="27"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D8" s="42"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="42"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="42"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="42"/>
-      <c r="AY8" s="43"/>
+      <c r="D8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="26"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="26"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="26"/>
+      <c r="AY8" s="27"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D9" s="42"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="42"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="42"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="42"/>
-      <c r="AY9" s="43"/>
+      <c r="D9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="26"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="26"/>
+      <c r="AY9" s="27"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D10" s="42"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="42"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="42"/>
-      <c r="AY10" s="43"/>
+      <c r="D10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="26"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="26"/>
+      <c r="AY10" s="27"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D11" s="42"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="42"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="42"/>
-      <c r="AY11" s="43"/>
+      <c r="D11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="26"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="26"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="26"/>
+      <c r="AY11" s="27"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D12" s="42"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="42"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="42"/>
-      <c r="AY12" s="43"/>
+      <c r="D12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="26"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="26"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="26"/>
+      <c r="AY12" s="27"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D13" s="42"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="42"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="42"/>
-      <c r="AY13" s="43"/>
+      <c r="D13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="26"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="26"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="26"/>
+      <c r="AY13" s="27"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D14" s="42"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="42"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="42"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="42"/>
-      <c r="AY14" s="43"/>
+      <c r="D14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="26"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="26"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="26"/>
+      <c r="AY14" s="27"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D15" s="42"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="42"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="42"/>
-      <c r="AM15" s="43"/>
-      <c r="AN15" s="42"/>
-      <c r="AY15" s="43"/>
+      <c r="D15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="26"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="26"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="26"/>
+      <c r="AY15" s="27"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="D16" s="42"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="42"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="42"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="42"/>
-      <c r="AY16" s="43"/>
+      <c r="D16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="26"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="26"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="26"/>
+      <c r="AY16" s="27"/>
     </row>
     <row r="17" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D17" s="42"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="42"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="42"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="42"/>
-      <c r="AY17" s="43"/>
+      <c r="D17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="26"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="26"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="26"/>
+      <c r="AY17" s="27"/>
     </row>
     <row r="18" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D18" s="42"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="42"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="42"/>
-      <c r="AM18" s="43"/>
-      <c r="AN18" s="42"/>
-      <c r="AY18" s="43"/>
+      <c r="D18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="26"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="26"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="26"/>
+      <c r="AY18" s="27"/>
     </row>
     <row r="19" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D19" s="42"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="42"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="42"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="42"/>
-      <c r="AY19" s="43"/>
+      <c r="D19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="26"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="26"/>
+      <c r="AY19" s="27"/>
     </row>
     <row r="20" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D20" s="42"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="42"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="42"/>
-      <c r="AY20" s="43"/>
+      <c r="D20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="26"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="26"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="26"/>
+      <c r="AY20" s="27"/>
     </row>
     <row r="21" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D21" s="42"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="42"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="42"/>
-      <c r="AM21" s="43"/>
-      <c r="AN21" s="42"/>
-      <c r="AY21" s="43"/>
+      <c r="D21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="26"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="26"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="26"/>
+      <c r="AY21" s="27"/>
     </row>
     <row r="22" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D22" s="42"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="42"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="42"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="42"/>
-      <c r="AY22" s="43"/>
+      <c r="D22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="26"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="26"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="26"/>
+      <c r="AY22" s="27"/>
     </row>
     <row r="23" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D23" s="42"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="42"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="42"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="42"/>
-      <c r="AY23" s="43"/>
+      <c r="D23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="26"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="26"/>
+      <c r="AY23" s="27"/>
     </row>
     <row r="24" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D24" s="42"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="42"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="42"/>
-      <c r="AM24" s="43"/>
-      <c r="AN24" s="42"/>
-      <c r="AY24" s="43"/>
+      <c r="D24" s="26"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="26"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="26"/>
+      <c r="AY24" s="27"/>
     </row>
     <row r="25" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="42"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="42"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="42"/>
-      <c r="AY25" s="43"/>
+      <c r="D25" s="26"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="26"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="26"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="26"/>
+      <c r="AY25" s="27"/>
     </row>
     <row r="26" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D26" s="42"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="42"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="42"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="42"/>
-      <c r="AY26" s="43"/>
+      <c r="D26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="26"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="26"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="26"/>
+      <c r="AY26" s="27"/>
     </row>
     <row r="27" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D27" s="42"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="42"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="42"/>
-      <c r="AM27" s="43"/>
-      <c r="AN27" s="42"/>
-      <c r="AY27" s="43"/>
+      <c r="D27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="26"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="26"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="26"/>
+      <c r="AY27" s="27"/>
     </row>
     <row r="28" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D28" s="42"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="42"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="42"/>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="42"/>
-      <c r="AY28" s="43"/>
+      <c r="D28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="26"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="26"/>
+      <c r="AY28" s="27"/>
     </row>
     <row r="29" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D29" s="42"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="42"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="42"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="42"/>
-      <c r="AY29" s="43"/>
+      <c r="D29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="26"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="26"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="26"/>
+      <c r="AY29" s="27"/>
     </row>
     <row r="30" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D30" s="42"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="42"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="42"/>
-      <c r="AM30" s="43"/>
-      <c r="AN30" s="42"/>
-      <c r="AY30" s="43"/>
+      <c r="D30" s="26"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="26"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="26"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="26"/>
+      <c r="AY30" s="27"/>
     </row>
     <row r="31" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D31" s="42"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="42"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="42"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="42"/>
-      <c r="AY31" s="43"/>
+      <c r="D31" s="26"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="26"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="26"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="26"/>
+      <c r="AY31" s="27"/>
     </row>
     <row r="32" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D32" s="42"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="42"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="42"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="42"/>
-      <c r="AY32" s="43"/>
+      <c r="D32" s="26"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="26"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="26"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="26"/>
+      <c r="AY32" s="27"/>
     </row>
     <row r="33" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D33" s="42"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="42"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="42"/>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="42"/>
-      <c r="AY33" s="43"/>
+      <c r="D33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="26"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="26"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="26"/>
+      <c r="AY33" s="27"/>
     </row>
     <row r="34" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D34" s="42"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="42"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="42"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="42"/>
-      <c r="AY34" s="43"/>
+      <c r="D34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="26"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="26"/>
+      <c r="AM34" s="27"/>
+      <c r="AN34" s="26"/>
+      <c r="AY34" s="27"/>
     </row>
     <row r="35" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D35" s="42"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="42"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="42"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="42"/>
-      <c r="AY35" s="43"/>
+      <c r="D35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="26"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="26"/>
+      <c r="AM35" s="27"/>
+      <c r="AN35" s="26"/>
+      <c r="AY35" s="27"/>
     </row>
     <row r="36" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D36" s="42"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="42"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="42"/>
-      <c r="AM36" s="43"/>
-      <c r="AN36" s="42"/>
-      <c r="AY36" s="43"/>
+      <c r="D36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="26"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="26"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="26"/>
+      <c r="AY36" s="27"/>
     </row>
     <row r="37" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D37" s="42"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="42"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="42"/>
-      <c r="AM37" s="43"/>
-      <c r="AN37" s="42"/>
-      <c r="AY37" s="43"/>
+      <c r="D37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="26"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="26"/>
+      <c r="AM37" s="27"/>
+      <c r="AN37" s="26"/>
+      <c r="AY37" s="27"/>
     </row>
     <row r="38" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D38" s="42"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="42"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="42"/>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="42"/>
-      <c r="AY38" s="43"/>
+      <c r="D38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="26"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="26"/>
+      <c r="AM38" s="27"/>
+      <c r="AN38" s="26"/>
+      <c r="AY38" s="27"/>
     </row>
     <row r="39" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D39" s="42"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="42"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="42"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="42"/>
-      <c r="AY39" s="43"/>
+      <c r="D39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="26"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="26"/>
+      <c r="AM39" s="27"/>
+      <c r="AN39" s="26"/>
+      <c r="AY39" s="27"/>
     </row>
     <row r="40" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D40" s="42"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="42"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="42"/>
-      <c r="AM40" s="43"/>
-      <c r="AN40" s="42"/>
-      <c r="AY40" s="43"/>
+      <c r="D40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="26"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="26"/>
+      <c r="AM40" s="27"/>
+      <c r="AN40" s="26"/>
+      <c r="AY40" s="27"/>
     </row>
     <row r="41" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D41" s="42"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="42"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="42"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="42"/>
-      <c r="AY41" s="43"/>
+      <c r="D41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="26"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="26"/>
+      <c r="AM41" s="27"/>
+      <c r="AN41" s="26"/>
+      <c r="AY41" s="27"/>
     </row>
     <row r="42" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D42" s="42"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="42"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="42"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="42"/>
-      <c r="AY42" s="43"/>
+      <c r="D42" s="26"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="26"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="26"/>
+      <c r="AM42" s="27"/>
+      <c r="AN42" s="26"/>
+      <c r="AY42" s="27"/>
     </row>
     <row r="43" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D43" s="42"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="42"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="42"/>
-      <c r="AM43" s="43"/>
-      <c r="AN43" s="42"/>
-      <c r="AY43" s="43"/>
+      <c r="D43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="26"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="26"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="26"/>
+      <c r="AY43" s="27"/>
     </row>
     <row r="44" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D44" s="42"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="42"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="42"/>
-      <c r="AM44" s="43"/>
-      <c r="AN44" s="42"/>
-      <c r="AY44" s="43"/>
+      <c r="D44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="26"/>
+      <c r="AA44" s="27"/>
+      <c r="AB44" s="26"/>
+      <c r="AM44" s="27"/>
+      <c r="AN44" s="26"/>
+      <c r="AY44" s="27"/>
     </row>
     <row r="45" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D45" s="42"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="42"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="42"/>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="42"/>
-      <c r="AY45" s="43"/>
+      <c r="D45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="26"/>
+      <c r="AA45" s="27"/>
+      <c r="AB45" s="26"/>
+      <c r="AM45" s="27"/>
+      <c r="AN45" s="26"/>
+      <c r="AY45" s="27"/>
     </row>
     <row r="46" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D46" s="42"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="42"/>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="42"/>
-      <c r="AM46" s="43"/>
-      <c r="AN46" s="42"/>
-      <c r="AY46" s="43"/>
+      <c r="D46" s="26"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="AA46" s="27"/>
+      <c r="AB46" s="26"/>
+      <c r="AM46" s="27"/>
+      <c r="AN46" s="26"/>
+      <c r="AY46" s="27"/>
     </row>
     <row r="47" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D47" s="42"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="42"/>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="42"/>
-      <c r="AM47" s="43"/>
-      <c r="AN47" s="42"/>
-      <c r="AY47" s="43"/>
+      <c r="D47" s="26"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="26"/>
+      <c r="AA47" s="27"/>
+      <c r="AB47" s="26"/>
+      <c r="AM47" s="27"/>
+      <c r="AN47" s="26"/>
+      <c r="AY47" s="27"/>
     </row>
     <row r="48" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D48" s="42"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="42"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="42"/>
-      <c r="AM48" s="43"/>
-      <c r="AN48" s="42"/>
-      <c r="AY48" s="43"/>
+      <c r="D48" s="26"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="26"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="26"/>
+      <c r="AM48" s="27"/>
+      <c r="AN48" s="26"/>
+      <c r="AY48" s="27"/>
     </row>
     <row r="49" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D49" s="42"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="42"/>
-      <c r="AA49" s="43"/>
-      <c r="AB49" s="42"/>
-      <c r="AM49" s="43"/>
-      <c r="AN49" s="42"/>
-      <c r="AY49" s="43"/>
+      <c r="D49" s="26"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="26"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="26"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="26"/>
+      <c r="AY49" s="27"/>
     </row>
     <row r="50" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D50" s="42"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="42"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="42"/>
-      <c r="AM50" s="43"/>
-      <c r="AN50" s="42"/>
-      <c r="AY50" s="43"/>
+      <c r="D50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="26"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="26"/>
+      <c r="AM50" s="27"/>
+      <c r="AN50" s="26"/>
+      <c r="AY50" s="27"/>
     </row>
     <row r="51" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D51" s="42"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="42"/>
-      <c r="AA51" s="43"/>
-      <c r="AB51" s="42"/>
-      <c r="AM51" s="43"/>
-      <c r="AN51" s="42"/>
-      <c r="AY51" s="43"/>
+      <c r="D51" s="26"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="26"/>
+      <c r="AA51" s="27"/>
+      <c r="AB51" s="26"/>
+      <c r="AM51" s="27"/>
+      <c r="AN51" s="26"/>
+      <c r="AY51" s="27"/>
     </row>
     <row r="52" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D52" s="42"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="42"/>
-      <c r="AA52" s="43"/>
-      <c r="AB52" s="42"/>
-      <c r="AM52" s="43"/>
-      <c r="AN52" s="42"/>
-      <c r="AY52" s="43"/>
+      <c r="D52" s="26"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="26"/>
+      <c r="AA52" s="27"/>
+      <c r="AB52" s="26"/>
+      <c r="AM52" s="27"/>
+      <c r="AN52" s="26"/>
+      <c r="AY52" s="27"/>
     </row>
     <row r="53" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D53" s="42"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="42"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="42"/>
-      <c r="AM53" s="43"/>
-      <c r="AN53" s="42"/>
-      <c r="AY53" s="43"/>
+      <c r="D53" s="26"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="26"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="26"/>
+      <c r="AM53" s="27"/>
+      <c r="AN53" s="26"/>
+      <c r="AY53" s="27"/>
     </row>
     <row r="54" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D54" s="42"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="42"/>
-      <c r="AA54" s="43"/>
-      <c r="AB54" s="42"/>
-      <c r="AM54" s="43"/>
-      <c r="AN54" s="42"/>
-      <c r="AY54" s="43"/>
+      <c r="D54" s="26"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="26"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="26"/>
+      <c r="AM54" s="27"/>
+      <c r="AN54" s="26"/>
+      <c r="AY54" s="27"/>
     </row>
     <row r="55" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D55" s="42"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="42"/>
-      <c r="AA55" s="43"/>
-      <c r="AB55" s="42"/>
-      <c r="AM55" s="43"/>
-      <c r="AN55" s="42"/>
-      <c r="AY55" s="43"/>
+      <c r="D55" s="26"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="26"/>
+      <c r="AA55" s="27"/>
+      <c r="AB55" s="26"/>
+      <c r="AM55" s="27"/>
+      <c r="AN55" s="26"/>
+      <c r="AY55" s="27"/>
     </row>
     <row r="56" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D56" s="42"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="42"/>
-      <c r="AA56" s="43"/>
-      <c r="AB56" s="42"/>
-      <c r="AM56" s="43"/>
-      <c r="AN56" s="42"/>
-      <c r="AY56" s="43"/>
+      <c r="D56" s="26"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="26"/>
+      <c r="AA56" s="27"/>
+      <c r="AB56" s="26"/>
+      <c r="AM56" s="27"/>
+      <c r="AN56" s="26"/>
+      <c r="AY56" s="27"/>
     </row>
     <row r="57" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D57" s="42"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="42"/>
-      <c r="AA57" s="43"/>
-      <c r="AB57" s="42"/>
-      <c r="AM57" s="43"/>
-      <c r="AN57" s="42"/>
-      <c r="AY57" s="43"/>
+      <c r="D57" s="26"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="26"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="26"/>
+      <c r="AM57" s="27"/>
+      <c r="AN57" s="26"/>
+      <c r="AY57" s="27"/>
     </row>
     <row r="58" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D58" s="42"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="42"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="42"/>
-      <c r="AM58" s="43"/>
-      <c r="AN58" s="42"/>
-      <c r="AY58" s="43"/>
+      <c r="D58" s="26"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="26"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="26"/>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="26"/>
+      <c r="AY58" s="27"/>
     </row>
     <row r="59" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D59" s="42"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="42"/>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="42"/>
-      <c r="AM59" s="43"/>
-      <c r="AN59" s="42"/>
-      <c r="AY59" s="43"/>
+      <c r="D59" s="26"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="26"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="26"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="26"/>
+      <c r="AY59" s="27"/>
     </row>
     <row r="60" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D60" s="42"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="42"/>
-      <c r="AA60" s="43"/>
-      <c r="AB60" s="42"/>
-      <c r="AM60" s="43"/>
-      <c r="AN60" s="42"/>
-      <c r="AY60" s="43"/>
+      <c r="D60" s="26"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="26"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="26"/>
+      <c r="AM60" s="27"/>
+      <c r="AN60" s="26"/>
+      <c r="AY60" s="27"/>
     </row>
     <row r="61" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D61" s="42"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="42"/>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="42"/>
-      <c r="AM61" s="43"/>
-      <c r="AN61" s="42"/>
-      <c r="AY61" s="43"/>
+      <c r="D61" s="26"/>
+      <c r="O61" s="27"/>
+      <c r="P61" s="26"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="26"/>
+      <c r="AM61" s="27"/>
+      <c r="AN61" s="26"/>
+      <c r="AY61" s="27"/>
     </row>
     <row r="62" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D62" s="42"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="42"/>
-      <c r="AA62" s="43"/>
-      <c r="AB62" s="42"/>
-      <c r="AM62" s="43"/>
-      <c r="AN62" s="42"/>
-      <c r="AY62" s="43"/>
+      <c r="D62" s="26"/>
+      <c r="O62" s="27"/>
+      <c r="P62" s="26"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="26"/>
+      <c r="AM62" s="27"/>
+      <c r="AN62" s="26"/>
+      <c r="AY62" s="27"/>
     </row>
     <row r="63" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D63" s="42"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="42"/>
-      <c r="AA63" s="43"/>
-      <c r="AB63" s="42"/>
-      <c r="AM63" s="43"/>
-      <c r="AN63" s="42"/>
-      <c r="AY63" s="43"/>
+      <c r="D63" s="26"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="26"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="26"/>
+      <c r="AM63" s="27"/>
+      <c r="AN63" s="26"/>
+      <c r="AY63" s="27"/>
     </row>
     <row r="64" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D64" s="42"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="42"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="42"/>
-      <c r="AM64" s="43"/>
-      <c r="AN64" s="42"/>
-      <c r="AY64" s="43"/>
+      <c r="D64" s="26"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="26"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="26"/>
+      <c r="AM64" s="27"/>
+      <c r="AN64" s="26"/>
+      <c r="AY64" s="27"/>
     </row>
     <row r="65" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D65" s="42"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="42"/>
-      <c r="AA65" s="43"/>
-      <c r="AB65" s="42"/>
-      <c r="AM65" s="43"/>
-      <c r="AN65" s="42"/>
-      <c r="AY65" s="43"/>
+      <c r="D65" s="26"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="26"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="26"/>
+      <c r="AM65" s="27"/>
+      <c r="AN65" s="26"/>
+      <c r="AY65" s="27"/>
     </row>
     <row r="66" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D66" s="42"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="42"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="42"/>
-      <c r="AM66" s="43"/>
-      <c r="AN66" s="42"/>
-      <c r="AY66" s="43"/>
+      <c r="D66" s="26"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="26"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="26"/>
+      <c r="AM66" s="27"/>
+      <c r="AN66" s="26"/>
+      <c r="AY66" s="27"/>
     </row>
     <row r="67" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D67" s="42"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="42"/>
-      <c r="AA67" s="43"/>
-      <c r="AB67" s="42"/>
-      <c r="AM67" s="43"/>
-      <c r="AN67" s="42"/>
-      <c r="AY67" s="43"/>
+      <c r="D67" s="26"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="26"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="26"/>
+      <c r="AM67" s="27"/>
+      <c r="AN67" s="26"/>
+      <c r="AY67" s="27"/>
     </row>
     <row r="68" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D68" s="42"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="42"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="42"/>
-      <c r="AM68" s="43"/>
-      <c r="AN68" s="42"/>
-      <c r="AY68" s="43"/>
+      <c r="D68" s="26"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="26"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="26"/>
+      <c r="AM68" s="27"/>
+      <c r="AN68" s="26"/>
+      <c r="AY68" s="27"/>
     </row>
     <row r="69" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D69" s="42"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="42"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="42"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="42"/>
-      <c r="AY69" s="43"/>
+      <c r="D69" s="26"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="26"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="26"/>
+      <c r="AM69" s="27"/>
+      <c r="AN69" s="26"/>
+      <c r="AY69" s="27"/>
     </row>
     <row r="70" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D70" s="42"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="42"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="42"/>
-      <c r="AM70" s="43"/>
-      <c r="AN70" s="42"/>
-      <c r="AY70" s="43"/>
+      <c r="D70" s="26"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="26"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="26"/>
+      <c r="AM70" s="27"/>
+      <c r="AN70" s="26"/>
+      <c r="AY70" s="27"/>
     </row>
     <row r="71" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D71" s="42"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="42"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="42"/>
-      <c r="AM71" s="43"/>
-      <c r="AN71" s="42"/>
-      <c r="AY71" s="43"/>
+      <c r="D71" s="26"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="26"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="26"/>
+      <c r="AM71" s="27"/>
+      <c r="AN71" s="26"/>
+      <c r="AY71" s="27"/>
     </row>
     <row r="72" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D72" s="42"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="42"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="42"/>
-      <c r="AM72" s="43"/>
-      <c r="AN72" s="42"/>
-      <c r="AY72" s="43"/>
+      <c r="D72" s="26"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="26"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="26"/>
+      <c r="AM72" s="27"/>
+      <c r="AN72" s="26"/>
+      <c r="AY72" s="27"/>
     </row>
     <row r="73" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D73" s="42"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="42"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="42"/>
-      <c r="AM73" s="43"/>
-      <c r="AN73" s="42"/>
-      <c r="AY73" s="43"/>
+      <c r="D73" s="26"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="26"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="26"/>
+      <c r="AM73" s="27"/>
+      <c r="AN73" s="26"/>
+      <c r="AY73" s="27"/>
     </row>
     <row r="74" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D74" s="42"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="42"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="42"/>
-      <c r="AM74" s="43"/>
-      <c r="AN74" s="42"/>
-      <c r="AY74" s="43"/>
+      <c r="D74" s="26"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="26"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="26"/>
+      <c r="AM74" s="27"/>
+      <c r="AN74" s="26"/>
+      <c r="AY74" s="27"/>
     </row>
     <row r="75" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D75" s="42"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="42"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="42"/>
-      <c r="AM75" s="43"/>
-      <c r="AN75" s="42"/>
-      <c r="AY75" s="43"/>
+      <c r="D75" s="26"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="26"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="26"/>
+      <c r="AM75" s="27"/>
+      <c r="AN75" s="26"/>
+      <c r="AY75" s="27"/>
     </row>
     <row r="76" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D76" s="42"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="42"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="42"/>
-      <c r="AM76" s="43"/>
-      <c r="AN76" s="42"/>
-      <c r="AY76" s="43"/>
+      <c r="D76" s="26"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="26"/>
+      <c r="AA76" s="27"/>
+      <c r="AB76" s="26"/>
+      <c r="AM76" s="27"/>
+      <c r="AN76" s="26"/>
+      <c r="AY76" s="27"/>
     </row>
     <row r="77" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D77" s="42"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="42"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="42"/>
-      <c r="AM77" s="43"/>
-      <c r="AN77" s="42"/>
-      <c r="AY77" s="43"/>
+      <c r="D77" s="26"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="26"/>
+      <c r="AA77" s="27"/>
+      <c r="AB77" s="26"/>
+      <c r="AM77" s="27"/>
+      <c r="AN77" s="26"/>
+      <c r="AY77" s="27"/>
     </row>
     <row r="78" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D78" s="42"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="42"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="42"/>
-      <c r="AM78" s="43"/>
-      <c r="AN78" s="42"/>
-      <c r="AY78" s="43"/>
+      <c r="D78" s="26"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="26"/>
+      <c r="AA78" s="27"/>
+      <c r="AB78" s="26"/>
+      <c r="AM78" s="27"/>
+      <c r="AN78" s="26"/>
+      <c r="AY78" s="27"/>
     </row>
     <row r="79" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D79" s="42"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="42"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="42"/>
-      <c r="AM79" s="43"/>
-      <c r="AN79" s="42"/>
-      <c r="AY79" s="43"/>
+      <c r="D79" s="26"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="26"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="26"/>
+      <c r="AM79" s="27"/>
+      <c r="AN79" s="26"/>
+      <c r="AY79" s="27"/>
     </row>
     <row r="80" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D80" s="42"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="42"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="42"/>
-      <c r="AM80" s="43"/>
-      <c r="AN80" s="42"/>
-      <c r="AY80" s="43"/>
+      <c r="D80" s="26"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="26"/>
+      <c r="AA80" s="27"/>
+      <c r="AB80" s="26"/>
+      <c r="AM80" s="27"/>
+      <c r="AN80" s="26"/>
+      <c r="AY80" s="27"/>
     </row>
     <row r="81" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D81" s="42"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="42"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="42"/>
-      <c r="AM81" s="43"/>
-      <c r="AN81" s="42"/>
-      <c r="AY81" s="43"/>
+      <c r="D81" s="26"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="26"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="26"/>
+      <c r="AM81" s="27"/>
+      <c r="AN81" s="26"/>
+      <c r="AY81" s="27"/>
     </row>
     <row r="82" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D82" s="42"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="42"/>
-      <c r="AA82" s="43"/>
-      <c r="AB82" s="42"/>
-      <c r="AM82" s="43"/>
-      <c r="AN82" s="42"/>
-      <c r="AY82" s="43"/>
+      <c r="D82" s="26"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="26"/>
+      <c r="AA82" s="27"/>
+      <c r="AB82" s="26"/>
+      <c r="AM82" s="27"/>
+      <c r="AN82" s="26"/>
+      <c r="AY82" s="27"/>
     </row>
     <row r="83" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D83" s="42"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="42"/>
-      <c r="AA83" s="43"/>
-      <c r="AB83" s="42"/>
-      <c r="AM83" s="43"/>
-      <c r="AN83" s="42"/>
-      <c r="AY83" s="43"/>
+      <c r="D83" s="26"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="26"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="26"/>
+      <c r="AM83" s="27"/>
+      <c r="AN83" s="26"/>
+      <c r="AY83" s="27"/>
     </row>
     <row r="84" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D84" s="42"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="42"/>
-      <c r="AA84" s="43"/>
-      <c r="AB84" s="42"/>
-      <c r="AM84" s="43"/>
-      <c r="AN84" s="42"/>
-      <c r="AY84" s="43"/>
+      <c r="D84" s="26"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="26"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="26"/>
+      <c r="AM84" s="27"/>
+      <c r="AN84" s="26"/>
+      <c r="AY84" s="27"/>
     </row>
     <row r="85" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D85" s="42"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="42"/>
-      <c r="AA85" s="43"/>
-      <c r="AB85" s="42"/>
-      <c r="AM85" s="43"/>
-      <c r="AN85" s="42"/>
-      <c r="AY85" s="43"/>
+      <c r="D85" s="26"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="26"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="26"/>
+      <c r="AM85" s="27"/>
+      <c r="AN85" s="26"/>
+      <c r="AY85" s="27"/>
     </row>
     <row r="86" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D86" s="42"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="42"/>
-      <c r="AA86" s="43"/>
-      <c r="AB86" s="42"/>
-      <c r="AM86" s="43"/>
-      <c r="AN86" s="42"/>
-      <c r="AY86" s="43"/>
+      <c r="D86" s="26"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="26"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="26"/>
+      <c r="AM86" s="27"/>
+      <c r="AN86" s="26"/>
+      <c r="AY86" s="27"/>
     </row>
     <row r="87" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D87" s="42"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="42"/>
-      <c r="AA87" s="43"/>
-      <c r="AB87" s="42"/>
-      <c r="AM87" s="43"/>
-      <c r="AN87" s="42"/>
-      <c r="AY87" s="43"/>
+      <c r="D87" s="26"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="26"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="26"/>
+      <c r="AM87" s="27"/>
+      <c r="AN87" s="26"/>
+      <c r="AY87" s="27"/>
     </row>
     <row r="88" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D88" s="42"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="42"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="42"/>
-      <c r="AM88" s="43"/>
-      <c r="AN88" s="42"/>
-      <c r="AY88" s="43"/>
+      <c r="D88" s="26"/>
+      <c r="O88" s="27"/>
+      <c r="P88" s="26"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="26"/>
+      <c r="AM88" s="27"/>
+      <c r="AN88" s="26"/>
+      <c r="AY88" s="27"/>
     </row>
     <row r="89" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D89" s="42"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="42"/>
-      <c r="AA89" s="43"/>
-      <c r="AB89" s="42"/>
-      <c r="AM89" s="43"/>
-      <c r="AN89" s="42"/>
-      <c r="AY89" s="43"/>
+      <c r="D89" s="26"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="26"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="26"/>
+      <c r="AM89" s="27"/>
+      <c r="AN89" s="26"/>
+      <c r="AY89" s="27"/>
     </row>
     <row r="90" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D90" s="42"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="42"/>
-      <c r="AA90" s="43"/>
-      <c r="AB90" s="42"/>
-      <c r="AM90" s="43"/>
-      <c r="AN90" s="42"/>
-      <c r="AY90" s="43"/>
+      <c r="D90" s="26"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="26"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="26"/>
+      <c r="AM90" s="27"/>
+      <c r="AN90" s="26"/>
+      <c r="AY90" s="27"/>
     </row>
     <row r="91" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D91" s="42"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="42"/>
-      <c r="AA91" s="43"/>
-      <c r="AB91" s="42"/>
-      <c r="AM91" s="43"/>
-      <c r="AN91" s="42"/>
-      <c r="AY91" s="43"/>
+      <c r="D91" s="26"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="26"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="26"/>
+      <c r="AM91" s="27"/>
+      <c r="AN91" s="26"/>
+      <c r="AY91" s="27"/>
     </row>
     <row r="92" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D92" s="42"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="42"/>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="42"/>
-      <c r="AM92" s="43"/>
-      <c r="AN92" s="42"/>
-      <c r="AY92" s="43"/>
+      <c r="D92" s="26"/>
+      <c r="O92" s="27"/>
+      <c r="P92" s="26"/>
+      <c r="AA92" s="27"/>
+      <c r="AB92" s="26"/>
+      <c r="AM92" s="27"/>
+      <c r="AN92" s="26"/>
+      <c r="AY92" s="27"/>
     </row>
     <row r="93" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D93" s="42"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="42"/>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="42"/>
-      <c r="AM93" s="43"/>
-      <c r="AN93" s="42"/>
-      <c r="AY93" s="43"/>
+      <c r="D93" s="26"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="26"/>
+      <c r="AA93" s="27"/>
+      <c r="AB93" s="26"/>
+      <c r="AM93" s="27"/>
+      <c r="AN93" s="26"/>
+      <c r="AY93" s="27"/>
     </row>
     <row r="94" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D94" s="42"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="42"/>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="42"/>
-      <c r="AM94" s="43"/>
-      <c r="AN94" s="42"/>
-      <c r="AY94" s="43"/>
+      <c r="D94" s="26"/>
+      <c r="O94" s="27"/>
+      <c r="P94" s="26"/>
+      <c r="AA94" s="27"/>
+      <c r="AB94" s="26"/>
+      <c r="AM94" s="27"/>
+      <c r="AN94" s="26"/>
+      <c r="AY94" s="27"/>
     </row>
     <row r="95" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D95" s="42"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="42"/>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="42"/>
-      <c r="AM95" s="43"/>
-      <c r="AN95" s="42"/>
-      <c r="AY95" s="43"/>
+      <c r="D95" s="26"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="26"/>
+      <c r="AA95" s="27"/>
+      <c r="AB95" s="26"/>
+      <c r="AM95" s="27"/>
+      <c r="AN95" s="26"/>
+      <c r="AY95" s="27"/>
     </row>
     <row r="96" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D96" s="42"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="42"/>
-      <c r="AA96" s="43"/>
-      <c r="AB96" s="42"/>
-      <c r="AM96" s="43"/>
-      <c r="AN96" s="42"/>
-      <c r="AY96" s="43"/>
+      <c r="D96" s="26"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="26"/>
+      <c r="AA96" s="27"/>
+      <c r="AB96" s="26"/>
+      <c r="AM96" s="27"/>
+      <c r="AN96" s="26"/>
+      <c r="AY96" s="27"/>
     </row>
     <row r="97" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D97" s="42"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="42"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="42"/>
-      <c r="AM97" s="43"/>
-      <c r="AN97" s="42"/>
-      <c r="AY97" s="43"/>
+      <c r="D97" s="26"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="26"/>
+      <c r="AA97" s="27"/>
+      <c r="AB97" s="26"/>
+      <c r="AM97" s="27"/>
+      <c r="AN97" s="26"/>
+      <c r="AY97" s="27"/>
     </row>
     <row r="98" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D98" s="42"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="42"/>
-      <c r="AA98" s="43"/>
-      <c r="AB98" s="42"/>
-      <c r="AM98" s="43"/>
-      <c r="AN98" s="42"/>
-      <c r="AY98" s="43"/>
+      <c r="D98" s="26"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="26"/>
+      <c r="AA98" s="27"/>
+      <c r="AB98" s="26"/>
+      <c r="AM98" s="27"/>
+      <c r="AN98" s="26"/>
+      <c r="AY98" s="27"/>
     </row>
     <row r="99" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D99" s="42"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="42"/>
-      <c r="AA99" s="43"/>
-      <c r="AB99" s="42"/>
-      <c r="AM99" s="43"/>
-      <c r="AN99" s="42"/>
-      <c r="AY99" s="43"/>
+      <c r="D99" s="26"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="26"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="26"/>
+      <c r="AM99" s="27"/>
+      <c r="AN99" s="26"/>
+      <c r="AY99" s="27"/>
     </row>
     <row r="100" spans="4:51" x14ac:dyDescent="0.3">
-      <c r="D100" s="42"/>
-      <c r="O100" s="43"/>
-      <c r="P100" s="42"/>
-      <c r="AA100" s="43"/>
-      <c r="AB100" s="42"/>
-      <c r="AM100" s="43"/>
-      <c r="AN100" s="42"/>
-      <c r="AY100" s="43"/>
+      <c r="D100" s="26"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="26"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="26"/>
+      <c r="AM100" s="27"/>
+      <c r="AN100" s="26"/>
+      <c r="AY100" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4624,15 +4525,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4674,10 +4575,10 @@
         <v>229</v>
       </c>
       <c r="F3">
-        <v>1.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,7 +4598,7 @@
         <v>231</v>
       </c>
       <c r="F4">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -4720,7 +4621,7 @@
         <v>233</v>
       </c>
       <c r="F5">
-        <v>5.0999999999999996</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -4743,10 +4644,10 @@
         <v>235</v>
       </c>
       <c r="F6">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4766,10 +4667,10 @@
         <v>237</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Lenh_Dieu_Xe.xlsx
+++ b/Lenh_Dieu_Xe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project 70\Project-70m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AEE502-4EDF-4AEE-A4FF-FE0E17F8EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F1CA3-B6C9-4136-B699-1E19516ED3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19022025" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19022025'!$A$4:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="251">
   <si>
     <t>Mã số: BM 01-QT 01-ĐX
 Ngày hiệu lực:25 – 08 -2022
@@ -104,13 +117,13 @@
     <t>☑</t>
   </si>
   <si>
-    <t>Hưng Phú Lê</t>
-  </si>
-  <si>
-    <t>910517051814</t>
-  </si>
-  <si>
-    <t>01 2672712</t>
+    <t>Vân Vũ</t>
+  </si>
+  <si>
+    <t>962184744586</t>
+  </si>
+  <si>
+    <t>+84-65-821 5264</t>
   </si>
   <si>
     <t>5t = 26.7m3</t>
@@ -119,13 +132,13 @@
     <t>T(19:00-&gt;23:00)</t>
   </si>
   <si>
-    <t>Phúc Tấn Hoàng</t>
-  </si>
-  <si>
-    <t>366124537650</t>
-  </si>
-  <si>
-    <t>(01)471-7204</t>
+    <t>Quý cô Bảo Mai</t>
+  </si>
+  <si>
+    <t>355792883692</t>
+  </si>
+  <si>
+    <t>04 9262013</t>
   </si>
   <si>
     <t>7t = 32m3</t>
@@ -134,13 +147,13 @@
     <t>D(00:30-&gt;04:30)</t>
   </si>
   <si>
-    <t>Thành Quang Nguyễn</t>
-  </si>
-  <si>
-    <t>124630635628</t>
-  </si>
-  <si>
-    <t>+84-00-365 8500</t>
+    <t>Dũng Phạm</t>
+  </si>
+  <si>
+    <t>500919355964</t>
+  </si>
+  <si>
+    <t>01 8952 1484</t>
   </si>
   <si>
     <t>9t = 38.2m3</t>
@@ -149,25 +162,25 @@
     <t>Báo sau</t>
   </si>
   <si>
-    <t>Kim Văn Bùi</t>
-  </si>
-  <si>
-    <t>316194609993</t>
-  </si>
-  <si>
-    <t>(05) 8862 3124</t>
+    <t>Lan Lê</t>
+  </si>
+  <si>
+    <t>049573932543</t>
+  </si>
+  <si>
+    <t>+84-38-032 2693</t>
   </si>
   <si>
     <t>12t = 54m3</t>
   </si>
   <si>
-    <t>Quý ông Phúc Hoàng</t>
-  </si>
-  <si>
-    <t>275553662805</t>
-  </si>
-  <si>
-    <t>+84 06 1904490</t>
+    <t>Hải Trần</t>
+  </si>
+  <si>
+    <t>252008295003</t>
+  </si>
+  <si>
+    <t>+84 56 8268407</t>
   </si>
   <si>
     <t>X5</t>
@@ -683,31 +696,31 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>0132434447</t>
+    <t>0462124758</t>
   </si>
   <si>
     <t>Trần Thị B</t>
   </si>
   <si>
-    <t>0439549010</t>
+    <t>0113346418</t>
   </si>
   <si>
     <t>Lê Văn C</t>
   </si>
   <si>
-    <t>0720857305</t>
+    <t>0817375036</t>
   </si>
   <si>
     <t>Phạm Thị D</t>
   </si>
   <si>
-    <t>0971130457</t>
+    <t>0569049500</t>
   </si>
   <si>
     <t>Hoàng Văn E</t>
   </si>
   <si>
-    <t>0462458350</t>
+    <t>0397807153</t>
   </si>
   <si>
     <t>Thông tin tài xế</t>
@@ -734,52 +747,63 @@
     <t>available</t>
   </si>
   <si>
-    <t>257933414897</t>
-  </si>
-  <si>
-    <t>29A-61555</t>
-  </si>
-  <si>
-    <t>115030314509</t>
-  </si>
-  <si>
-    <t>29A-48809</t>
-  </si>
-  <si>
-    <t>903020185527</t>
-  </si>
-  <si>
-    <t>29A-81144</t>
-  </si>
-  <si>
-    <t>762185497998</t>
-  </si>
-  <si>
-    <t>29A-96811</t>
-  </si>
-  <si>
-    <t>702055851465</t>
-  </si>
-  <si>
-    <t>29A-55969</t>
-  </si>
-  <si>
-    <t>Khánh</t>
-  </si>
-  <si>
-    <t>Huyền</t>
-  </si>
-  <si>
-    <t>Khánh Huyền</t>
+    <t>729993945241</t>
+  </si>
+  <si>
+    <t>29A-43478</t>
+  </si>
+  <si>
+    <t>405864047433</t>
+  </si>
+  <si>
+    <t>29A-38171</t>
+  </si>
+  <si>
+    <t>048402799183</t>
+  </si>
+  <si>
+    <t>29A-24622</t>
+  </si>
+  <si>
+    <t>958594898701</t>
+  </si>
+  <si>
+    <t>29A-47752</t>
+  </si>
+  <si>
+    <t>399210721129</t>
+  </si>
+  <si>
+    <t>29A-59979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huyền </t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>DM Chi Bang</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>NNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -839,8 +863,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -957,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -999,30 +1022,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11825"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1376,33 +1381,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="29"/>
+      <c r="J1" s="23"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,17 +1456,39 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="7">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1470,17 +1497,39 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1489,17 +1538,39 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1508,17 +1579,39 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="11"/>
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1527,17 +1620,39 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="11"/>
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1546,17 +1661,39 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="11"/>
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="7">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1565,17 +1702,39 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="11"/>
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="7">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1584,17 +1743,39 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11"/>
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="12">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L12" s="14"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1603,18 +1784,40 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="15"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1622,34 +1825,78 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="7">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="11"/>
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="7">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1658,17 +1905,39 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="11"/>
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="12">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1677,17 +1946,39 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="11"/>
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1696,17 +1987,39 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="11"/>
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="7">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1715,17 +2028,39 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="11"/>
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1734,17 +2069,39 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="11"/>
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="12">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1753,17 +2110,39 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="11"/>
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="7">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1772,17 +2151,39 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="11"/>
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="7">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1791,17 +2192,39 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="12"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="11"/>
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="7">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1810,17 +2233,39 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="11"/>
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="12">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1829,17 +2274,39 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="12"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="11"/>
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1848,17 +2315,39 @@
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="11"/>
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1867,17 +2356,39 @@
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="11"/>
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1886,17 +2397,39 @@
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="11"/>
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="12">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1905,17 +2438,39 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="11"/>
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1924,17 +2479,39 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="11"/>
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1943,17 +2520,39 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="11"/>
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -1962,17 +2561,39 @@
       <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="11"/>
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -1981,17 +2602,39 @@
       <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="12"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="11"/>
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2000,17 +2643,39 @@
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="12"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="11"/>
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2019,17 +2684,39 @@
       <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="12"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="11"/>
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="7">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2038,17 +2725,39 @@
       <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="12"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="11"/>
+      <c r="A36" s="7">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="7">
+        <v>60</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -2057,17 +2766,39 @@
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="12"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="11"/>
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="7">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2076,17 +2807,39 @@
       <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="12"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="11"/>
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="7">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2095,17 +2848,39 @@
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="12"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="11"/>
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="12">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2114,34 +2889,78 @@
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="12"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="11"/>
+      <c r="A40" s="7">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C40" s="7">
+        <v>40</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="12"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="11"/>
+      <c r="A41" s="12">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="7">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L41" s="14"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -2150,18 +2969,40 @@
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="18"/>
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="7">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="16"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -2169,35 +3010,79 @@
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="12"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="21"/>
+      <c r="A43" s="7">
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="7">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="17"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="18"/>
+      <c r="A44" s="12">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="7">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="16"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -2205,35 +3090,79 @@
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="18"/>
+      <c r="A45" s="7">
+        <v>41</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="12">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="16"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="18"/>
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="7">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="16"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -2241,18 +3170,40 @@
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="7"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="18"/>
+      <c r="A47" s="7">
+        <v>43</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="7">
+        <v>39</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="16"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -2260,18 +3211,40 @@
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="18"/>
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="7">
+        <v>38</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="16"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -2279,52 +3252,118 @@
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="11"/>
+      <c r="A49" s="12">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="12">
+        <v>37</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="11"/>
+      <c r="A50" s="7">
+        <v>46</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="7">
+        <v>36</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="18"/>
+      <c r="A51" s="12">
+        <v>47</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="7">
+        <v>35</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="16"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -2332,34 +3371,78 @@
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="18"/>
+      <c r="A52" s="7">
+        <v>48</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" s="7">
+        <v>34</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="16"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="12"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="11"/>
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="12">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L53" s="14"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2368,17 +3451,39 @@
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="12"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="11"/>
+      <c r="A54" s="7">
+        <v>50</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="7">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2387,18 +3492,40 @@
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="7">
+        <v>31</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="18"/>
     </row>
     <row r="11825" spans="17:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Q11825" s="3">
@@ -2412,18 +3539,19 @@
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" sqref="E5:E55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"S(08:00-&gt;12:00),C(13:30-&gt;17:30),T(19:00-&gt;23:00),D(00:30-&gt;04:30),Báo sau"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:I55 J5:J55 K5:K55" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="I5:K55" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"☐,☑"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="G5:G55" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"X5,X7"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"Hưng Phú Lê,Phúc Tấn Hoàng,Thành Quang Nguyễn,Kim Văn Bùi,Quý ông Phúc Hoàng"</formula1>
+      <formula1>"Vân Vũ,Quý cô Bảo Mai,Dũng Phạm,Lan Lê,Hải Trần"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"1.4t = 9.7m3,3.5t = 24.2m3,5t = 26.7m3,7t = 32m3,9t = 38.2m3,12t = 54m3"</formula1>
@@ -2449,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA1:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2458,19 +3586,20 @@
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="27" max="27" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="F1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="AB1" t="s">
@@ -2490,10 +3619,10 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="AB2" t="s">
@@ -2513,10 +3642,10 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2533,10 +3662,10 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2553,10 +3682,10 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2573,7 +3702,7 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2603,7 +3732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -3245,59 +4374,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -3309,62 +4438,62 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37" t="s">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A3">
@@ -3376,14 +4505,14 @@
       <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="26"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="26"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="26"/>
-      <c r="AY3" s="27"/>
+      <c r="D3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="20"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="20"/>
+      <c r="AY3" s="21"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A4">
@@ -3395,14 +4524,14 @@
       <c r="C4" t="s">
         <v>219</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="26"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="26"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="26"/>
-      <c r="AY4" s="27"/>
+      <c r="D4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="20"/>
+      <c r="AM4" s="21"/>
+      <c r="AN4" s="20"/>
+      <c r="AY4" s="21"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A5">
@@ -3414,14 +4543,14 @@
       <c r="C5" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="26"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="26"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="26"/>
-      <c r="AY5" s="27"/>
+      <c r="D5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="20"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="20"/>
+      <c r="AM5" s="21"/>
+      <c r="AN5" s="20"/>
+      <c r="AY5" s="21"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6">
@@ -3433,14 +4562,14 @@
       <c r="C6" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="26"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="26"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="26"/>
-      <c r="AY6" s="27"/>
+      <c r="D6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="20"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="20"/>
+      <c r="AY6" s="21"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A7">
@@ -3452,944 +4581,944 @@
       <c r="C7" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="26"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="26"/>
-      <c r="AY7" s="27"/>
+      <c r="D7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="20"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="20"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="20"/>
+      <c r="AY7" s="21"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D8" s="26"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="26"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="26"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="26"/>
-      <c r="AY8" s="27"/>
+      <c r="D8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="20"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="20"/>
+      <c r="AY8" s="21"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D9" s="26"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="26"/>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="26"/>
-      <c r="AY9" s="27"/>
+      <c r="D9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="20"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="20"/>
+      <c r="AY9" s="21"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="26"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="26"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="26"/>
-      <c r="AY10" s="27"/>
+      <c r="D10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="20"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="20"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="20"/>
+      <c r="AY10" s="21"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="26"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="26"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="26"/>
-      <c r="AY11" s="27"/>
+      <c r="D11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="20"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="20"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="20"/>
+      <c r="AY11" s="21"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="26"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="26"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="26"/>
-      <c r="AY12" s="27"/>
+      <c r="D12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="20"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="20"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="20"/>
+      <c r="AY12" s="21"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="26"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="26"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="26"/>
-      <c r="AY13" s="27"/>
+      <c r="D13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="20"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="20"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="20"/>
+      <c r="AY13" s="21"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="26"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="26"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="26"/>
-      <c r="AY14" s="27"/>
+      <c r="D14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="20"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="20"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="20"/>
+      <c r="AY14" s="21"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="26"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="26"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="26"/>
-      <c r="AY15" s="27"/>
+      <c r="D15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="20"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="20"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="20"/>
+      <c r="AY15" s="21"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="D16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="26"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="26"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="26"/>
-      <c r="AY16" s="27"/>
+      <c r="D16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="20"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="20"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="20"/>
+      <c r="AY16" s="21"/>
     </row>
     <row r="17" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="26"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="26"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="26"/>
-      <c r="AY17" s="27"/>
+      <c r="D17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="20"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="20"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="20"/>
+      <c r="AY17" s="21"/>
     </row>
     <row r="18" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="26"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="26"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="26"/>
-      <c r="AY18" s="27"/>
+      <c r="D18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="20"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="20"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="20"/>
+      <c r="AY18" s="21"/>
     </row>
     <row r="19" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="26"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="26"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="26"/>
-      <c r="AY19" s="27"/>
+      <c r="D19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="20"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="20"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="20"/>
+      <c r="AY19" s="21"/>
     </row>
     <row r="20" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="26"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="26"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="26"/>
-      <c r="AY20" s="27"/>
+      <c r="D20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="20"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="20"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="20"/>
+      <c r="AY20" s="21"/>
     </row>
     <row r="21" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="26"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="26"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="26"/>
-      <c r="AY21" s="27"/>
+      <c r="D21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="20"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="20"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="20"/>
+      <c r="AY21" s="21"/>
     </row>
     <row r="22" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="26"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="26"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="26"/>
-      <c r="AY22" s="27"/>
+      <c r="D22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="20"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="20"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="20"/>
+      <c r="AY22" s="21"/>
     </row>
     <row r="23" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="26"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="26"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="26"/>
-      <c r="AY23" s="27"/>
+      <c r="D23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="20"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="20"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="20"/>
+      <c r="AY23" s="21"/>
     </row>
     <row r="24" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="26"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="26"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="26"/>
-      <c r="AY24" s="27"/>
+      <c r="D24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="20"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="20"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="20"/>
+      <c r="AY24" s="21"/>
     </row>
     <row r="25" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="26"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="26"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="26"/>
-      <c r="AY25" s="27"/>
+      <c r="D25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="20"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="20"/>
+      <c r="AM25" s="21"/>
+      <c r="AN25" s="20"/>
+      <c r="AY25" s="21"/>
     </row>
     <row r="26" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="26"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="26"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="26"/>
-      <c r="AY26" s="27"/>
+      <c r="D26" s="20"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="20"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="20"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="20"/>
+      <c r="AY26" s="21"/>
     </row>
     <row r="27" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="26"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="26"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="26"/>
-      <c r="AY27" s="27"/>
+      <c r="D27" s="20"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="20"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="20"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="20"/>
+      <c r="AY27" s="21"/>
     </row>
     <row r="28" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="26"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="26"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="26"/>
-      <c r="AY28" s="27"/>
+      <c r="D28" s="20"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="20"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="20"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="20"/>
+      <c r="AY28" s="21"/>
     </row>
     <row r="29" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="26"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="26"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="26"/>
-      <c r="AY29" s="27"/>
+      <c r="D29" s="20"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="20"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="20"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="20"/>
+      <c r="AY29" s="21"/>
     </row>
     <row r="30" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D30" s="26"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="26"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="26"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="26"/>
-      <c r="AY30" s="27"/>
+      <c r="D30" s="20"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="20"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="20"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="20"/>
+      <c r="AY30" s="21"/>
     </row>
     <row r="31" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="26"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="26"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="26"/>
-      <c r="AY31" s="27"/>
+      <c r="D31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="20"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="20"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="20"/>
+      <c r="AY31" s="21"/>
     </row>
     <row r="32" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D32" s="26"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="26"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="26"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="26"/>
-      <c r="AY32" s="27"/>
+      <c r="D32" s="20"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="20"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="20"/>
+      <c r="AY32" s="21"/>
     </row>
     <row r="33" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="26"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="26"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="26"/>
-      <c r="AY33" s="27"/>
+      <c r="D33" s="20"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="20"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="20"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="20"/>
+      <c r="AY33" s="21"/>
     </row>
     <row r="34" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="26"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="26"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="26"/>
-      <c r="AY34" s="27"/>
+      <c r="D34" s="20"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="20"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="20"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="20"/>
+      <c r="AY34" s="21"/>
     </row>
     <row r="35" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="26"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="26"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="26"/>
-      <c r="AY35" s="27"/>
+      <c r="D35" s="20"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="20"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="20"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="20"/>
+      <c r="AY35" s="21"/>
     </row>
     <row r="36" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="26"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="26"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="26"/>
-      <c r="AY36" s="27"/>
+      <c r="D36" s="20"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="20"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="20"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="20"/>
+      <c r="AY36" s="21"/>
     </row>
     <row r="37" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="26"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="26"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="26"/>
-      <c r="AY37" s="27"/>
+      <c r="D37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="20"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="20"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="20"/>
+      <c r="AY37" s="21"/>
     </row>
     <row r="38" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="26"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="26"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="26"/>
-      <c r="AY38" s="27"/>
+      <c r="D38" s="20"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="20"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="20"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="20"/>
+      <c r="AY38" s="21"/>
     </row>
     <row r="39" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="26"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="26"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="26"/>
-      <c r="AY39" s="27"/>
+      <c r="D39" s="20"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="20"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="20"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="20"/>
+      <c r="AY39" s="21"/>
     </row>
     <row r="40" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="26"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="26"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="26"/>
-      <c r="AY40" s="27"/>
+      <c r="D40" s="20"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="20"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="20"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="20"/>
+      <c r="AY40" s="21"/>
     </row>
     <row r="41" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D41" s="26"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="26"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="26"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="26"/>
-      <c r="AY41" s="27"/>
+      <c r="D41" s="20"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="20"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="20"/>
+      <c r="AM41" s="21"/>
+      <c r="AN41" s="20"/>
+      <c r="AY41" s="21"/>
     </row>
     <row r="42" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D42" s="26"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="26"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="26"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="26"/>
-      <c r="AY42" s="27"/>
+      <c r="D42" s="20"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="20"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="20"/>
+      <c r="AM42" s="21"/>
+      <c r="AN42" s="20"/>
+      <c r="AY42" s="21"/>
     </row>
     <row r="43" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D43" s="26"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="26"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="26"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="26"/>
-      <c r="AY43" s="27"/>
+      <c r="D43" s="20"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="20"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="20"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="20"/>
+      <c r="AY43" s="21"/>
     </row>
     <row r="44" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D44" s="26"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="26"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="26"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="26"/>
-      <c r="AY44" s="27"/>
+      <c r="D44" s="20"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="20"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="20"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="20"/>
+      <c r="AY44" s="21"/>
     </row>
     <row r="45" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D45" s="26"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="26"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="26"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="26"/>
-      <c r="AY45" s="27"/>
+      <c r="D45" s="20"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="20"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="20"/>
+      <c r="AM45" s="21"/>
+      <c r="AN45" s="20"/>
+      <c r="AY45" s="21"/>
     </row>
     <row r="46" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D46" s="26"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="26"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="26"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="26"/>
-      <c r="AY46" s="27"/>
+      <c r="D46" s="20"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="20"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="20"/>
+      <c r="AM46" s="21"/>
+      <c r="AN46" s="20"/>
+      <c r="AY46" s="21"/>
     </row>
     <row r="47" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D47" s="26"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="26"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="26"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="26"/>
-      <c r="AY47" s="27"/>
+      <c r="D47" s="20"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="20"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="20"/>
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="20"/>
+      <c r="AY47" s="21"/>
     </row>
     <row r="48" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D48" s="26"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="26"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="26"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="26"/>
-      <c r="AY48" s="27"/>
+      <c r="D48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="20"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="20"/>
+      <c r="AM48" s="21"/>
+      <c r="AN48" s="20"/>
+      <c r="AY48" s="21"/>
     </row>
     <row r="49" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D49" s="26"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="26"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="26"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="26"/>
-      <c r="AY49" s="27"/>
+      <c r="D49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="20"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="20"/>
+      <c r="AM49" s="21"/>
+      <c r="AN49" s="20"/>
+      <c r="AY49" s="21"/>
     </row>
     <row r="50" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D50" s="26"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="26"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="26"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="26"/>
-      <c r="AY50" s="27"/>
+      <c r="D50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="20"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="20"/>
+      <c r="AM50" s="21"/>
+      <c r="AN50" s="20"/>
+      <c r="AY50" s="21"/>
     </row>
     <row r="51" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D51" s="26"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="26"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="26"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="26"/>
-      <c r="AY51" s="27"/>
+      <c r="D51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="20"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="20"/>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="20"/>
+      <c r="AY51" s="21"/>
     </row>
     <row r="52" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D52" s="26"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="26"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="26"/>
-      <c r="AM52" s="27"/>
-      <c r="AN52" s="26"/>
-      <c r="AY52" s="27"/>
+      <c r="D52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="20"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="20"/>
+      <c r="AM52" s="21"/>
+      <c r="AN52" s="20"/>
+      <c r="AY52" s="21"/>
     </row>
     <row r="53" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D53" s="26"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="26"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="26"/>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="26"/>
-      <c r="AY53" s="27"/>
+      <c r="D53" s="20"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="20"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="20"/>
+      <c r="AM53" s="21"/>
+      <c r="AN53" s="20"/>
+      <c r="AY53" s="21"/>
     </row>
     <row r="54" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D54" s="26"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="26"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="26"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="26"/>
-      <c r="AY54" s="27"/>
+      <c r="D54" s="20"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="20"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="20"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="20"/>
+      <c r="AY54" s="21"/>
     </row>
     <row r="55" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D55" s="26"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="26"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="26"/>
-      <c r="AM55" s="27"/>
-      <c r="AN55" s="26"/>
-      <c r="AY55" s="27"/>
+      <c r="D55" s="20"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="20"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="20"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="20"/>
+      <c r="AY55" s="21"/>
     </row>
     <row r="56" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D56" s="26"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="26"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="26"/>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="26"/>
-      <c r="AY56" s="27"/>
+      <c r="D56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="20"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="20"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="20"/>
+      <c r="AY56" s="21"/>
     </row>
     <row r="57" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D57" s="26"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="26"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="26"/>
-      <c r="AM57" s="27"/>
-      <c r="AN57" s="26"/>
-      <c r="AY57" s="27"/>
+      <c r="D57" s="20"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="20"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="20"/>
+      <c r="AM57" s="21"/>
+      <c r="AN57" s="20"/>
+      <c r="AY57" s="21"/>
     </row>
     <row r="58" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D58" s="26"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="26"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="26"/>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="26"/>
-      <c r="AY58" s="27"/>
+      <c r="D58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="20"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="20"/>
+      <c r="AM58" s="21"/>
+      <c r="AN58" s="20"/>
+      <c r="AY58" s="21"/>
     </row>
     <row r="59" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D59" s="26"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="26"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="26"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="26"/>
-      <c r="AY59" s="27"/>
+      <c r="D59" s="20"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="20"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="20"/>
+      <c r="AM59" s="21"/>
+      <c r="AN59" s="20"/>
+      <c r="AY59" s="21"/>
     </row>
     <row r="60" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D60" s="26"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="26"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="26"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="26"/>
-      <c r="AY60" s="27"/>
+      <c r="D60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="20"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="20"/>
+      <c r="AM60" s="21"/>
+      <c r="AN60" s="20"/>
+      <c r="AY60" s="21"/>
     </row>
     <row r="61" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D61" s="26"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="26"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="26"/>
-      <c r="AM61" s="27"/>
-      <c r="AN61" s="26"/>
-      <c r="AY61" s="27"/>
+      <c r="D61" s="20"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="20"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="20"/>
+      <c r="AM61" s="21"/>
+      <c r="AN61" s="20"/>
+      <c r="AY61" s="21"/>
     </row>
     <row r="62" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D62" s="26"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="26"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="26"/>
-      <c r="AM62" s="27"/>
-      <c r="AN62" s="26"/>
-      <c r="AY62" s="27"/>
+      <c r="D62" s="20"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="20"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="20"/>
+      <c r="AM62" s="21"/>
+      <c r="AN62" s="20"/>
+      <c r="AY62" s="21"/>
     </row>
     <row r="63" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D63" s="26"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="26"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="26"/>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="26"/>
-      <c r="AY63" s="27"/>
+      <c r="D63" s="20"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="20"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="20"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="20"/>
+      <c r="AY63" s="21"/>
     </row>
     <row r="64" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D64" s="26"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="26"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="26"/>
-      <c r="AM64" s="27"/>
-      <c r="AN64" s="26"/>
-      <c r="AY64" s="27"/>
+      <c r="D64" s="20"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="20"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="20"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="20"/>
+      <c r="AY64" s="21"/>
     </row>
     <row r="65" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D65" s="26"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="26"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="26"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="26"/>
-      <c r="AY65" s="27"/>
+      <c r="D65" s="20"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="20"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="20"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="20"/>
+      <c r="AY65" s="21"/>
     </row>
     <row r="66" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D66" s="26"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="26"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="26"/>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="26"/>
-      <c r="AY66" s="27"/>
+      <c r="D66" s="20"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="20"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="20"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="20"/>
+      <c r="AY66" s="21"/>
     </row>
     <row r="67" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D67" s="26"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="26"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="26"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="26"/>
-      <c r="AY67" s="27"/>
+      <c r="D67" s="20"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="20"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="20"/>
+      <c r="AM67" s="21"/>
+      <c r="AN67" s="20"/>
+      <c r="AY67" s="21"/>
     </row>
     <row r="68" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D68" s="26"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="26"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="26"/>
-      <c r="AM68" s="27"/>
-      <c r="AN68" s="26"/>
-      <c r="AY68" s="27"/>
+      <c r="D68" s="20"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="20"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="20"/>
+      <c r="AM68" s="21"/>
+      <c r="AN68" s="20"/>
+      <c r="AY68" s="21"/>
     </row>
     <row r="69" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D69" s="26"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="26"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="26"/>
-      <c r="AM69" s="27"/>
-      <c r="AN69" s="26"/>
-      <c r="AY69" s="27"/>
+      <c r="D69" s="20"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="20"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="20"/>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="20"/>
+      <c r="AY69" s="21"/>
     </row>
     <row r="70" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D70" s="26"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="26"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="26"/>
-      <c r="AM70" s="27"/>
-      <c r="AN70" s="26"/>
-      <c r="AY70" s="27"/>
+      <c r="D70" s="20"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="20"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="20"/>
+      <c r="AM70" s="21"/>
+      <c r="AN70" s="20"/>
+      <c r="AY70" s="21"/>
     </row>
     <row r="71" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D71" s="26"/>
-      <c r="O71" s="27"/>
-      <c r="P71" s="26"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="26"/>
-      <c r="AM71" s="27"/>
-      <c r="AN71" s="26"/>
-      <c r="AY71" s="27"/>
+      <c r="D71" s="20"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="20"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="20"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="20"/>
+      <c r="AY71" s="21"/>
     </row>
     <row r="72" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D72" s="26"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="26"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="26"/>
-      <c r="AM72" s="27"/>
-      <c r="AN72" s="26"/>
-      <c r="AY72" s="27"/>
+      <c r="D72" s="20"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="20"/>
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="20"/>
+      <c r="AM72" s="21"/>
+      <c r="AN72" s="20"/>
+      <c r="AY72" s="21"/>
     </row>
     <row r="73" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D73" s="26"/>
-      <c r="O73" s="27"/>
-      <c r="P73" s="26"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="26"/>
-      <c r="AM73" s="27"/>
-      <c r="AN73" s="26"/>
-      <c r="AY73" s="27"/>
+      <c r="D73" s="20"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="20"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="20"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="20"/>
+      <c r="AY73" s="21"/>
     </row>
     <row r="74" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D74" s="26"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="26"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="26"/>
-      <c r="AM74" s="27"/>
-      <c r="AN74" s="26"/>
-      <c r="AY74" s="27"/>
+      <c r="D74" s="20"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="20"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="20"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="20"/>
+      <c r="AY74" s="21"/>
     </row>
     <row r="75" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D75" s="26"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="26"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="26"/>
-      <c r="AM75" s="27"/>
-      <c r="AN75" s="26"/>
-      <c r="AY75" s="27"/>
+      <c r="D75" s="20"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="20"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="20"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="20"/>
+      <c r="AY75" s="21"/>
     </row>
     <row r="76" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D76" s="26"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="26"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="26"/>
-      <c r="AM76" s="27"/>
-      <c r="AN76" s="26"/>
-      <c r="AY76" s="27"/>
+      <c r="D76" s="20"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="20"/>
+      <c r="AA76" s="21"/>
+      <c r="AB76" s="20"/>
+      <c r="AM76" s="21"/>
+      <c r="AN76" s="20"/>
+      <c r="AY76" s="21"/>
     </row>
     <row r="77" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D77" s="26"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="26"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="26"/>
-      <c r="AM77" s="27"/>
-      <c r="AN77" s="26"/>
-      <c r="AY77" s="27"/>
+      <c r="D77" s="20"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="20"/>
+      <c r="AA77" s="21"/>
+      <c r="AB77" s="20"/>
+      <c r="AM77" s="21"/>
+      <c r="AN77" s="20"/>
+      <c r="AY77" s="21"/>
     </row>
     <row r="78" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D78" s="26"/>
-      <c r="O78" s="27"/>
-      <c r="P78" s="26"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="26"/>
-      <c r="AM78" s="27"/>
-      <c r="AN78" s="26"/>
-      <c r="AY78" s="27"/>
+      <c r="D78" s="20"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="20"/>
+      <c r="AA78" s="21"/>
+      <c r="AB78" s="20"/>
+      <c r="AM78" s="21"/>
+      <c r="AN78" s="20"/>
+      <c r="AY78" s="21"/>
     </row>
     <row r="79" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D79" s="26"/>
-      <c r="O79" s="27"/>
-      <c r="P79" s="26"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="26"/>
-      <c r="AM79" s="27"/>
-      <c r="AN79" s="26"/>
-      <c r="AY79" s="27"/>
+      <c r="D79" s="20"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="20"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="20"/>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="20"/>
+      <c r="AY79" s="21"/>
     </row>
     <row r="80" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D80" s="26"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="26"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="26"/>
-      <c r="AM80" s="27"/>
-      <c r="AN80" s="26"/>
-      <c r="AY80" s="27"/>
+      <c r="D80" s="20"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="20"/>
+      <c r="AA80" s="21"/>
+      <c r="AB80" s="20"/>
+      <c r="AM80" s="21"/>
+      <c r="AN80" s="20"/>
+      <c r="AY80" s="21"/>
     </row>
     <row r="81" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D81" s="26"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="26"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="26"/>
-      <c r="AM81" s="27"/>
-      <c r="AN81" s="26"/>
-      <c r="AY81" s="27"/>
+      <c r="D81" s="20"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="20"/>
+      <c r="AA81" s="21"/>
+      <c r="AB81" s="20"/>
+      <c r="AM81" s="21"/>
+      <c r="AN81" s="20"/>
+      <c r="AY81" s="21"/>
     </row>
     <row r="82" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D82" s="26"/>
-      <c r="O82" s="27"/>
-      <c r="P82" s="26"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="26"/>
-      <c r="AM82" s="27"/>
-      <c r="AN82" s="26"/>
-      <c r="AY82" s="27"/>
+      <c r="D82" s="20"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="20"/>
+      <c r="AA82" s="21"/>
+      <c r="AB82" s="20"/>
+      <c r="AM82" s="21"/>
+      <c r="AN82" s="20"/>
+      <c r="AY82" s="21"/>
     </row>
     <row r="83" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D83" s="26"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="26"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="26"/>
-      <c r="AM83" s="27"/>
-      <c r="AN83" s="26"/>
-      <c r="AY83" s="27"/>
+      <c r="D83" s="20"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="20"/>
+      <c r="AA83" s="21"/>
+      <c r="AB83" s="20"/>
+      <c r="AM83" s="21"/>
+      <c r="AN83" s="20"/>
+      <c r="AY83" s="21"/>
     </row>
     <row r="84" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D84" s="26"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="26"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="26"/>
-      <c r="AM84" s="27"/>
-      <c r="AN84" s="26"/>
-      <c r="AY84" s="27"/>
+      <c r="D84" s="20"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="20"/>
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="20"/>
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="20"/>
+      <c r="AY84" s="21"/>
     </row>
     <row r="85" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D85" s="26"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="26"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="26"/>
-      <c r="AM85" s="27"/>
-      <c r="AN85" s="26"/>
-      <c r="AY85" s="27"/>
+      <c r="D85" s="20"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="20"/>
+      <c r="AA85" s="21"/>
+      <c r="AB85" s="20"/>
+      <c r="AM85" s="21"/>
+      <c r="AN85" s="20"/>
+      <c r="AY85" s="21"/>
     </row>
     <row r="86" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D86" s="26"/>
-      <c r="O86" s="27"/>
-      <c r="P86" s="26"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="26"/>
-      <c r="AM86" s="27"/>
-      <c r="AN86" s="26"/>
-      <c r="AY86" s="27"/>
+      <c r="D86" s="20"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="20"/>
+      <c r="AA86" s="21"/>
+      <c r="AB86" s="20"/>
+      <c r="AM86" s="21"/>
+      <c r="AN86" s="20"/>
+      <c r="AY86" s="21"/>
     </row>
     <row r="87" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D87" s="26"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="26"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="26"/>
-      <c r="AM87" s="27"/>
-      <c r="AN87" s="26"/>
-      <c r="AY87" s="27"/>
+      <c r="D87" s="20"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="20"/>
+      <c r="AA87" s="21"/>
+      <c r="AB87" s="20"/>
+      <c r="AM87" s="21"/>
+      <c r="AN87" s="20"/>
+      <c r="AY87" s="21"/>
     </row>
     <row r="88" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D88" s="26"/>
-      <c r="O88" s="27"/>
-      <c r="P88" s="26"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="26"/>
-      <c r="AM88" s="27"/>
-      <c r="AN88" s="26"/>
-      <c r="AY88" s="27"/>
+      <c r="D88" s="20"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="20"/>
+      <c r="AA88" s="21"/>
+      <c r="AB88" s="20"/>
+      <c r="AM88" s="21"/>
+      <c r="AN88" s="20"/>
+      <c r="AY88" s="21"/>
     </row>
     <row r="89" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D89" s="26"/>
-      <c r="O89" s="27"/>
-      <c r="P89" s="26"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="26"/>
-      <c r="AM89" s="27"/>
-      <c r="AN89" s="26"/>
-      <c r="AY89" s="27"/>
+      <c r="D89" s="20"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="20"/>
+      <c r="AA89" s="21"/>
+      <c r="AB89" s="20"/>
+      <c r="AM89" s="21"/>
+      <c r="AN89" s="20"/>
+      <c r="AY89" s="21"/>
     </row>
     <row r="90" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D90" s="26"/>
-      <c r="O90" s="27"/>
-      <c r="P90" s="26"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="26"/>
-      <c r="AM90" s="27"/>
-      <c r="AN90" s="26"/>
-      <c r="AY90" s="27"/>
+      <c r="D90" s="20"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="20"/>
+      <c r="AA90" s="21"/>
+      <c r="AB90" s="20"/>
+      <c r="AM90" s="21"/>
+      <c r="AN90" s="20"/>
+      <c r="AY90" s="21"/>
     </row>
     <row r="91" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D91" s="26"/>
-      <c r="O91" s="27"/>
-      <c r="P91" s="26"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="26"/>
-      <c r="AM91" s="27"/>
-      <c r="AN91" s="26"/>
-      <c r="AY91" s="27"/>
+      <c r="D91" s="20"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="20"/>
+      <c r="AA91" s="21"/>
+      <c r="AB91" s="20"/>
+      <c r="AM91" s="21"/>
+      <c r="AN91" s="20"/>
+      <c r="AY91" s="21"/>
     </row>
     <row r="92" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D92" s="26"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="26"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="26"/>
-      <c r="AM92" s="27"/>
-      <c r="AN92" s="26"/>
-      <c r="AY92" s="27"/>
+      <c r="D92" s="20"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="20"/>
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="20"/>
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="20"/>
+      <c r="AY92" s="21"/>
     </row>
     <row r="93" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D93" s="26"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="26"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="26"/>
-      <c r="AM93" s="27"/>
-      <c r="AN93" s="26"/>
-      <c r="AY93" s="27"/>
+      <c r="D93" s="20"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="20"/>
+      <c r="AA93" s="21"/>
+      <c r="AB93" s="20"/>
+      <c r="AM93" s="21"/>
+      <c r="AN93" s="20"/>
+      <c r="AY93" s="21"/>
     </row>
     <row r="94" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D94" s="26"/>
-      <c r="O94" s="27"/>
-      <c r="P94" s="26"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="26"/>
-      <c r="AM94" s="27"/>
-      <c r="AN94" s="26"/>
-      <c r="AY94" s="27"/>
+      <c r="D94" s="20"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="20"/>
+      <c r="AA94" s="21"/>
+      <c r="AB94" s="20"/>
+      <c r="AM94" s="21"/>
+      <c r="AN94" s="20"/>
+      <c r="AY94" s="21"/>
     </row>
     <row r="95" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D95" s="26"/>
-      <c r="O95" s="27"/>
-      <c r="P95" s="26"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="26"/>
-      <c r="AM95" s="27"/>
-      <c r="AN95" s="26"/>
-      <c r="AY95" s="27"/>
+      <c r="D95" s="20"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="20"/>
+      <c r="AA95" s="21"/>
+      <c r="AB95" s="20"/>
+      <c r="AM95" s="21"/>
+      <c r="AN95" s="20"/>
+      <c r="AY95" s="21"/>
     </row>
     <row r="96" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D96" s="26"/>
-      <c r="O96" s="27"/>
-      <c r="P96" s="26"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="26"/>
-      <c r="AM96" s="27"/>
-      <c r="AN96" s="26"/>
-      <c r="AY96" s="27"/>
+      <c r="D96" s="20"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="20"/>
+      <c r="AA96" s="21"/>
+      <c r="AB96" s="20"/>
+      <c r="AM96" s="21"/>
+      <c r="AN96" s="20"/>
+      <c r="AY96" s="21"/>
     </row>
     <row r="97" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D97" s="26"/>
-      <c r="O97" s="27"/>
-      <c r="P97" s="26"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="26"/>
-      <c r="AM97" s="27"/>
-      <c r="AN97" s="26"/>
-      <c r="AY97" s="27"/>
+      <c r="D97" s="20"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="20"/>
+      <c r="AA97" s="21"/>
+      <c r="AB97" s="20"/>
+      <c r="AM97" s="21"/>
+      <c r="AN97" s="20"/>
+      <c r="AY97" s="21"/>
     </row>
     <row r="98" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D98" s="26"/>
-      <c r="O98" s="27"/>
-      <c r="P98" s="26"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="26"/>
-      <c r="AM98" s="27"/>
-      <c r="AN98" s="26"/>
-      <c r="AY98" s="27"/>
+      <c r="D98" s="20"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="20"/>
+      <c r="AA98" s="21"/>
+      <c r="AB98" s="20"/>
+      <c r="AM98" s="21"/>
+      <c r="AN98" s="20"/>
+      <c r="AY98" s="21"/>
     </row>
     <row r="99" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D99" s="26"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="26"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="26"/>
-      <c r="AM99" s="27"/>
-      <c r="AN99" s="26"/>
-      <c r="AY99" s="27"/>
+      <c r="D99" s="20"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="20"/>
+      <c r="AA99" s="21"/>
+      <c r="AB99" s="20"/>
+      <c r="AM99" s="21"/>
+      <c r="AN99" s="20"/>
+      <c r="AY99" s="21"/>
     </row>
     <row r="100" spans="4:51" x14ac:dyDescent="0.4">
-      <c r="D100" s="26"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="26"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="26"/>
-      <c r="AM100" s="27"/>
-      <c r="AN100" s="26"/>
-      <c r="AY100" s="27"/>
+      <c r="D100" s="20"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="20"/>
+      <c r="AA100" s="21"/>
+      <c r="AB100" s="20"/>
+      <c r="AM100" s="21"/>
+      <c r="AN100" s="20"/>
+      <c r="AY100" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4407,7 +5536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4419,15 +5550,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -4469,10 +5600,10 @@
         <v>217</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -4492,10 +5623,10 @@
         <v>219</v>
       </c>
       <c r="F4">
-        <v>2.2999999999999998</v>
+        <v>5.4</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -4515,7 +5646,7 @@
         <v>221</v>
       </c>
       <c r="F5">
-        <v>5.0999999999999996</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -4541,7 +5672,7 @@
         <v>6.4</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -4561,7 +5692,7 @@
         <v>225</v>
       </c>
       <c r="F7">
-        <v>2.5</v>
+        <v>9.9</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>

--- a/Lenh_Dieu_Xe.xlsx
+++ b/Lenh_Dieu_Xe.xlsx
@@ -8,39 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project 70\Project-70m\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0F1CA3-B6C9-4136-B699-1E19516ED3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4DB474-4425-451C-B2C1-9916F993C1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="19022025" sheetId="1" r:id="rId1"/>
-    <sheet name="CONFIG" sheetId="2" r:id="rId2"/>
-    <sheet name="Dia_Chi" sheetId="3" r:id="rId3"/>
-    <sheet name="Driver_Timetable" sheetId="4" r:id="rId4"/>
-    <sheet name="Tai_Xe" sheetId="5" r:id="rId5"/>
+    <sheet name="19.02.2025" sheetId="1" r:id="rId1"/>
+    <sheet name="19022025" sheetId="2" r:id="rId2"/>
+    <sheet name="CONFIG" sheetId="3" r:id="rId3"/>
+    <sheet name="Dia_Chi" sheetId="4" r:id="rId4"/>
+    <sheet name="Driver_Timetable" sheetId="5" r:id="rId5"/>
+    <sheet name="Tai_Xe" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19022025'!$A$4:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'19.02.2025'!$A$4:$Q$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'19022025'!$A$4:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="252">
   <si>
     <t>Mã số: BM 01-QT 01-ĐX
 Ngày hiệu lực:25 – 08 -2022
@@ -87,18 +76,78 @@
     <t>ĐÃ GIAO</t>
   </si>
   <si>
+    <t>Truong Xuan - KCN Dai Dong Hoan Son Tien Du</t>
+  </si>
+  <si>
+    <t>12t = 54m3</t>
+  </si>
+  <si>
+    <t>D(00:30-&gt;04:30)</t>
+  </si>
+  <si>
+    <t>DM Chi Bang</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>Quý cô Bảo Mai</t>
+  </si>
+  <si>
+    <t>☐</t>
+  </si>
+  <si>
+    <t>CONG TY TNHH SANJEON VIET NAM - KCN Que Vo, tinh Bac Ninh</t>
+  </si>
+  <si>
+    <t>3.5t = 24.2m3</t>
+  </si>
+  <si>
+    <t>S(08:00-&gt;12:00)</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>Vân Vũ</t>
+  </si>
+  <si>
+    <t>CONG TY CO PHAN SYV -  Km 22, cum cong nghiep Ngoc Liep, xa Ngoc Liep, huyen Quoc Oai, thanh pho Ha Noi, Viet Nam</t>
+  </si>
+  <si>
+    <t>9t = 38.2m3</t>
+  </si>
+  <si>
+    <t>C(13:30-&gt;17:30)</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>Dũng Phạm</t>
+  </si>
+  <si>
+    <t>T(19:00-&gt;23:00)</t>
+  </si>
+  <si>
+    <t>NNN</t>
+  </si>
+  <si>
+    <t>Lan Lê</t>
+  </si>
+  <si>
+    <t>7t = 32m3</t>
+  </si>
+  <si>
     <t>Thông tin nhân viên</t>
   </si>
   <si>
     <t>1.4t = 9.7m3</t>
   </si>
   <si>
-    <t>S(08:00-&gt;12:00)</t>
-  </si>
-  <si>
-    <t>☐</t>
-  </si>
-  <si>
     <t>Tên nhân viên</t>
   </si>
   <si>
@@ -108,82 +157,58 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>3.5t = 24.2m3</t>
-  </si>
-  <si>
-    <t>C(13:30-&gt;17:30)</t>
-  </si>
-  <si>
     <t>☑</t>
   </si>
   <si>
-    <t>Vân Vũ</t>
-  </si>
-  <si>
-    <t>962184744586</t>
-  </si>
-  <si>
-    <t>+84-65-821 5264</t>
+    <t>Bà Duyên Hoàng</t>
+  </si>
+  <si>
+    <t>469008645904</t>
+  </si>
+  <si>
+    <t>08 3588 0629</t>
   </si>
   <si>
     <t>5t = 26.7m3</t>
   </si>
   <si>
-    <t>T(19:00-&gt;23:00)</t>
-  </si>
-  <si>
-    <t>Quý cô Bảo Mai</t>
-  </si>
-  <si>
-    <t>355792883692</t>
-  </si>
-  <si>
-    <t>04 9262013</t>
-  </si>
-  <si>
-    <t>7t = 32m3</t>
-  </si>
-  <si>
-    <t>D(00:30-&gt;04:30)</t>
-  </si>
-  <si>
-    <t>Dũng Phạm</t>
-  </si>
-  <si>
-    <t>500919355964</t>
-  </si>
-  <si>
-    <t>01 8952 1484</t>
-  </si>
-  <si>
-    <t>9t = 38.2m3</t>
+    <t>Vũ Dương</t>
+  </si>
+  <si>
+    <t>176038592060</t>
+  </si>
+  <si>
+    <t>+84 56 5987587</t>
+  </si>
+  <si>
+    <t>Cô Hà Mai</t>
+  </si>
+  <si>
+    <t>651103276532</t>
+  </si>
+  <si>
+    <t>(00)337-8637</t>
   </si>
   <si>
     <t>Báo sau</t>
   </si>
   <si>
-    <t>Lan Lê</t>
-  </si>
-  <si>
-    <t>049573932543</t>
-  </si>
-  <si>
-    <t>+84-38-032 2693</t>
-  </si>
-  <si>
-    <t>12t = 54m3</t>
-  </si>
-  <si>
-    <t>Hải Trần</t>
-  </si>
-  <si>
-    <t>252008295003</t>
-  </si>
-  <si>
-    <t>+84 56 8268407</t>
-  </si>
-  <si>
-    <t>X5</t>
+    <t>Trọng Đặng</t>
+  </si>
+  <si>
+    <t>158680734558</t>
+  </si>
+  <si>
+    <t>(04) 0826 7462</t>
+  </si>
+  <si>
+    <t>Hương Bùi</t>
+  </si>
+  <si>
+    <t>417639641228</t>
+  </si>
+  <si>
+    <t>08 1254 2247</t>
   </si>
   <si>
     <t>2387+JR7, phuong, Nguyet Duc, Thuan Thanh, Bac Ninh, Viet Nam</t>
@@ -192,9 +217,6 @@
     <t>X5 - 2387+JR7, phuong, Nguyet Duc, Thuan Thanh, Bac Ninh, Viet Nam</t>
   </si>
   <si>
-    <t>X7</t>
-  </si>
-  <si>
     <t>Thon Tam dao, Xa Phu Lam, Huyen Tien Du, Tinh Bac Ninh, Viet Nam</t>
   </si>
   <si>
@@ -594,9 +616,6 @@
     <t>KCN Dai Dong Hoan Son Tien Du</t>
   </si>
   <si>
-    <t>Truong Xuan - KCN Dai Dong Hoan Son Tien Du</t>
-  </si>
-  <si>
     <t>TQT</t>
   </si>
   <si>
@@ -612,9 +631,6 @@
     <t xml:space="preserve"> Km 22, cum cong nghiep Ngoc Liep, xa Ngoc Liep, huyen Quoc Oai, thanh pho Ha Noi, Viet Nam</t>
   </si>
   <si>
-    <t>CONG TY CO PHAN SYV -  Km 22, cum cong nghiep Ngoc Liep, xa Ngoc Liep, huyen Quoc Oai, thanh pho Ha Noi, Viet Nam</t>
-  </si>
-  <si>
     <t>CONG TY CO PHAN SMK VIET NAM</t>
   </si>
   <si>
@@ -648,9 +664,6 @@
     <t>KCN Que Vo, tinh Bac Ninh</t>
   </si>
   <si>
-    <t>CONG TY TNHH SANJEON VIET NAM - KCN Que Vo, tinh Bac Ninh</t>
-  </si>
-  <si>
     <t>CONG TY TNHH ZION VINA</t>
   </si>
   <si>
@@ -696,31 +709,31 @@
     <t>Nguyễn Văn A</t>
   </si>
   <si>
-    <t>0462124758</t>
+    <t>0743438926</t>
   </si>
   <si>
     <t>Trần Thị B</t>
   </si>
   <si>
-    <t>0113346418</t>
+    <t>0588286463</t>
   </si>
   <si>
     <t>Lê Văn C</t>
   </si>
   <si>
-    <t>0817375036</t>
+    <t>0454858354</t>
   </si>
   <si>
     <t>Phạm Thị D</t>
   </si>
   <si>
-    <t>0569049500</t>
+    <t>0765511865</t>
   </si>
   <si>
     <t>Hoàng Văn E</t>
   </si>
   <si>
-    <t>0397807153</t>
+    <t>0714407408</t>
   </si>
   <si>
     <t>Thông tin tài xế</t>
@@ -747,55 +760,34 @@
     <t>available</t>
   </si>
   <si>
-    <t>729993945241</t>
-  </si>
-  <si>
-    <t>29A-43478</t>
-  </si>
-  <si>
-    <t>405864047433</t>
-  </si>
-  <si>
-    <t>29A-38171</t>
-  </si>
-  <si>
-    <t>048402799183</t>
-  </si>
-  <si>
-    <t>29A-24622</t>
-  </si>
-  <si>
-    <t>958594898701</t>
-  </si>
-  <si>
-    <t>29A-47752</t>
-  </si>
-  <si>
-    <t>399210721129</t>
-  </si>
-  <si>
-    <t>29A-59979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khánh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huyền </t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>DM Chi Bang</t>
-  </si>
-  <si>
-    <t>GG</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>NNN</t>
+    <t>866754398837</t>
+  </si>
+  <si>
+    <t>29A-45406</t>
+  </si>
+  <si>
+    <t>059094238548</t>
+  </si>
+  <si>
+    <t>29A-70415</t>
+  </si>
+  <si>
+    <t>420220995608</t>
+  </si>
+  <si>
+    <t>29A-59638</t>
+  </si>
+  <si>
+    <t>201731678188</t>
+  </si>
+  <si>
+    <t>29A-25195</t>
+  </si>
+  <si>
+    <t>554553538817</t>
+  </si>
+  <si>
+    <t>29A-26690</t>
   </si>
 </sst>
 </file>
@@ -805,7 +797,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,12 +853,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1357,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11825"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1460,34 +1446,34 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
         <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1501,34 +1487,34 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1542,34 +1528,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7">
         <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1583,34 +1569,34 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C8" s="12">
         <v>50</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="3"/>
@@ -1624,34 +1610,34 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
         <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="3"/>
@@ -1665,34 +1651,34 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <v>39</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1706,34 +1692,34 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
         <v>38</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1747,34 +1733,34 @@
         <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C12" s="12">
         <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="3"/>
@@ -1788,34 +1774,34 @@
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
         <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="3"/>
@@ -1829,34 +1815,34 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3"/>
       <c r="O14" s="3"/>
@@ -1868,34 +1854,34 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7">
         <v>34</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1909,34 +1895,34 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C16" s="12">
         <v>33</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1950,34 +1936,34 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1991,34 +1977,34 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>31</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2032,34 +2018,34 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7">
         <v>30</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2073,34 +2059,34 @@
         <v>16</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C20" s="12">
         <v>29</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2114,34 +2100,34 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7">
         <v>28</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2155,34 +2141,34 @@
         <v>18</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7">
         <v>27</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2196,34 +2182,34 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7">
         <v>26</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2237,34 +2223,34 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C24" s="12">
         <v>25</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2278,34 +2264,34 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2319,34 +2305,34 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
         <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2360,34 +2346,34 @@
         <v>23</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>22</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2401,34 +2387,34 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C28" s="12">
         <v>21</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2442,34 +2428,34 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C29" s="7">
         <v>20</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -2483,34 +2469,34 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>19</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2524,34 +2510,34 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C31" s="12">
         <v>18</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2565,34 +2551,34 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7">
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2606,34 +2592,34 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C33" s="7">
         <v>16</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2647,34 +2633,34 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C34" s="12">
         <v>15</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2688,34 +2674,34 @@
         <v>31</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C35" s="7">
         <v>14</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2729,34 +2715,34 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C36" s="7">
         <v>60</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2770,34 +2756,34 @@
         <v>33</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C37" s="7">
         <v>20</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2811,34 +2797,34 @@
         <v>34</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
         <v>40</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2852,34 +2838,34 @@
         <v>35</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C39" s="12">
         <v>50</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2893,34 +2879,34 @@
         <v>36</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C40" s="7">
         <v>40</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L40" s="3"/>
       <c r="O40" s="3"/>
@@ -2932,34 +2918,34 @@
         <v>37</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C41" s="7">
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="3"/>
@@ -2973,34 +2959,34 @@
         <v>38</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C42" s="7">
         <v>60</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="3"/>
@@ -3014,34 +3000,34 @@
         <v>39</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C43" s="7">
         <v>20</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L43" s="17"/>
       <c r="O43" s="3"/>
@@ -3053,34 +3039,34 @@
         <v>40</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C44" s="7">
         <v>40</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>250</v>
+        <v>33</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="3"/>
@@ -3094,34 +3080,34 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C45" s="12">
         <v>50</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L45" s="16"/>
       <c r="O45" s="3"/>
@@ -3133,34 +3119,34 @@
         <v>42</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C46" s="7">
         <v>40</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="3"/>
@@ -3174,34 +3160,34 @@
         <v>43</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C47" s="7">
         <v>39</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="3"/>
@@ -3215,34 +3201,34 @@
         <v>44</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C48" s="7">
         <v>38</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="3"/>
@@ -3256,34 +3242,34 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C49" s="12">
         <v>37</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L49" s="3"/>
       <c r="O49" s="3"/>
@@ -3295,34 +3281,34 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C50" s="7">
         <v>36</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L50" s="3"/>
       <c r="O50" s="3"/>
@@ -3334,34 +3320,34 @@
         <v>47</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C51" s="7">
         <v>35</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="3"/>
@@ -3375,34 +3361,34 @@
         <v>48</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="C52" s="7">
         <v>34</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52" s="16"/>
       <c r="O52" s="3"/>
@@ -3414,34 +3400,34 @@
         <v>49</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="C53" s="12">
         <v>33</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L53" s="14"/>
       <c r="M53" s="3"/>
@@ -3455,34 +3441,34 @@
         <v>50</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C54" s="7">
         <v>32</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3496,34 +3482,34 @@
         <v>51</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="C55" s="7">
         <v>31</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L55" s="18"/>
     </row>
@@ -3539,71 +3525,2262 @@
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" sqref="E5:E55" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E55" xr:uid="{E2167936-0576-4ACF-98C3-F082E721F967}">
       <formula1>"S(08:00-&gt;12:00),C(13:30-&gt;17:30),T(19:00-&gt;23:00),D(00:30-&gt;04:30),Báo sau"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I5:K55" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="I5:K55" xr:uid="{559EF39C-6064-4E04-97FD-86B03F323B2B}">
       <formula1>"☐,☑"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G5:G55" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G5:G55" xr:uid="{0A5FF49E-4AB2-4B5D-918B-9F252D1F78EA}">
       <formula1>"X5,X7"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{65B799CA-0F56-46D6-950B-6F0077852BEB}">
+      <formula1>"1.4t = 9.7m3,3.5t = 24.2m3,5t = 26.7m3,7t = 32m3,9t = 38.2m3,12t = 54m3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{41139A77-5307-4327-AF6C-E7B81D56B669}">
       <formula1>"Vân Vũ,Quý cô Bảo Mai,Dũng Phạm,Lan Lê,Hải Trần"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"1.4t = 9.7m3,3.5t = 24.2m3,5t = 26.7m3,7t = 32m3,9t = 38.2m3,12t = 54m3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Dia_Chi!$C$3:$C$1000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:B55</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q11825"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.53515625" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="4" max="4" width="16.3046875" customWidth="1"/>
+    <col min="5" max="5" width="18.69140625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="14.84375" customWidth="1"/>
+    <col min="10" max="10" width="8.84375" customWidth="1"/>
+    <col min="11" max="11" width="9.07421875" customWidth="1"/>
+    <col min="12" max="12" width="10.07421875" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" customWidth="1"/>
+    <col min="14" max="14" width="8.84375" customWidth="1"/>
+    <col min="19" max="19" width="9.07421875" customWidth="1"/>
+    <col min="20" max="20" width="8.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="30"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="12">
+        <v>29</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>27</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="7">
+        <v>26</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="12">
+        <v>20</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="12">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="12">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="12">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <v>21</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="12">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="7">
+        <v>17</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="12">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="7">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="36" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="7">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="7">
+        <v>60</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="12">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="7">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="7">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+    </row>
+    <row r="39" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="12">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="7">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="7">
+        <v>40</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="12">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="7">
+        <v>39</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="14"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="7">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="7">
+        <v>39</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="12">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="7">
+        <v>40</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="7">
+        <v>41</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="12">
+        <v>50</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="7">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>43</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="7">
+        <v>39</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="7">
+        <v>38</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="12">
+        <v>45</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="12">
+        <v>37</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="7">
+        <v>46</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="7">
+        <v>36</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="12">
+        <v>47</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="7">
+        <v>35</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>48</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="7">
+        <v>34</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="12">
+        <v>49</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="12">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="14"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
+        <v>50</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="7">
+        <v>32</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17" ht="55.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="7">
+        <v>31</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="11825" spans="17:17" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q11825" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:Q32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" sqref="E5:E55" xr:uid="{3186847E-5544-4458-A9BF-6CA85313E5F8}">
+      <formula1>"S(08:00-&gt;12:00),C(13:30-&gt;17:30),T(19:00-&gt;23:00),D(00:30-&gt;04:30),Báo sau"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="I5:K55" xr:uid="{4FE0ADD2-74B1-4951-BD9D-418B3C0B5CC9}">
+      <formula1>"☐,☑"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="G5:G55" xr:uid="{B8C8F187-47FA-4295-A863-B089F9BEFB6F}">
+      <formula1>"X5,X7"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="H5:H55" xr:uid="{D6E0342C-5718-4682-B64D-56F10AD1BD71}">
+      <formula1>"Vân Vũ,Quý cô Bảo Mai,Dũng Phạm,Lan Lê,Hải Trần"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D5:D55" xr:uid="{DA3243BB-66BA-42AE-ACA5-F5C762F5E49D}">
+      <formula1>"1.4t = 9.7m3,3.5t = 24.2m3,5t = 26.7m3,7t = 32m3,9t = 38.2m3,12t = 54m3"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA1:AA5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="27" max="27" width="14.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="F1" s="19" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AB1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
@@ -3611,22 +5788,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
@@ -3634,19 +5811,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="19" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
@@ -3654,19 +5831,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="19" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
@@ -3674,19 +5851,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
@@ -3694,16 +5871,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
@@ -3711,13 +5888,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3728,9 +5905,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C56"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
@@ -3740,618 +5917,607 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>244</v>
-      </c>
-      <c r="B56" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4359,8 +6525,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4375,7 +6541,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -4433,13 +6599,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -4453,7 +6619,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
       <c r="P2" s="31" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -4467,7 +6633,7 @@
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
       <c r="AB2" s="31" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AC2" s="31"/>
       <c r="AD2" s="31"/>
@@ -4481,7 +6647,7 @@
       <c r="AL2" s="31"/>
       <c r="AM2" s="31"/>
       <c r="AN2" s="31" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AO2" s="31"/>
       <c r="AP2" s="31"/>
@@ -4500,10 +6666,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D3" s="20"/>
       <c r="O3" s="21"/>
@@ -4519,10 +6685,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D4" s="20"/>
       <c r="O4" s="21"/>
@@ -4538,10 +6704,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D5" s="20"/>
       <c r="O5" s="21"/>
@@ -4557,10 +6723,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D6" s="20"/>
       <c r="O6" s="21"/>
@@ -4576,10 +6742,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D7" s="20"/>
       <c r="O7" s="21"/>
@@ -5532,13 +7698,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5551,7 +7715,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -5562,25 +7726,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -5588,22 +7752,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F3">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -5611,22 +7775,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F4">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -5634,22 +7798,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F5">
-        <v>8.3000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -5657,22 +7821,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F6">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -5680,22 +7844,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F7">
-        <v>9.9</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
